--- a/BackTest/2019-10-22 BackTest LINK.xlsx
+++ b/BackTest/2019-10-22 BackTest LINK.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>85</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-6.172839506172839</v>
+      </c>
       <c r="L12" t="n">
         <v>3127.1</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>85</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-40.98360655737705</v>
+      </c>
       <c r="L13" t="n">
         <v>3126.6</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>85</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-34.54545454545455</v>
+      </c>
       <c r="L14" t="n">
         <v>3124.1</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>93</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-3.703703703703703</v>
+      </c>
       <c r="L15" t="n">
         <v>3123</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>101</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-28.57142857142857</v>
+      </c>
       <c r="L16" t="n">
         <v>3122</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>108</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-50.87719298245614</v>
+      </c>
       <c r="L17" t="n">
         <v>3119.7</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>118</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-54.09836065573771</v>
+      </c>
       <c r="L18" t="n">
         <v>3115.8</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>124</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-58.2089552238806</v>
+      </c>
       <c r="L19" t="n">
         <v>3111.9</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>131</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-76.47058823529412</v>
+      </c>
       <c r="L20" t="n">
         <v>3107.3</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>135</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-68</v>
+      </c>
       <c r="L21" t="n">
         <v>3101.7</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>150</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-29.23076923076923</v>
+      </c>
       <c r="L22" t="n">
         <v>3099.8</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>161</v>
       </c>
       <c r="K23" t="n">
-        <v>-22.29299363057325</v>
+        <v>-39.47368421052632</v>
       </c>
       <c r="L23" t="n">
         <v>3096.8</v>
@@ -1466,7 +1488,7 @@
         <v>167</v>
       </c>
       <c r="K24" t="n">
-        <v>-42.65734265734265</v>
+        <v>-59.45945945945946</v>
       </c>
       <c r="L24" t="n">
         <v>3093.2</v>
@@ -1515,7 +1537,7 @@
         <v>184</v>
       </c>
       <c r="K25" t="n">
-        <v>-24.67532467532467</v>
+        <v>-22.89156626506024</v>
       </c>
       <c r="L25" t="n">
         <v>3090.5</v>
@@ -1564,7 +1586,7 @@
         <v>185</v>
       </c>
       <c r="K26" t="n">
-        <v>-19.17808219178082</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L26" t="n">
         <v>3088.7</v>
@@ -1613,7 +1635,7 @@
         <v>185</v>
       </c>
       <c r="K27" t="n">
-        <v>-24.28571428571428</v>
+        <v>-1.492537313432836</v>
       </c>
       <c r="L27" t="n">
         <v>3087.6</v>
@@ -1662,7 +1684,7 @@
         <v>194</v>
       </c>
       <c r="K28" t="n">
-        <v>-21.67832167832168</v>
+        <v>20</v>
       </c>
       <c r="L28" t="n">
         <v>3088.4</v>
@@ -1711,7 +1733,7 @@
         <v>199</v>
       </c>
       <c r="K29" t="n">
-        <v>-14.08450704225352</v>
+        <v>38.23529411764706</v>
       </c>
       <c r="L29" t="n">
         <v>3090.3</v>
@@ -1760,7 +1782,7 @@
         <v>204</v>
       </c>
       <c r="K30" t="n">
-        <v>-10.20408163265306</v>
+        <v>50.72463768115942</v>
       </c>
       <c r="L30" t="n">
         <v>3093.4</v>
@@ -1809,7 +1831,7 @@
         <v>204</v>
       </c>
       <c r="K31" t="n">
-        <v>-14.8936170212766</v>
+        <v>37.03703703703704</v>
       </c>
       <c r="L31" t="n">
         <v>3096.9</v>
@@ -1860,7 +1882,7 @@
         <v>217</v>
       </c>
       <c r="K32" t="n">
-        <v>-9.090909090909092</v>
+        <v>32.14285714285715</v>
       </c>
       <c r="L32" t="n">
         <v>3097.6</v>
@@ -1911,7 +1933,7 @@
         <v>234</v>
       </c>
       <c r="K33" t="n">
-        <v>-19.46308724832215</v>
+        <v>10.44776119402985</v>
       </c>
       <c r="L33" t="n">
         <v>3097.7</v>
@@ -1962,7 +1984,7 @@
         <v>234</v>
       </c>
       <c r="K34" t="n">
-        <v>-19.46308724832215</v>
+        <v>-20</v>
       </c>
       <c r="L34" t="n">
         <v>3098.4</v>
@@ -2013,7 +2035,7 @@
         <v>237</v>
       </c>
       <c r="K35" t="n">
-        <v>-27.77777777777778</v>
+        <v>-26.92307692307692</v>
       </c>
       <c r="L35" t="n">
         <v>3097.1</v>
@@ -2064,7 +2086,7 @@
         <v>238</v>
       </c>
       <c r="K36" t="n">
-        <v>-22.62773722627737</v>
+        <v>-24.52830188679245</v>
       </c>
       <c r="L36" t="n">
         <v>3095.8</v>
@@ -2115,7 +2137,7 @@
         <v>247</v>
       </c>
       <c r="K37" t="n">
-        <v>-10.79136690647482</v>
+        <v>-24.52830188679245</v>
       </c>
       <c r="L37" t="n">
         <v>3095.4</v>
@@ -2166,7 +2188,7 @@
         <v>262</v>
       </c>
       <c r="K38" t="n">
-        <v>-13.88888888888889</v>
+        <v>-52.38095238095239</v>
       </c>
       <c r="L38" t="n">
         <v>3092.6</v>
@@ -2217,7 +2239,7 @@
         <v>264</v>
       </c>
       <c r="K39" t="n">
-        <v>-8.571428571428571</v>
+        <v>-60</v>
       </c>
       <c r="L39" t="n">
         <v>3089.5</v>
@@ -2268,7 +2290,7 @@
         <v>267</v>
       </c>
       <c r="K40" t="n">
-        <v>-5.88235294117647</v>
+        <v>-61.90476190476191</v>
       </c>
       <c r="L40" t="n">
         <v>3085.6</v>
@@ -2319,7 +2341,7 @@
         <v>278</v>
       </c>
       <c r="K41" t="n">
-        <v>4.895104895104895</v>
+        <v>-24.59016393442623</v>
       </c>
       <c r="L41" t="n">
         <v>3082.8</v>
@@ -2370,7 +2392,7 @@
         <v>286</v>
       </c>
       <c r="K42" t="n">
-        <v>-11.76470588235294</v>
+        <v>-11.53846153846154</v>
       </c>
       <c r="L42" t="n">
         <v>3080.5</v>
@@ -2421,7 +2443,7 @@
         <v>290</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.7751937984496124</v>
+        <v>-3.571428571428571</v>
       </c>
       <c r="L43" t="n">
         <v>3080.3</v>
@@ -2472,7 +2494,7 @@
         <v>301</v>
       </c>
       <c r="K44" t="n">
-        <v>-4.477611940298507</v>
+        <v>-15.625</v>
       </c>
       <c r="L44" t="n">
         <v>3079</v>
@@ -2523,7 +2545,7 @@
         <v>314</v>
       </c>
       <c r="K45" t="n">
-        <v>-27.69230769230769</v>
+        <v>-31.57894736842105</v>
       </c>
       <c r="L45" t="n">
         <v>3076.7</v>
@@ -2574,7 +2596,7 @@
         <v>317</v>
       </c>
       <c r="K46" t="n">
-        <v>-30.3030303030303</v>
+        <v>-51.42857142857142</v>
       </c>
       <c r="L46" t="n">
         <v>3074</v>
@@ -2625,7 +2647,7 @@
         <v>321</v>
       </c>
       <c r="K47" t="n">
-        <v>-26.47058823529412</v>
+        <v>-28.8135593220339</v>
       </c>
       <c r="L47" t="n">
         <v>3070.8</v>
@@ -2676,7 +2698,7 @@
         <v>322</v>
       </c>
       <c r="K48" t="n">
-        <v>-35.9375</v>
+        <v>-34.48275862068966</v>
       </c>
       <c r="L48" t="n">
         <v>3069</v>
@@ -2727,7 +2749,7 @@
         <v>342</v>
       </c>
       <c r="K49" t="n">
-        <v>-21.67832167832168</v>
+        <v>4</v>
       </c>
       <c r="L49" t="n">
         <v>3069</v>
@@ -2778,7 +2800,7 @@
         <v>350</v>
       </c>
       <c r="K50" t="n">
-        <v>-30.13698630136986</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L50" t="n">
         <v>3068.5</v>
@@ -2829,7 +2851,7 @@
         <v>351</v>
       </c>
       <c r="K51" t="n">
-        <v>-30.61224489795918</v>
+        <v>-13.84615384615385</v>
       </c>
       <c r="L51" t="n">
         <v>3066.8</v>
@@ -2880,7 +2902,7 @@
         <v>354</v>
       </c>
       <c r="K52" t="n">
-        <v>-25.54744525547445</v>
+        <v>-25</v>
       </c>
       <c r="L52" t="n">
         <v>3065.6</v>
@@ -2931,7 +2953,7 @@
         <v>354</v>
       </c>
       <c r="K53" t="n">
-        <v>-15</v>
+        <v>-9.433962264150944</v>
       </c>
       <c r="L53" t="n">
         <v>3064</v>
@@ -2982,7 +3004,7 @@
         <v>354</v>
       </c>
       <c r="K54" t="n">
-        <v>-15</v>
+        <v>20</v>
       </c>
       <c r="L54" t="n">
         <v>3063.5</v>
@@ -3033,7 +3055,7 @@
         <v>356</v>
       </c>
       <c r="K55" t="n">
-        <v>-10.92436974789916</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L55" t="n">
         <v>3064.5</v>
@@ -3084,7 +3106,7 @@
         <v>358</v>
       </c>
       <c r="K56" t="n">
-        <v>-10</v>
+        <v>29.72972972972973</v>
       </c>
       <c r="L56" t="n">
         <v>3066</v>
@@ -3135,7 +3157,7 @@
         <v>359</v>
       </c>
       <c r="K57" t="n">
-        <v>-17.85714285714286</v>
+        <v>35.13513513513514</v>
       </c>
       <c r="L57" t="n">
         <v>3067.2</v>
@@ -3186,7 +3208,7 @@
         <v>363</v>
       </c>
       <c r="K58" t="n">
-        <v>-8.91089108910891</v>
+        <v>-52.38095238095239</v>
       </c>
       <c r="L58" t="n">
         <v>3068.1</v>
@@ -3237,7 +3259,7 @@
         <v>382</v>
       </c>
       <c r="K59" t="n">
-        <v>6.779661016949152</v>
+        <v>50</v>
       </c>
       <c r="L59" t="n">
         <v>3068.9</v>
@@ -3288,7 +3310,7 @@
         <v>407</v>
       </c>
       <c r="K60" t="n">
-        <v>-10</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L60" t="n">
         <v>3068</v>
@@ -3339,7 +3361,7 @@
         <v>420</v>
       </c>
       <c r="K61" t="n">
-        <v>-8.450704225352112</v>
+        <v>12.12121212121212</v>
       </c>
       <c r="L61" t="n">
         <v>3068.5</v>
@@ -3390,7 +3412,7 @@
         <v>421</v>
       </c>
       <c r="K62" t="n">
-        <v>-3.703703703703703</v>
+        <v>10.44776119402985</v>
       </c>
       <c r="L62" t="n">
         <v>3069.2</v>
@@ -3441,7 +3463,7 @@
         <v>422</v>
       </c>
       <c r="K63" t="n">
-        <v>-7.575757575757576</v>
+        <v>8.823529411764707</v>
       </c>
       <c r="L63" t="n">
         <v>3069.8</v>
@@ -3492,7 +3514,7 @@
         <v>427</v>
       </c>
       <c r="K64" t="n">
-        <v>-3.174603174603174</v>
+        <v>-1.408450704225352</v>
       </c>
       <c r="L64" t="n">
         <v>3069.9</v>
@@ -3543,7 +3565,7 @@
         <v>432</v>
       </c>
       <c r="K65" t="n">
-        <v>11.86440677966102</v>
+        <v>2.702702702702703</v>
       </c>
       <c r="L65" t="n">
         <v>3070.3</v>
@@ -3594,7 +3616,7 @@
         <v>433</v>
       </c>
       <c r="K66" t="n">
-        <v>13.79310344827586</v>
+        <v>0</v>
       </c>
       <c r="L66" t="n">
         <v>3070.4</v>
@@ -3645,7 +3667,7 @@
         <v>442</v>
       </c>
       <c r="K67" t="n">
-        <v>2.479338842975207</v>
+        <v>-6.329113924050633</v>
       </c>
       <c r="L67" t="n">
         <v>3069.5</v>
@@ -3696,7 +3718,7 @@
         <v>443</v>
       </c>
       <c r="K68" t="n">
-        <v>2.479338842975207</v>
+        <v>-40.98360655737705</v>
       </c>
       <c r="L68" t="n">
         <v>3068.9</v>
@@ -3747,7 +3769,7 @@
         <v>448</v>
       </c>
       <c r="K69" t="n">
-        <v>-11.32075471698113</v>
+        <v>12.19512195121951</v>
       </c>
       <c r="L69" t="n">
         <v>3066.9</v>
@@ -3798,7 +3820,7 @@
         <v>452</v>
       </c>
       <c r="K70" t="n">
-        <v>-7.84313725490196</v>
+        <v>-37.5</v>
       </c>
       <c r="L70" t="n">
         <v>3067</v>
@@ -3849,7 +3871,7 @@
         <v>463</v>
       </c>
       <c r="K71" t="n">
-        <v>3.571428571428571</v>
+        <v>0</v>
       </c>
       <c r="L71" t="n">
         <v>3066.9</v>
@@ -3900,7 +3922,7 @@
         <v>464</v>
       </c>
       <c r="K72" t="n">
-        <v>7.272727272727272</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L72" t="n">
         <v>3067</v>
@@ -3951,7 +3973,7 @@
         <v>467</v>
       </c>
       <c r="K73" t="n">
-        <v>9.734513274336283</v>
+        <v>25</v>
       </c>
       <c r="L73" t="n">
         <v>3067.5</v>
@@ -4002,7 +4024,7 @@
         <v>480</v>
       </c>
       <c r="K74" t="n">
-        <v>19.04761904761905</v>
+        <v>37.5</v>
       </c>
       <c r="L74" t="n">
         <v>3069.8</v>
@@ -4053,7 +4075,7 @@
         <v>488</v>
       </c>
       <c r="K75" t="n">
-        <v>10.60606060606061</v>
+        <v>20</v>
       </c>
       <c r="L75" t="n">
         <v>3070.8</v>
@@ -4104,7 +4126,7 @@
         <v>493</v>
       </c>
       <c r="K76" t="n">
-        <v>5.185185185185185</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L76" t="n">
         <v>3071.4</v>
@@ -4155,7 +4177,7 @@
         <v>493</v>
       </c>
       <c r="K77" t="n">
-        <v>4.477611940298507</v>
+        <v>32</v>
       </c>
       <c r="L77" t="n">
         <v>3072.9</v>
@@ -4206,7 +4228,7 @@
         <v>494</v>
       </c>
       <c r="K78" t="n">
-        <v>8.396946564885496</v>
+        <v>26.08695652173913</v>
       </c>
       <c r="L78" t="n">
         <v>3074.6</v>
@@ -4257,7 +4279,7 @@
         <v>499</v>
       </c>
       <c r="K79" t="n">
-        <v>-2.564102564102564</v>
+        <v>44.68085106382978</v>
       </c>
       <c r="L79" t="n">
         <v>3076.3</v>
@@ -4308,7 +4330,7 @@
         <v>499</v>
       </c>
       <c r="K80" t="n">
-        <v>23.91304347826087</v>
+        <v>27.77777777777778</v>
       </c>
       <c r="L80" t="n">
         <v>3078.4</v>
@@ -4359,7 +4381,7 @@
         <v>509</v>
       </c>
       <c r="K81" t="n">
-        <v>-1.123595505617978</v>
+        <v>-2.222222222222222</v>
       </c>
       <c r="L81" t="n">
         <v>3078.4</v>
@@ -4410,7 +4432,7 @@
         <v>520</v>
       </c>
       <c r="K82" t="n">
-        <v>-11.11111111111111</v>
+        <v>-28.30188679245283</v>
       </c>
       <c r="L82" t="n">
         <v>3077.2</v>
@@ -4461,7 +4483,7 @@
         <v>523</v>
       </c>
       <c r="K83" t="n">
-        <v>-12.87128712871287</v>
+        <v>-72.09302325581395</v>
       </c>
       <c r="L83" t="n">
         <v>3075.4</v>
@@ -4512,7 +4534,7 @@
         <v>543</v>
       </c>
       <c r="K84" t="n">
-        <v>10.3448275862069</v>
+        <v>-5.454545454545454</v>
       </c>
       <c r="L84" t="n">
         <v>3074.3</v>
@@ -4563,7 +4585,7 @@
         <v>543</v>
       </c>
       <c r="K85" t="n">
-        <v>6.306306306306306</v>
+        <v>4</v>
       </c>
       <c r="L85" t="n">
         <v>3074</v>
@@ -4614,7 +4636,7 @@
         <v>544</v>
       </c>
       <c r="K86" t="n">
-        <v>6.306306306306306</v>
+        <v>1.96078431372549</v>
       </c>
       <c r="L86" t="n">
         <v>3074.1</v>
@@ -4665,7 +4687,7 @@
         <v>545</v>
       </c>
       <c r="K87" t="n">
-        <v>14.5631067961165</v>
+        <v>-1.96078431372549</v>
       </c>
       <c r="L87" t="n">
         <v>3074.1</v>
@@ -4716,7 +4738,7 @@
         <v>545</v>
       </c>
       <c r="K88" t="n">
-        <v>15.68627450980392</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L88" t="n">
         <v>3074</v>
@@ -4767,7 +4789,7 @@
         <v>545</v>
       </c>
       <c r="K89" t="n">
-        <v>11.34020618556701</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L89" t="n">
         <v>3073.4</v>
@@ -4818,7 +4840,7 @@
         <v>546</v>
       </c>
       <c r="K90" t="n">
-        <v>14.8936170212766</v>
+        <v>8.108108108108109</v>
       </c>
       <c r="L90" t="n">
         <v>3072.7</v>
@@ -4869,7 +4891,7 @@
         <v>546</v>
       </c>
       <c r="K91" t="n">
-        <v>3.614457831325301</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L91" t="n">
         <v>3073</v>
@@ -4920,7 +4942,7 @@
         <v>552</v>
       </c>
       <c r="K92" t="n">
-        <v>-4.545454545454546</v>
+        <v>37.93103448275862</v>
       </c>
       <c r="L92" t="n">
         <v>3073.8</v>
@@ -4971,7 +4993,7 @@
         <v>558</v>
       </c>
       <c r="K93" t="n">
-        <v>-1.098901098901099</v>
+        <v>-20</v>
       </c>
       <c r="L93" t="n">
         <v>3075.5</v>
@@ -5022,7 +5044,7 @@
         <v>568</v>
       </c>
       <c r="K94" t="n">
-        <v>-4.545454545454546</v>
+        <v>28</v>
       </c>
       <c r="L94" t="n">
         <v>3076.2</v>
@@ -5073,7 +5095,7 @@
         <v>574</v>
       </c>
       <c r="K95" t="n">
-        <v>-2.325581395348837</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L95" t="n">
         <v>3076.3</v>
@@ -5124,7 +5146,7 @@
         <v>582</v>
       </c>
       <c r="K96" t="n">
-        <v>12.35955056179775</v>
+        <v>29.72972972972973</v>
       </c>
       <c r="L96" t="n">
         <v>3077.3</v>
@@ -5175,7 +5197,7 @@
         <v>584</v>
       </c>
       <c r="K97" t="n">
-        <v>9.890109890109891</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L97" t="n">
         <v>3078.2</v>
@@ -5226,7 +5248,7 @@
         <v>584</v>
       </c>
       <c r="K98" t="n">
-        <v>8.888888888888889</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L98" t="n">
         <v>3079.1</v>
@@ -5277,7 +5299,7 @@
         <v>589</v>
       </c>
       <c r="K99" t="n">
-        <v>-2.222222222222222</v>
+        <v>11.62790697674419</v>
       </c>
       <c r="L99" t="n">
         <v>3079.5</v>
@@ -5328,7 +5350,7 @@
         <v>589</v>
       </c>
       <c r="K100" t="n">
-        <v>-2.222222222222222</v>
+        <v>11.62790697674419</v>
       </c>
       <c r="L100" t="n">
         <v>3080</v>
@@ -5379,7 +5401,7 @@
         <v>591</v>
       </c>
       <c r="K101" t="n">
-        <v>7.317073170731707</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L101" t="n">
         <v>3080.3</v>
@@ -5430,7 +5452,7 @@
         <v>601</v>
       </c>
       <c r="K102" t="n">
-        <v>8.641975308641975</v>
+        <v>-16.27906976744186</v>
       </c>
       <c r="L102" t="n">
         <v>3080.2</v>
@@ -5481,7 +5503,7 @@
         <v>607</v>
       </c>
       <c r="K103" t="n">
-        <v>19.04761904761905</v>
+        <v>-28.2051282051282</v>
       </c>
       <c r="L103" t="n">
         <v>3080.1</v>
@@ -5532,7 +5554,7 @@
         <v>621</v>
       </c>
       <c r="K104" t="n">
-        <v>-23.07692307692308</v>
+        <v>-40.42553191489361</v>
       </c>
       <c r="L104" t="n">
         <v>3077.6</v>
@@ -5583,7 +5605,7 @@
         <v>623</v>
       </c>
       <c r="K105" t="n">
-        <v>-20</v>
+        <v>-60.97560975609756</v>
       </c>
       <c r="L105" t="n">
         <v>3075.9</v>
@@ -5634,7 +5656,7 @@
         <v>636</v>
       </c>
       <c r="K106" t="n">
-        <v>-2.173913043478261</v>
+        <v>-19.23076923076923</v>
       </c>
       <c r="L106" t="n">
         <v>3074.7</v>
@@ -5685,7 +5707,7 @@
         <v>639</v>
       </c>
       <c r="K107" t="n">
-        <v>2.127659574468085</v>
+        <v>-12.72727272727273</v>
       </c>
       <c r="L107" t="n">
         <v>3074</v>
@@ -5736,7 +5758,7 @@
         <v>639</v>
       </c>
       <c r="K108" t="n">
-        <v>2.127659574468085</v>
+        <v>-4</v>
       </c>
       <c r="L108" t="n">
         <v>3073.3</v>
@@ -5787,7 +5809,7 @@
         <v>641</v>
       </c>
       <c r="K109" t="n">
-        <v>0</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L109" t="n">
         <v>3072.9</v>
@@ -5838,7 +5860,7 @@
         <v>648</v>
       </c>
       <c r="K110" t="n">
-        <v>7.84313725490196</v>
+        <v>8.771929824561402</v>
       </c>
       <c r="L110" t="n">
         <v>3073.2</v>
@@ -5889,7 +5911,7 @@
         <v>649</v>
       </c>
       <c r="K111" t="n">
-        <v>8.737864077669903</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L111" t="n">
         <v>3073.8</v>
@@ -5940,7 +5962,7 @@
         <v>664</v>
       </c>
       <c r="K112" t="n">
-        <v>26.78571428571428</v>
+        <v>43.85964912280701</v>
       </c>
       <c r="L112" t="n">
         <v>3076.9</v>
@@ -5991,7 +6013,7 @@
         <v>667</v>
       </c>
       <c r="K113" t="n">
-        <v>24.77064220183486</v>
+        <v>91.30434782608695</v>
       </c>
       <c r="L113" t="n">
         <v>3079.7</v>
@@ -6042,7 +6064,7 @@
         <v>678</v>
       </c>
       <c r="K114" t="n">
-        <v>25.45454545454545</v>
+        <v>92.72727272727272</v>
       </c>
       <c r="L114" t="n">
         <v>3085</v>
@@ -6093,7 +6115,7 @@
         <v>683</v>
       </c>
       <c r="K115" t="n">
-        <v>26.60550458715597</v>
+        <v>70.21276595744681</v>
       </c>
       <c r="L115" t="n">
         <v>3089.6</v>
@@ -6144,7 +6166,7 @@
         <v>683</v>
       </c>
       <c r="K116" t="n">
-        <v>20.79207920792079</v>
+        <v>68.18181818181817</v>
       </c>
       <c r="L116" t="n">
         <v>3092.9</v>
@@ -6195,7 +6217,7 @@
         <v>686</v>
       </c>
       <c r="K117" t="n">
-        <v>19.6078431372549</v>
+        <v>57.44680851063831</v>
       </c>
       <c r="L117" t="n">
         <v>3095.6</v>
@@ -6246,7 +6268,7 @@
         <v>704</v>
       </c>
       <c r="K118" t="n">
-        <v>1.666666666666667</v>
+        <v>17.46031746031746</v>
       </c>
       <c r="L118" t="n">
         <v>3096.5</v>
@@ -6297,7 +6319,7 @@
         <v>707</v>
       </c>
       <c r="K119" t="n">
-        <v>8.474576271186439</v>
+        <v>11.86440677966102</v>
       </c>
       <c r="L119" t="n">
         <v>3097.9</v>
@@ -6348,7 +6370,7 @@
         <v>717</v>
       </c>
       <c r="K120" t="n">
-        <v>15.625</v>
+        <v>23.52941176470588</v>
       </c>
       <c r="L120" t="n">
         <v>3099.6</v>
@@ -6399,7 +6421,7 @@
         <v>717</v>
       </c>
       <c r="K121" t="n">
-        <v>17.46031746031746</v>
+        <v>1.886792452830189</v>
       </c>
       <c r="L121" t="n">
         <v>3101.2</v>
@@ -6450,7 +6472,7 @@
         <v>717</v>
       </c>
       <c r="K122" t="n">
-        <v>27.58620689655172</v>
+        <v>-4</v>
       </c>
       <c r="L122" t="n">
         <v>3101.3</v>
@@ -6501,7 +6523,7 @@
         <v>717</v>
       </c>
       <c r="K123" t="n">
-        <v>23.63636363636364</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L123" t="n">
         <v>3101.1</v>
@@ -6552,7 +6574,7 @@
         <v>726</v>
       </c>
       <c r="K124" t="n">
-        <v>29.52380952380953</v>
+        <v>-39.53488372093023</v>
       </c>
       <c r="L124" t="n">
         <v>3098.9</v>
@@ -6603,7 +6625,7 @@
         <v>729</v>
       </c>
       <c r="K125" t="n">
-        <v>24.52830188679245</v>
+        <v>-43.47826086956522</v>
       </c>
       <c r="L125" t="n">
         <v>3096.9</v>
@@ -6654,7 +6676,7 @@
         <v>730</v>
       </c>
       <c r="K126" t="n">
-        <v>12.76595744680851</v>
+        <v>-40.90909090909091</v>
       </c>
       <c r="L126" t="n">
         <v>3094.8</v>
@@ -6705,7 +6727,7 @@
         <v>730</v>
       </c>
       <c r="K127" t="n">
-        <v>9.890109890109891</v>
+        <v>0</v>
       </c>
       <c r="L127" t="n">
         <v>3093</v>
@@ -6756,7 +6778,7 @@
         <v>731</v>
       </c>
       <c r="K128" t="n">
-        <v>10.8695652173913</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L128" t="n">
         <v>3093.1</v>
@@ -6807,7 +6829,7 @@
         <v>731</v>
       </c>
       <c r="K129" t="n">
-        <v>13.33333333333333</v>
+        <v>-85.71428571428571</v>
       </c>
       <c r="L129" t="n">
         <v>3092.9</v>
@@ -6858,7 +6880,7 @@
         <v>732</v>
       </c>
       <c r="K130" t="n">
-        <v>7.142857142857142</v>
+        <v>-73.33333333333333</v>
       </c>
       <c r="L130" t="n">
         <v>3091.8</v>
@@ -6909,7 +6931,7 @@
         <v>734</v>
       </c>
       <c r="K131" t="n">
-        <v>8.235294117647058</v>
+        <v>-52.94117647058824</v>
       </c>
       <c r="L131" t="n">
         <v>3090.9</v>
@@ -6960,7 +6982,7 @@
         <v>736</v>
       </c>
       <c r="K132" t="n">
-        <v>-13.88888888888889</v>
+        <v>-57.89473684210527</v>
       </c>
       <c r="L132" t="n">
         <v>3089.8</v>
@@ -7011,7 +7033,7 @@
         <v>737</v>
       </c>
       <c r="K133" t="n">
-        <v>-17.14285714285714</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L133" t="n">
         <v>3088.8</v>
@@ -7062,7 +7084,7 @@
         <v>741</v>
       </c>
       <c r="K134" t="n">
-        <v>-30.15873015873016</v>
+        <v>50</v>
       </c>
       <c r="L134" t="n">
         <v>3089.1</v>
@@ -7113,7 +7135,7 @@
         <v>741</v>
       </c>
       <c r="K135" t="n">
-        <v>-24.13793103448276</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L135" t="n">
         <v>3089.7</v>
@@ -7164,7 +7186,7 @@
         <v>746</v>
       </c>
       <c r="K136" t="n">
-        <v>-30.15873015873016</v>
+        <v>12.5</v>
       </c>
       <c r="L136" t="n">
         <v>3089.9</v>
@@ -7215,7 +7237,7 @@
         <v>746</v>
       </c>
       <c r="K137" t="n">
-        <v>-26.66666666666667</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L137" t="n">
         <v>3090.1</v>
@@ -7266,7 +7288,7 @@
         <v>751</v>
       </c>
       <c r="K138" t="n">
-        <v>14.8936170212766</v>
+        <v>30</v>
       </c>
       <c r="L138" t="n">
         <v>3090.7</v>
@@ -7317,7 +7339,7 @@
         <v>755</v>
       </c>
       <c r="K139" t="n">
-        <v>0</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L139" t="n">
         <v>3090.9</v>
@@ -7368,7 +7390,7 @@
         <v>759</v>
       </c>
       <c r="K140" t="n">
-        <v>-14.28571428571428</v>
+        <v>12</v>
       </c>
       <c r="L140" t="n">
         <v>3091.4</v>
@@ -7419,7 +7441,7 @@
         <v>765</v>
       </c>
       <c r="K141" t="n">
-        <v>-25</v>
+        <v>-3.448275862068965</v>
       </c>
       <c r="L141" t="n">
         <v>3091.1</v>
@@ -7470,7 +7492,7 @@
         <v>771</v>
       </c>
       <c r="K142" t="n">
-        <v>-11.11111111111111</v>
+        <v>11.76470588235294</v>
       </c>
       <c r="L142" t="n">
         <v>3091.6</v>
@@ -7521,7 +7543,7 @@
         <v>777</v>
       </c>
       <c r="K143" t="n">
-        <v>-20</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L143" t="n">
         <v>3091.4</v>
@@ -7572,7 +7594,7 @@
         <v>781</v>
       </c>
       <c r="K144" t="n">
-        <v>-12.72727272727273</v>
+        <v>-25</v>
       </c>
       <c r="L144" t="n">
         <v>3090.4</v>
@@ -7623,7 +7645,7 @@
         <v>781</v>
       </c>
       <c r="K145" t="n">
-        <v>-7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L145" t="n">
         <v>3089.4</v>
@@ -7674,7 +7696,7 @@
         <v>781</v>
       </c>
       <c r="K146" t="n">
-        <v>-5.88235294117647</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L146" t="n">
         <v>3088.9</v>
@@ -7725,7 +7747,7 @@
         <v>785</v>
       </c>
       <c r="K147" t="n">
-        <v>-12.72727272727273</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L147" t="n">
         <v>3088</v>
@@ -7776,7 +7798,7 @@
         <v>793</v>
       </c>
       <c r="K148" t="n">
-        <v>0</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L148" t="n">
         <v>3087.4</v>
@@ -7827,7 +7849,7 @@
         <v>798</v>
       </c>
       <c r="K149" t="n">
-        <v>-7.462686567164178</v>
+        <v>-28.2051282051282</v>
       </c>
       <c r="L149" t="n">
         <v>3086.7</v>
@@ -7878,7 +7900,7 @@
         <v>801</v>
       </c>
       <c r="K150" t="n">
-        <v>-4.347826086956522</v>
+        <v>-5.555555555555555</v>
       </c>
       <c r="L150" t="n">
         <v>3085.9</v>
@@ -7929,7 +7951,7 @@
         <v>801</v>
       </c>
       <c r="K151" t="n">
-        <v>-7.462686567164178</v>
+        <v>-26.66666666666667</v>
       </c>
       <c r="L151" t="n">
         <v>3085.7</v>
@@ -7980,7 +8002,7 @@
         <v>804</v>
       </c>
       <c r="K152" t="n">
-        <v>0</v>
+        <v>3.703703703703703</v>
       </c>
       <c r="L152" t="n">
         <v>3085.2</v>
@@ -8031,7 +8053,7 @@
         <v>806</v>
       </c>
       <c r="K153" t="n">
-        <v>1.449275362318841</v>
+        <v>28</v>
       </c>
       <c r="L153" t="n">
         <v>3085.5</v>
@@ -8082,7 +8104,7 @@
         <v>814</v>
       </c>
       <c r="K154" t="n">
-        <v>6.849315068493151</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L154" t="n">
         <v>3087</v>
@@ -8133,7 +8155,7 @@
         <v>815</v>
       </c>
       <c r="K155" t="n">
-        <v>8.108108108108109</v>
+        <v>47.05882352941176</v>
       </c>
       <c r="L155" t="n">
         <v>3088.6</v>
@@ -8184,7 +8206,7 @@
         <v>826</v>
       </c>
       <c r="K156" t="n">
-        <v>0</v>
+        <v>21.95121951219512</v>
       </c>
       <c r="L156" t="n">
         <v>3089.1</v>
@@ -8235,7 +8257,7 @@
         <v>837</v>
       </c>
       <c r="K157" t="n">
-        <v>12.08791208791209</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L157" t="n">
         <v>3091.1</v>
@@ -8286,7 +8308,7 @@
         <v>839</v>
       </c>
       <c r="K158" t="n">
-        <v>9.090909090909092</v>
+        <v>46.34146341463415</v>
       </c>
       <c r="L158" t="n">
         <v>3092.5</v>
@@ -8337,7 +8359,7 @@
         <v>846</v>
       </c>
       <c r="K159" t="n">
-        <v>20.87912087912088</v>
+        <v>51.11111111111111</v>
       </c>
       <c r="L159" t="n">
         <v>3095.1</v>
@@ -8388,7 +8410,7 @@
         <v>849</v>
       </c>
       <c r="K160" t="n">
-        <v>13.33333333333333</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="L160" t="n">
         <v>3097.1</v>
@@ -8439,7 +8461,7 @@
         <v>849</v>
       </c>
       <c r="K161" t="n">
-        <v>21.42857142857143</v>
+        <v>37.77777777777778</v>
       </c>
       <c r="L161" t="n">
         <v>3099.1</v>
@@ -8490,7 +8512,7 @@
         <v>849</v>
       </c>
       <c r="K162" t="n">
-        <v>15.38461538461539</v>
+        <v>34.88372093023256</v>
       </c>
       <c r="L162" t="n">
         <v>3100.8</v>
@@ -8541,7 +8563,7 @@
         <v>861</v>
       </c>
       <c r="K163" t="n">
-        <v>35.71428571428572</v>
+        <v>40.42553191489361</v>
       </c>
       <c r="L163" t="n">
         <v>3103.5</v>
@@ -8592,7 +8614,7 @@
         <v>865</v>
       </c>
       <c r="K164" t="n">
-        <v>45.23809523809524</v>
+        <v>44</v>
       </c>
       <c r="L164" t="n">
         <v>3105.8</v>
@@ -8643,7 +8665,7 @@
         <v>870</v>
       </c>
       <c r="K165" t="n">
-        <v>48.31460674157304</v>
+        <v>86.36363636363636</v>
       </c>
       <c r="L165" t="n">
         <v>3108.5</v>
@@ -8694,7 +8716,7 @@
         <v>870</v>
       </c>
       <c r="K166" t="n">
-        <v>48.31460674157304</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="L166" t="n">
         <v>3112.3</v>
@@ -8745,7 +8767,7 @@
         <v>877</v>
       </c>
       <c r="K167" t="n">
-        <v>43.47826086956522</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="L167" t="n">
         <v>3114.3</v>
@@ -8796,7 +8818,7 @@
         <v>891</v>
       </c>
       <c r="K168" t="n">
-        <v>46.93877551020408</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L168" t="n">
         <v>3117.5</v>
@@ -8847,7 +8869,7 @@
         <v>908</v>
       </c>
       <c r="K169" t="n">
-        <v>30.90909090909091</v>
+        <v>18.64406779661017</v>
       </c>
       <c r="L169" t="n">
         <v>3118.3</v>
@@ -8898,7 +8920,7 @@
         <v>916</v>
       </c>
       <c r="K170" t="n">
-        <v>20</v>
+        <v>4.477611940298507</v>
       </c>
       <c r="L170" t="n">
         <v>3118.6</v>
@@ -8949,7 +8971,7 @@
         <v>927</v>
       </c>
       <c r="K171" t="n">
-        <v>26.98412698412698</v>
+        <v>17.94871794871795</v>
       </c>
       <c r="L171" t="n">
         <v>3120</v>
@@ -9000,7 +9022,7 @@
         <v>930</v>
       </c>
       <c r="K172" t="n">
-        <v>22.22222222222222</v>
+        <v>-1.449275362318841</v>
       </c>
       <c r="L172" t="n">
         <v>3121.1</v>
@@ -9051,7 +9073,7 @@
         <v>935</v>
       </c>
       <c r="K173" t="n">
-        <v>24.03100775193798</v>
+        <v>0</v>
       </c>
       <c r="L173" t="n">
         <v>3121.5</v>
@@ -9102,7 +9124,7 @@
         <v>936</v>
       </c>
       <c r="K174" t="n">
-        <v>18.0327868852459</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L174" t="n">
         <v>3121.4</v>
@@ -9153,7 +9175,7 @@
         <v>937</v>
       </c>
       <c r="K175" t="n">
-        <v>16.39344262295082</v>
+        <v>-10.44776119402985</v>
       </c>
       <c r="L175" t="n">
         <v>3120.7</v>
@@ -9204,7 +9226,7 @@
         <v>939</v>
       </c>
       <c r="K176" t="n">
-        <v>29.20353982300885</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="L176" t="n">
         <v>3120.2</v>
@@ -9255,7 +9277,7 @@
         <v>940</v>
       </c>
       <c r="K177" t="n">
-        <v>20.38834951456311</v>
+        <v>-26.53061224489796</v>
       </c>
       <c r="L177" t="n">
         <v>3120.3</v>
@@ -9306,7 +9328,7 @@
         <v>946</v>
       </c>
       <c r="K178" t="n">
-        <v>12.14953271028037</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L178" t="n">
         <v>3118.4</v>
@@ -9357,7 +9379,7 @@
         <v>951</v>
       </c>
       <c r="K179" t="n">
-        <v>10.47619047619048</v>
+        <v>31.42857142857143</v>
       </c>
       <c r="L179" t="n">
         <v>3118.7</v>
@@ -9408,7 +9430,7 @@
         <v>967</v>
       </c>
       <c r="K180" t="n">
-        <v>-1.694915254237288</v>
+        <v>-40</v>
       </c>
       <c r="L180" t="n">
         <v>3118.2</v>
@@ -9459,7 +9481,7 @@
         <v>970</v>
       </c>
       <c r="K181" t="n">
-        <v>0.8264462809917356</v>
+        <v>-25</v>
       </c>
       <c r="L181" t="n">
         <v>3116.9</v>
@@ -9510,7 +9532,7 @@
         <v>976</v>
       </c>
       <c r="K182" t="n">
-        <v>5.511811023622047</v>
+        <v>-21.95121951219512</v>
       </c>
       <c r="L182" t="n">
         <v>3116.5</v>
@@ -9561,7 +9583,7 @@
         <v>984</v>
       </c>
       <c r="K183" t="n">
-        <v>-10.56910569105691</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L183" t="n">
         <v>3114.8</v>
@@ -9612,7 +9634,7 @@
         <v>985</v>
       </c>
       <c r="K184" t="n">
-        <v>-13.33333333333333</v>
+        <v>-29.16666666666667</v>
       </c>
       <c r="L184" t="n">
         <v>3113.3</v>
@@ -9663,7 +9685,7 @@
         <v>996</v>
       </c>
       <c r="K185" t="n">
-        <v>-7.936507936507936</v>
+        <v>-8.771929824561402</v>
       </c>
       <c r="L185" t="n">
         <v>3113</v>
@@ -9714,7 +9736,7 @@
         <v>996</v>
       </c>
       <c r="K186" t="n">
-        <v>-7.936507936507936</v>
+        <v>-7.142857142857142</v>
       </c>
       <c r="L186" t="n">
         <v>3112.5</v>
@@ -9765,7 +9787,7 @@
         <v>1009</v>
       </c>
       <c r="K187" t="n">
-        <v>-12.12121212121212</v>
+        <v>-17.46031746031746</v>
       </c>
       <c r="L187" t="n">
         <v>3110.8</v>
@@ -9816,7 +9838,7 @@
         <v>1009</v>
       </c>
       <c r="K188" t="n">
-        <v>-25.42372881355932</v>
+        <v>-27.58620689655172</v>
       </c>
       <c r="L188" t="n">
         <v>3109.7</v>
@@ -9867,7 +9889,7 @@
         <v>1019</v>
       </c>
       <c r="K189" t="n">
-        <v>-2.702702702702703</v>
+        <v>19.23076923076923</v>
       </c>
       <c r="L189" t="n">
         <v>3109.1</v>
@@ -9918,7 +9940,7 @@
         <v>1029</v>
       </c>
       <c r="K190" t="n">
-        <v>-4.424778761061947</v>
+        <v>-5.084745762711865</v>
       </c>
       <c r="L190" t="n">
         <v>3109.1</v>
@@ -9969,7 +9991,7 @@
         <v>1033</v>
       </c>
       <c r="K191" t="n">
-        <v>-18.86792452830189</v>
+        <v>-22.80701754385965</v>
       </c>
       <c r="L191" t="n">
         <v>3108.4</v>
@@ -10020,7 +10042,7 @@
         <v>1035</v>
       </c>
       <c r="K192" t="n">
-        <v>-18.09523809523809</v>
+        <v>-13.72549019607843</v>
       </c>
       <c r="L192" t="n">
         <v>3106.9</v>
@@ -10071,7 +10093,7 @@
         <v>1035</v>
       </c>
       <c r="K193" t="n">
-        <v>-24</v>
+        <v>-16</v>
       </c>
       <c r="L193" t="n">
         <v>3106.2</v>
@@ -10122,7 +10144,7 @@
         <v>1041</v>
       </c>
       <c r="K194" t="n">
-        <v>-27.61904761904762</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L194" t="n">
         <v>3104.8</v>
@@ -10173,7 +10195,7 @@
         <v>1048</v>
       </c>
       <c r="K195" t="n">
-        <v>-31.53153153153153</v>
+        <v>-61.53846153846154</v>
       </c>
       <c r="L195" t="n">
         <v>3101.6</v>
@@ -10224,7 +10246,7 @@
         <v>1060</v>
       </c>
       <c r="K196" t="n">
-        <v>-40.49586776859504</v>
+        <v>-60.78431372549019</v>
       </c>
       <c r="L196" t="n">
         <v>3097.2</v>
@@ -10275,7 +10297,7 @@
         <v>1070</v>
       </c>
       <c r="K197" t="n">
-        <v>-29.23076923076923</v>
+        <v>-34.42622950819672</v>
       </c>
       <c r="L197" t="n">
         <v>3095.1</v>
@@ -10326,7 +10348,7 @@
         <v>1072</v>
       </c>
       <c r="K198" t="n">
-        <v>-26.98412698412698</v>
+        <v>-62.26415094339622</v>
       </c>
       <c r="L198" t="n">
         <v>3092.8</v>
@@ -10377,7 +10399,7 @@
         <v>1083</v>
       </c>
       <c r="K199" t="n">
-        <v>-37.87878787878788</v>
+        <v>-62.96296296296296</v>
       </c>
       <c r="L199" t="n">
         <v>3088.4</v>
@@ -10428,7 +10450,7 @@
         <v>1085</v>
       </c>
       <c r="K200" t="n">
-        <v>-30.50847457627119</v>
+        <v>-61.53846153846154</v>
       </c>
       <c r="L200" t="n">
         <v>3084.8</v>
@@ -10479,7 +10501,7 @@
         <v>1093</v>
       </c>
       <c r="K201" t="n">
-        <v>-25.20325203252033</v>
+        <v>-37.93103448275862</v>
       </c>
       <c r="L201" t="n">
         <v>3082.4</v>
@@ -10530,7 +10552,7 @@
         <v>1094</v>
       </c>
       <c r="K202" t="n">
-        <v>-30.50847457627119</v>
+        <v>-35.59322033898305</v>
       </c>
       <c r="L202" t="n">
         <v>3080.3</v>
@@ -10581,7 +10603,7 @@
         <v>1102</v>
       </c>
       <c r="K203" t="n">
-        <v>-30.50847457627119</v>
+        <v>-37.70491803278689</v>
       </c>
       <c r="L203" t="n">
         <v>3077.4</v>
@@ -10632,7 +10654,7 @@
         <v>1107</v>
       </c>
       <c r="K204" t="n">
-        <v>-26.22950819672131</v>
+        <v>-18.64406779661017</v>
       </c>
       <c r="L204" t="n">
         <v>3075.6</v>
@@ -10683,7 +10705,7 @@
         <v>1112</v>
       </c>
       <c r="K205" t="n">
-        <v>-41.37931034482759</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L205" t="n">
         <v>3074</v>
@@ -10734,7 +10756,7 @@
         <v>1114</v>
       </c>
       <c r="K206" t="n">
-        <v>-42.3728813559322</v>
+        <v>-36.36363636363637</v>
       </c>
       <c r="L206" t="n">
         <v>3073.4</v>
@@ -10785,7 +10807,7 @@
         <v>1121</v>
       </c>
       <c r="K207" t="n">
-        <v>-26.78571428571428</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L207" t="n">
         <v>3072.5</v>
@@ -10836,7 +10858,7 @@
         <v>1122</v>
       </c>
       <c r="K208" t="n">
-        <v>-25.66371681415929</v>
+        <v>12.82051282051282</v>
       </c>
       <c r="L208" t="n">
         <v>3071.9</v>
@@ -10887,7 +10909,7 @@
         <v>1126</v>
       </c>
       <c r="K209" t="n">
-        <v>-32.71028037383177</v>
+        <v>26.82926829268293</v>
       </c>
       <c r="L209" t="n">
         <v>3072.8</v>
@@ -10938,7 +10960,7 @@
         <v>1128</v>
       </c>
       <c r="K210" t="n">
-        <v>-23.23232323232323</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L210" t="n">
         <v>3074.1</v>
@@ -10989,7 +11011,7 @@
         <v>1130</v>
       </c>
       <c r="K211" t="n">
-        <v>-17.52577319587629</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L211" t="n">
         <v>3074.8</v>
@@ -11040,7 +11062,7 @@
         <v>1131</v>
       </c>
       <c r="K212" t="n">
-        <v>-14.58333333333333</v>
+        <v>51.72413793103448</v>
       </c>
       <c r="L212" t="n">
         <v>3075.5</v>
@@ -11091,7 +11113,7 @@
         <v>1132</v>
       </c>
       <c r="K213" t="n">
-        <v>-15.4639175257732</v>
+        <v>36</v>
       </c>
       <c r="L213" t="n">
         <v>3076.9</v>
@@ -11142,7 +11164,7 @@
         <v>1133</v>
       </c>
       <c r="K214" t="n">
-        <v>-8.695652173913043</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L214" t="n">
         <v>3077.9</v>
@@ -11193,7 +11215,7 @@
         <v>1134</v>
       </c>
       <c r="K215" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="L215" t="n">
         <v>3079.5</v>
@@ -11244,7 +11266,7 @@
         <v>1136</v>
       </c>
       <c r="K216" t="n">
-        <v>13.1578947368421</v>
+        <v>60</v>
       </c>
       <c r="L216" t="n">
         <v>3081.1</v>
@@ -11295,7 +11317,7 @@
         <v>1140</v>
       </c>
       <c r="K217" t="n">
-        <v>-5.714285714285714</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L217" t="n">
         <v>3081.6</v>
@@ -11346,7 +11368,7 @@
         <v>1140</v>
       </c>
       <c r="K218" t="n">
-        <v>-2.941176470588235</v>
+        <v>0</v>
       </c>
       <c r="L218" t="n">
         <v>3082</v>
@@ -11397,7 +11419,7 @@
         <v>1143</v>
       </c>
       <c r="K219" t="n">
-        <v>10</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L219" t="n">
         <v>3081.7</v>
@@ -11448,7 +11470,7 @@
         <v>1143</v>
       </c>
       <c r="K220" t="n">
-        <v>13.79310344827586</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L220" t="n">
         <v>3081.2</v>
@@ -11499,7 +11521,7 @@
         <v>1152</v>
       </c>
       <c r="K221" t="n">
-        <v>15.25423728813559</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L221" t="n">
         <v>3081.4</v>
@@ -11550,7 +11572,7 @@
         <v>1157</v>
       </c>
       <c r="K222" t="n">
-        <v>4.761904761904762</v>
+        <v>-12</v>
       </c>
       <c r="L222" t="n">
         <v>3081</v>
@@ -11601,7 +11623,7 @@
         <v>1159</v>
       </c>
       <c r="K223" t="n">
-        <v>22.80701754385965</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L223" t="n">
         <v>3080.9</v>
@@ -11652,7 +11674,7 @@
         <v>1164</v>
       </c>
       <c r="K224" t="n">
-        <v>5.263157894736842</v>
+        <v>-26.66666666666667</v>
       </c>
       <c r="L224" t="n">
         <v>3080.2</v>
@@ -11703,7 +11725,7 @@
         <v>1164</v>
       </c>
       <c r="K225" t="n">
-        <v>15.38461538461539</v>
+        <v>-21.42857142857143</v>
       </c>
       <c r="L225" t="n">
         <v>3079.4</v>
@@ -11754,7 +11776,7 @@
         <v>1164</v>
       </c>
       <c r="K226" t="n">
-        <v>20</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L226" t="n">
         <v>3078.8</v>
@@ -11805,7 +11827,7 @@
         <v>1170</v>
       </c>
       <c r="K227" t="n">
-        <v>-6.122448979591836</v>
+        <v>-26.66666666666667</v>
       </c>
       <c r="L227" t="n">
         <v>3078</v>
@@ -11856,7 +11878,7 @@
         <v>1171</v>
       </c>
       <c r="K228" t="n">
-        <v>-10.20408163265306</v>
+        <v>-21.42857142857143</v>
       </c>
       <c r="L228" t="n">
         <v>3077.1</v>
@@ -11907,7 +11929,7 @@
         <v>1175</v>
       </c>
       <c r="K229" t="n">
-        <v>-26.53061224489796</v>
+        <v>-31.25</v>
       </c>
       <c r="L229" t="n">
         <v>3076.1</v>
@@ -11958,7 +11980,7 @@
         <v>1183</v>
       </c>
       <c r="K230" t="n">
-        <v>-41.81818181818181</v>
+        <v>-87.09677419354838</v>
       </c>
       <c r="L230" t="n">
         <v>3074.3</v>
@@ -12009,7 +12031,7 @@
         <v>1185</v>
       </c>
       <c r="K231" t="n">
-        <v>-49.09090909090909</v>
+        <v>-85.71428571428571</v>
       </c>
       <c r="L231" t="n">
         <v>3071.4</v>
@@ -12060,7 +12082,7 @@
         <v>1195</v>
       </c>
       <c r="K232" t="n">
-        <v>-28.125</v>
+        <v>-44.44444444444444</v>
       </c>
       <c r="L232" t="n">
         <v>3070</v>
@@ -12111,7 +12133,7 @@
         <v>1211</v>
       </c>
       <c r="K233" t="n">
-        <v>-41.77215189873418</v>
+        <v>-57.44680851063831</v>
       </c>
       <c r="L233" t="n">
         <v>3066.8</v>
@@ -12162,7 +12184,7 @@
         <v>1217</v>
       </c>
       <c r="K234" t="n">
-        <v>-47.61904761904761</v>
+        <v>-62.26415094339622</v>
       </c>
       <c r="L234" t="n">
         <v>3063.5</v>
@@ -12213,7 +12235,7 @@
         <v>1222</v>
       </c>
       <c r="K235" t="n">
-        <v>-52.27272727272727</v>
+        <v>-65.51724137931035</v>
       </c>
       <c r="L235" t="n">
         <v>3059.7</v>
@@ -12264,7 +12286,7 @@
         <v>1222</v>
       </c>
       <c r="K236" t="n">
-        <v>-51.16279069767442</v>
+        <v>-61.53846153846154</v>
       </c>
       <c r="L236" t="n">
         <v>3055.9</v>
@@ -12315,7 +12337,7 @@
         <v>1235</v>
       </c>
       <c r="K237" t="n">
-        <v>-28.42105263157895</v>
+        <v>-28.125</v>
       </c>
       <c r="L237" t="n">
         <v>3054</v>
@@ -12366,7 +12388,7 @@
         <v>1235</v>
       </c>
       <c r="K238" t="n">
-        <v>-28.42105263157895</v>
+        <v>-23.33333333333333</v>
       </c>
       <c r="L238" t="n">
         <v>3052.2</v>
@@ -12417,7 +12439,7 @@
         <v>1250</v>
       </c>
       <c r="K239" t="n">
-        <v>-36.44859813084112</v>
+        <v>-31.34328358208955</v>
       </c>
       <c r="L239" t="n">
         <v>3049.3</v>
@@ -12468,7 +12490,7 @@
         <v>1263</v>
       </c>
       <c r="K240" t="n">
-        <v>-21.66666666666667</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L240" t="n">
         <v>3048.5</v>
@@ -12519,7 +12541,7 @@
         <v>1265</v>
       </c>
       <c r="K241" t="n">
-        <v>-32.74336283185841</v>
+        <v>-25.71428571428571</v>
       </c>
       <c r="L241" t="n">
         <v>3047.7</v>
@@ -12570,7 +12592,7 @@
         <v>1265</v>
       </c>
       <c r="K242" t="n">
-        <v>-29.62962962962963</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L242" t="n">
         <v>3045.9</v>
@@ -12621,7 +12643,7 @@
         <v>1265</v>
       </c>
       <c r="K243" t="n">
-        <v>-32.0754716981132</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L243" t="n">
         <v>3045.7</v>
@@ -12672,7 +12694,7 @@
         <v>1276</v>
       </c>
       <c r="K244" t="n">
-        <v>-35.71428571428572</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L244" t="n">
         <v>3045</v>
@@ -12723,7 +12745,7 @@
         <v>1277</v>
       </c>
       <c r="K245" t="n">
-        <v>-36.28318584070797</v>
+        <v>-5.454545454545454</v>
       </c>
       <c r="L245" t="n">
         <v>3044.7</v>
@@ -12774,7 +12796,7 @@
         <v>1287</v>
       </c>
       <c r="K246" t="n">
-        <v>-25.20325203252033</v>
+        <v>-11.53846153846154</v>
       </c>
       <c r="L246" t="n">
         <v>3045.4</v>
@@ -12825,7 +12847,7 @@
         <v>1289</v>
       </c>
       <c r="K247" t="n">
-        <v>-19.32773109243698</v>
+        <v>-7.407407407407407</v>
       </c>
       <c r="L247" t="n">
         <v>3045</v>
@@ -12876,7 +12898,7 @@
         <v>1300</v>
       </c>
       <c r="K248" t="n">
-        <v>-8.527131782945736</v>
+        <v>44</v>
       </c>
       <c r="L248" t="n">
         <v>3045.7</v>
@@ -12927,7 +12949,7 @@
         <v>1307</v>
       </c>
       <c r="K249" t="n">
-        <v>-10.60606060606061</v>
+        <v>4.545454545454546</v>
       </c>
       <c r="L249" t="n">
         <v>3047.2</v>
@@ -12978,7 +13000,7 @@
         <v>1320</v>
       </c>
       <c r="K250" t="n">
-        <v>5.109489051094891</v>
+        <v>30.90909090909091</v>
       </c>
       <c r="L250" t="n">
         <v>3048.7</v>
@@ -13029,7 +13051,7 @@
         <v>1320</v>
       </c>
       <c r="K251" t="n">
-        <v>6.666666666666667</v>
+        <v>30.90909090909091</v>
       </c>
       <c r="L251" t="n">
         <v>3050.4</v>
@@ -13080,7 +13102,7 @@
         <v>1321</v>
       </c>
       <c r="K252" t="n">
-        <v>-1.587301587301587</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L252" t="n">
         <v>3052</v>
@@ -13131,7 +13153,7 @@
         <v>1326</v>
       </c>
       <c r="K253" t="n">
-        <v>7.82608695652174</v>
+        <v>44</v>
       </c>
       <c r="L253" t="n">
         <v>3053.1</v>
@@ -13182,7 +13204,7 @@
         <v>1328</v>
       </c>
       <c r="K254" t="n">
-        <v>15.31531531531531</v>
+        <v>49.01960784313725</v>
       </c>
       <c r="L254" t="n">
         <v>3055.5</v>
@@ -13233,7 +13255,7 @@
         <v>1332</v>
       </c>
       <c r="K255" t="n">
-        <v>23.63636363636364</v>
+        <v>42.22222222222222</v>
       </c>
       <c r="L255" t="n">
         <v>3058.4</v>
@@ -13284,7 +13306,7 @@
         <v>1334</v>
       </c>
       <c r="K256" t="n">
-        <v>21.42857142857143</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L256" t="n">
         <v>3060.1</v>
@@ -13335,7 +13357,7 @@
         <v>1337</v>
       </c>
       <c r="K257" t="n">
-        <v>7.84313725490196</v>
+        <v>2.702702702702703</v>
       </c>
       <c r="L257" t="n">
         <v>3061.3</v>
@@ -13386,7 +13408,7 @@
         <v>1337</v>
       </c>
       <c r="K258" t="n">
-        <v>7.84313725490196</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="L258" t="n">
         <v>3061.4</v>
@@ -13437,7 +13459,7 @@
         <v>1344</v>
       </c>
       <c r="K259" t="n">
-        <v>31.91489361702128</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L259" t="n">
         <v>3062.9</v>
@@ -13488,7 +13510,7 @@
         <v>1351</v>
       </c>
       <c r="K260" t="n">
-        <v>11.36363636363636</v>
+        <v>-16.12903225806452</v>
       </c>
       <c r="L260" t="n">
         <v>3062.4</v>
@@ -13539,7 +13561,7 @@
         <v>1351</v>
       </c>
       <c r="K261" t="n">
-        <v>13.95348837209302</v>
+        <v>-13.33333333333333</v>
       </c>
       <c r="L261" t="n">
         <v>3061.9</v>
@@ -13590,7 +13612,7 @@
         <v>1374</v>
       </c>
       <c r="K262" t="n">
-        <v>-10.09174311926606</v>
+        <v>-45.83333333333333</v>
       </c>
       <c r="L262" t="n">
         <v>3059.2</v>
@@ -13641,7 +13663,7 @@
         <v>1374</v>
       </c>
       <c r="K263" t="n">
-        <v>-10.09174311926606</v>
+        <v>-52.17391304347826</v>
       </c>
       <c r="L263" t="n">
         <v>3057</v>
@@ -13692,7 +13714,7 @@
         <v>1374</v>
       </c>
       <c r="K264" t="n">
-        <v>0</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L264" t="n">
         <v>3054.6</v>
@@ -13743,7 +13765,7 @@
         <v>1375</v>
       </c>
       <c r="K265" t="n">
-        <v>2.040816326530612</v>
+        <v>-60.97560975609756</v>
       </c>
       <c r="L265" t="n">
         <v>3051.9</v>
@@ -13794,7 +13816,7 @@
         <v>1388</v>
       </c>
       <c r="K266" t="n">
-        <v>4.95049504950495</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L266" t="n">
         <v>3050.7</v>
@@ -13845,7 +13867,7 @@
         <v>1399</v>
       </c>
       <c r="K267" t="n">
-        <v>-7.272727272727272</v>
+        <v>-32.25806451612903</v>
       </c>
       <c r="L267" t="n">
         <v>3048.7</v>
@@ -13896,7 +13918,7 @@
         <v>1402</v>
       </c>
       <c r="K268" t="n">
-        <v>-21.56862745098039</v>
+        <v>-51.72413793103448</v>
       </c>
       <c r="L268" t="n">
         <v>3046.4</v>
@@ -13947,7 +13969,7 @@
         <v>1410</v>
       </c>
       <c r="K269" t="n">
-        <v>-22.33009708737864</v>
+        <v>-52.54237288135594</v>
       </c>
       <c r="L269" t="n">
         <v>3042.6</v>
@@ -13998,7 +14020,7 @@
         <v>1410</v>
       </c>
       <c r="K270" t="n">
-        <v>-40</v>
+        <v>-52.54237288135594</v>
       </c>
       <c r="L270" t="n">
         <v>3039.5</v>
@@ -14049,7 +14071,7 @@
         <v>1418</v>
       </c>
       <c r="K271" t="n">
-        <v>-28.57142857142857</v>
+        <v>0</v>
       </c>
       <c r="L271" t="n">
         <v>3037.2</v>
@@ -14100,7 +14122,7 @@
         <v>1427</v>
       </c>
       <c r="K272" t="n">
-        <v>-33.9622641509434</v>
+        <v>-16.9811320754717</v>
       </c>
       <c r="L272" t="n">
         <v>3036.3</v>
@@ -14151,7 +14173,7 @@
         <v>1428</v>
       </c>
       <c r="K273" t="n">
-        <v>-31.37254901960784</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L273" t="n">
         <v>3035.3</v>
@@ -14202,7 +14224,7 @@
         <v>1428</v>
       </c>
       <c r="K274" t="n">
-        <v>-34</v>
+        <v>-20.75471698113208</v>
       </c>
       <c r="L274" t="n">
         <v>3034.3</v>
@@ -14253,7 +14275,7 @@
         <v>1430</v>
       </c>
       <c r="K275" t="n">
-        <v>-40.81632653061224</v>
+        <v>-61.90476190476191</v>
       </c>
       <c r="L275" t="n">
         <v>3033</v>
@@ -14304,7 +14326,7 @@
         <v>1430</v>
       </c>
       <c r="K276" t="n">
-        <v>-39.58333333333333</v>
+        <v>-48.38709677419355</v>
       </c>
       <c r="L276" t="n">
         <v>3030.4</v>
@@ -14355,7 +14377,7 @@
         <v>1431</v>
       </c>
       <c r="K277" t="n">
-        <v>-36.17021276595745</v>
+        <v>-37.93103448275862</v>
       </c>
       <c r="L277" t="n">
         <v>3029</v>
@@ -14406,7 +14428,7 @@
         <v>1434</v>
       </c>
       <c r="K278" t="n">
-        <v>-38.14432989690722</v>
+        <v>-25</v>
       </c>
       <c r="L278" t="n">
         <v>3027.6</v>
@@ -14457,7 +14479,7 @@
         <v>1437</v>
       </c>
       <c r="K279" t="n">
-        <v>-50.53763440860215</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L279" t="n">
         <v>3026.7</v>
@@ -14508,7 +14530,7 @@
         <v>1442</v>
       </c>
       <c r="K280" t="n">
-        <v>-38.46153846153847</v>
+        <v>-50</v>
       </c>
       <c r="L280" t="n">
         <v>3026.3</v>
@@ -14559,7 +14581,7 @@
         <v>1444</v>
       </c>
       <c r="K281" t="n">
-        <v>-39.78494623655914</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L281" t="n">
         <v>3024.9</v>
@@ -14610,7 +14632,7 @@
         <v>1444</v>
       </c>
       <c r="K282" t="n">
-        <v>-20</v>
+        <v>-25</v>
       </c>
       <c r="L282" t="n">
         <v>3024.4</v>
@@ -14661,7 +14683,7 @@
         <v>1449</v>
       </c>
       <c r="K283" t="n">
-        <v>-12</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L283" t="n">
         <v>3024.5</v>
@@ -14712,7 +14734,7 @@
         <v>1450</v>
       </c>
       <c r="K284" t="n">
-        <v>-10.52631578947368</v>
+        <v>20</v>
       </c>
       <c r="L284" t="n">
         <v>3024.7</v>
@@ -14763,7 +14785,7 @@
         <v>1451</v>
       </c>
       <c r="K285" t="n">
-        <v>-13.1578947368421</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L285" t="n">
         <v>3025</v>
@@ -14814,7 +14836,7 @@
         <v>1458</v>
       </c>
       <c r="K286" t="n">
-        <v>-42.85714285714285</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L286" t="n">
         <v>3024.6</v>
@@ -14865,7 +14887,7 @@
         <v>1459</v>
       </c>
       <c r="K287" t="n">
-        <v>-33.33333333333333</v>
+        <v>-12</v>
       </c>
       <c r="L287" t="n">
         <v>3024</v>
@@ -14916,7 +14938,7 @@
         <v>1460</v>
       </c>
       <c r="K288" t="n">
-        <v>-27.58620689655172</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L288" t="n">
         <v>3023.8</v>
@@ -14967,7 +14989,7 @@
         <v>1461</v>
       </c>
       <c r="K289" t="n">
-        <v>-13.72549019607843</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L289" t="n">
         <v>3024</v>
@@ -15018,7 +15040,7 @@
         <v>1461</v>
       </c>
       <c r="K290" t="n">
-        <v>-13.72549019607843</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L290" t="n">
         <v>3023.7</v>
@@ -15069,7 +15091,7 @@
         <v>1471</v>
       </c>
       <c r="K291" t="n">
-        <v>-9.433962264150944</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L291" t="n">
         <v>3024.6</v>
@@ -15120,7 +15142,7 @@
         <v>1474</v>
       </c>
       <c r="K292" t="n">
-        <v>14.8936170212766</v>
+        <v>28</v>
       </c>
       <c r="L292" t="n">
         <v>3025.8</v>
@@ -15171,7 +15193,7 @@
         <v>1476</v>
       </c>
       <c r="K293" t="n">
-        <v>20.83333333333334</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="L293" t="n">
         <v>3026.7</v>
@@ -15222,7 +15244,7 @@
         <v>1479</v>
       </c>
       <c r="K294" t="n">
-        <v>25.49019607843137</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L294" t="n">
         <v>3027.8</v>
@@ -15273,7 +15295,7 @@
         <v>1480</v>
       </c>
       <c r="K295" t="n">
-        <v>32</v>
+        <v>90.90909090909091</v>
       </c>
       <c r="L295" t="n">
         <v>3029.1</v>
@@ -15324,7 +15346,7 @@
         <v>1482</v>
       </c>
       <c r="K296" t="n">
-        <v>34.61538461538461</v>
+        <v>100</v>
       </c>
       <c r="L296" t="n">
         <v>3031.3</v>
@@ -15375,7 +15397,7 @@
         <v>1505</v>
       </c>
       <c r="K297" t="n">
-        <v>-8.108108108108109</v>
+        <v>-2.222222222222222</v>
       </c>
       <c r="L297" t="n">
         <v>3031.3</v>
@@ -15426,7 +15448,7 @@
         <v>1507</v>
       </c>
       <c r="K298" t="n">
-        <v>-6.849315068493151</v>
+        <v>-8.695652173913043</v>
       </c>
       <c r="L298" t="n">
         <v>3031</v>
@@ -15477,7 +15499,7 @@
         <v>1508</v>
       </c>
       <c r="K299" t="n">
-        <v>-4.225352112676056</v>
+        <v>-10.63829787234043</v>
       </c>
       <c r="L299" t="n">
         <v>3030.5</v>
@@ -15528,7 +15550,7 @@
         <v>1508</v>
       </c>
       <c r="K300" t="n">
-        <v>-12.12121212121212</v>
+        <v>-40.54054054054054</v>
       </c>
       <c r="L300" t="n">
         <v>3030</v>
@@ -15579,7 +15601,7 @@
         <v>1510</v>
       </c>
       <c r="K301" t="n">
-        <v>-12.12121212121212</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L301" t="n">
         <v>3028.3</v>
@@ -15630,7 +15652,7 @@
         <v>1511</v>
       </c>
       <c r="K302" t="n">
-        <v>-13.43283582089552</v>
+        <v>-65.71428571428571</v>
       </c>
       <c r="L302" t="n">
         <v>3026.2</v>
@@ -15681,7 +15703,7 @@
         <v>1513</v>
       </c>
       <c r="K303" t="n">
-        <v>-25</v>
+        <v>-82.35294117647058</v>
       </c>
       <c r="L303" t="n">
         <v>3023.7</v>
@@ -15732,7 +15754,7 @@
         <v>1515</v>
       </c>
       <c r="K304" t="n">
-        <v>-29.23076923076923</v>
+        <v>-88.57142857142857</v>
       </c>
       <c r="L304" t="n">
         <v>3020.7</v>
@@ -15783,7 +15805,7 @@
         <v>1520</v>
       </c>
       <c r="K305" t="n">
-        <v>-18.84057971014493</v>
+        <v>-73.68421052631578</v>
       </c>
       <c r="L305" t="n">
         <v>3018.1</v>
@@ -15834,7 +15856,7 @@
         <v>1521</v>
       </c>
       <c r="K306" t="n">
-        <v>-7.936507936507936</v>
+        <v>-25</v>
       </c>
       <c r="L306" t="n">
         <v>3015.4</v>
@@ -15885,7 +15907,7 @@
         <v>1527</v>
       </c>
       <c r="K307" t="n">
-        <v>2.941176470588235</v>
+        <v>20</v>
       </c>
       <c r="L307" t="n">
         <v>3015.6</v>
@@ -15936,7 +15958,7 @@
         <v>1529</v>
       </c>
       <c r="K308" t="n">
-        <v>-1.449275362318841</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L308" t="n">
         <v>3015.8</v>
@@ -15987,7 +16009,7 @@
         <v>1530</v>
       </c>
       <c r="K309" t="n">
-        <v>-1.449275362318841</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L309" t="n">
         <v>3016.2</v>
@@ -16038,7 +16060,7 @@
         <v>1531</v>
       </c>
       <c r="K310" t="n">
-        <v>-2.857142857142857</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L310" t="n">
         <v>3016.5</v>
@@ -16089,7 +16111,7 @@
         <v>1535</v>
       </c>
       <c r="K311" t="n">
-        <v>-12.5</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="L311" t="n">
         <v>3017.4</v>
@@ -16140,7 +16162,7 @@
         <v>1539</v>
       </c>
       <c r="K312" t="n">
-        <v>-23.07692307692308</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="L312" t="n">
         <v>3018</v>
@@ -16191,7 +16213,7 @@
         <v>1539</v>
       </c>
       <c r="K313" t="n">
-        <v>-26.98412698412698</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="L313" t="n">
         <v>3018.8</v>
@@ -16242,7 +16264,7 @@
         <v>1539</v>
       </c>
       <c r="K314" t="n">
-        <v>-33.33333333333333</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L314" t="n">
         <v>3019.8</v>
@@ -16293,7 +16315,7 @@
         <v>1543</v>
       </c>
       <c r="K315" t="n">
-        <v>-26.98412698412698</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="L315" t="n">
         <v>3020.7</v>
@@ -16344,7 +16366,7 @@
         <v>1558</v>
       </c>
       <c r="K316" t="n">
-        <v>-5.263157894736842</v>
+        <v>54.83870967741935</v>
       </c>
       <c r="L316" t="n">
         <v>3023</v>
@@ -16395,7 +16417,7 @@
         <v>1575</v>
       </c>
       <c r="K317" t="n">
-        <v>2.857142857142857</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L317" t="n">
         <v>3023</v>
@@ -16446,7 +16468,7 @@
         <v>1577</v>
       </c>
       <c r="K318" t="n">
-        <v>2.857142857142857</v>
+        <v>-2.127659574468085</v>
       </c>
       <c r="L318" t="n">
         <v>3023</v>
@@ -16497,7 +16519,7 @@
         <v>1587</v>
       </c>
       <c r="K319" t="n">
-        <v>-8.860759493670885</v>
+        <v>-17.85714285714286</v>
       </c>
       <c r="L319" t="n">
         <v>3021.9</v>
@@ -16548,7 +16570,7 @@
         <v>1597</v>
       </c>
       <c r="K320" t="n">
-        <v>3.370786516853932</v>
+        <v>-6.451612903225806</v>
       </c>
       <c r="L320" t="n">
         <v>3021.9</v>
@@ -16599,7 +16621,7 @@
         <v>1600</v>
       </c>
       <c r="K321" t="n">
-        <v>8.888888888888889</v>
+        <v>4.918032786885246</v>
       </c>
       <c r="L321" t="n">
         <v>3021.8</v>
@@ -16650,7 +16672,7 @@
         <v>1604</v>
       </c>
       <c r="K322" t="n">
-        <v>13.97849462365591</v>
+        <v>10.76923076923077</v>
       </c>
       <c r="L322" t="n">
         <v>3022.5</v>
@@ -16701,7 +16723,7 @@
         <v>1611</v>
       </c>
       <c r="K323" t="n">
-        <v>8.163265306122449</v>
+        <v>0</v>
       </c>
       <c r="L323" t="n">
         <v>3022.5</v>
@@ -16752,7 +16774,7 @@
         <v>1611</v>
       </c>
       <c r="K324" t="n">
-        <v>10.41666666666667</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L324" t="n">
         <v>3022.5</v>
@@ -16803,7 +16825,7 @@
         <v>1616</v>
       </c>
       <c r="K325" t="n">
-        <v>0</v>
+        <v>-41.37931034482759</v>
       </c>
       <c r="L325" t="n">
         <v>3021.6</v>
@@ -16854,7 +16876,7 @@
         <v>1618</v>
       </c>
       <c r="K326" t="n">
-        <v>-3.092783505154639</v>
+        <v>-20.93023255813954</v>
       </c>
       <c r="L326" t="n">
         <v>3019</v>
@@ -16905,7 +16927,7 @@
         <v>1623</v>
       </c>
       <c r="K327" t="n">
-        <v>-4.166666666666666</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L327" t="n">
         <v>3018.6</v>
@@ -16956,7 +16978,7 @@
         <v>1630</v>
       </c>
       <c r="K328" t="n">
-        <v>-8.91089108910891</v>
+        <v>2.325581395348837</v>
       </c>
       <c r="L328" t="n">
         <v>3017.7</v>
@@ -17007,7 +17029,7 @@
         <v>1630</v>
       </c>
       <c r="K329" t="n">
-        <v>-10</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L329" t="n">
         <v>3017.8</v>
@@ -17058,7 +17080,7 @@
         <v>1630</v>
       </c>
       <c r="K330" t="n">
-        <v>-9.090909090909092</v>
+        <v>-40</v>
       </c>
       <c r="L330" t="n">
         <v>3016.9</v>
@@ -17109,7 +17131,7 @@
         <v>1632</v>
       </c>
       <c r="K331" t="n">
-        <v>-11.34020618556701</v>
+        <v>-50</v>
       </c>
       <c r="L331" t="n">
         <v>3015.9</v>
@@ -17160,7 +17182,7 @@
         <v>1643</v>
       </c>
       <c r="K332" t="n">
-        <v>3.846153846153846</v>
+        <v>12.5</v>
       </c>
       <c r="L332" t="n">
         <v>3015.6</v>
@@ -17211,7 +17233,7 @@
         <v>1646</v>
       </c>
       <c r="K333" t="n">
-        <v>0.9345794392523363</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="L333" t="n">
         <v>3015.7</v>
@@ -17262,7 +17284,7 @@
         <v>1650</v>
       </c>
       <c r="K334" t="n">
-        <v>-2.702702702702703</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L334" t="n">
         <v>3015.4</v>
@@ -17313,7 +17335,7 @@
         <v>1651</v>
       </c>
       <c r="K335" t="n">
-        <v>-7.407407407407407</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L335" t="n">
         <v>3015.5</v>
@@ -17364,7 +17386,7 @@
         <v>1659</v>
       </c>
       <c r="K336" t="n">
-        <v>-14.85148514851485</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L336" t="n">
         <v>3016.6</v>
@@ -17415,7 +17437,7 @@
         <v>1677</v>
       </c>
       <c r="K337" t="n">
-        <v>-15.68627450980392</v>
+        <v>-10.63829787234043</v>
       </c>
       <c r="L337" t="n">
         <v>3015.4</v>
@@ -17466,7 +17488,7 @@
         <v>1692</v>
       </c>
       <c r="K338" t="n">
-        <v>0.8695652173913043</v>
+        <v>16.12903225806452</v>
       </c>
       <c r="L338" t="n">
         <v>3016.4</v>
@@ -17517,7 +17539,7 @@
         <v>1694</v>
       </c>
       <c r="K339" t="n">
-        <v>12.14953271028037</v>
+        <v>18.75</v>
       </c>
       <c r="L339" t="n">
         <v>3017.6</v>
@@ -17568,7 +17590,7 @@
         <v>1695</v>
       </c>
       <c r="K340" t="n">
-        <v>4.081632653061225</v>
+        <v>17.46031746031746</v>
       </c>
       <c r="L340" t="n">
         <v>3018.9</v>
@@ -17619,7 +17641,7 @@
         <v>1701</v>
       </c>
       <c r="K341" t="n">
-        <v>-4.95049504950495</v>
+        <v>-10.3448275862069</v>
       </c>
       <c r="L341" t="n">
         <v>3019.4</v>
@@ -17670,7 +17692,7 @@
         <v>1730</v>
       </c>
       <c r="K342" t="n">
-        <v>-30.15873015873016</v>
+        <v>-38.09523809523809</v>
       </c>
       <c r="L342" t="n">
         <v>3015.9</v>
@@ -17721,7 +17743,7 @@
         <v>1753</v>
       </c>
       <c r="K343" t="n">
-        <v>-5.633802816901409</v>
+        <v>-4.854368932038835</v>
       </c>
       <c r="L343" t="n">
         <v>3015</v>
@@ -17772,7 +17794,7 @@
         <v>1757</v>
       </c>
       <c r="K344" t="n">
-        <v>-2.73972602739726</v>
+        <v>0</v>
       </c>
       <c r="L344" t="n">
         <v>3014.9</v>
@@ -17823,7 +17845,7 @@
         <v>1758</v>
       </c>
       <c r="K345" t="n">
-        <v>0</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L345" t="n">
         <v>3014.8</v>
@@ -17874,7 +17896,7 @@
         <v>1761</v>
       </c>
       <c r="K346" t="n">
-        <v>3.496503496503497</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L346" t="n">
         <v>3014.2</v>
@@ -17925,7 +17947,7 @@
         <v>1762</v>
       </c>
       <c r="K347" t="n">
-        <v>0.7194244604316548</v>
+        <v>-2.857142857142857</v>
       </c>
       <c r="L347" t="n">
         <v>3015.5</v>
@@ -17976,7 +17998,7 @@
         <v>1767</v>
       </c>
       <c r="K348" t="n">
-        <v>9.48905109489051</v>
+        <v>1.36986301369863</v>
       </c>
       <c r="L348" t="n">
         <v>3015.8</v>
@@ -18027,7 +18049,7 @@
         <v>1770</v>
       </c>
       <c r="K349" t="n">
-        <v>11.42857142857143</v>
+        <v>4</v>
       </c>
       <c r="L349" t="n">
         <v>3016.2</v>
@@ -18078,7 +18100,7 @@
         <v>1771</v>
       </c>
       <c r="K350" t="n">
-        <v>12.05673758865248</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L350" t="n">
         <v>3016.6</v>
@@ -18129,7 +18151,7 @@
         <v>1786</v>
       </c>
       <c r="K351" t="n">
-        <v>19.48051948051948</v>
+        <v>96.42857142857143</v>
       </c>
       <c r="L351" t="n">
         <v>3019.1</v>
@@ -18180,7 +18202,7 @@
         <v>1793</v>
       </c>
       <c r="K352" t="n">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="L352" t="n">
         <v>3023.8</v>
@@ -18231,7 +18253,7 @@
         <v>1801</v>
       </c>
       <c r="K353" t="n">
-        <v>14.83870967741935</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L353" t="n">
         <v>3027</v>
@@ -18282,7 +18304,7 @@
         <v>1801</v>
       </c>
       <c r="K354" t="n">
-        <v>17.88079470198675</v>
+        <v>67.44186046511628</v>
       </c>
       <c r="L354" t="n">
         <v>3029.8</v>
@@ -18333,7 +18355,7 @@
         <v>1810</v>
       </c>
       <c r="K355" t="n">
-        <v>23.27044025157233</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L355" t="n">
         <v>3033.6</v>
@@ -18384,7 +18406,7 @@
         <v>1815</v>
       </c>
       <c r="K356" t="n">
-        <v>21.7948717948718</v>
+        <v>73.58490566037736</v>
       </c>
       <c r="L356" t="n">
         <v>3037.6</v>
@@ -18435,7 +18457,7 @@
         <v>1817</v>
       </c>
       <c r="K357" t="n">
-        <v>38.57142857142858</v>
+        <v>72</v>
       </c>
       <c r="L357" t="n">
         <v>3041.7</v>
@@ -18486,7 +18508,7 @@
         <v>1817</v>
       </c>
       <c r="K358" t="n">
-        <v>31.2</v>
+        <v>70.21276595744681</v>
       </c>
       <c r="L358" t="n">
         <v>3045.3</v>
@@ -18537,7 +18559,7 @@
         <v>1817</v>
       </c>
       <c r="K359" t="n">
-        <v>30.08130081300813</v>
+        <v>69.56521739130434</v>
       </c>
       <c r="L359" t="n">
         <v>3048.6</v>
@@ -18588,7 +18610,7 @@
         <v>1824</v>
       </c>
       <c r="K360" t="n">
-        <v>22.48062015503876</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L360" t="n">
         <v>3051.1</v>
@@ -18639,7 +18661,7 @@
         <v>1839</v>
       </c>
       <c r="K361" t="n">
-        <v>14.49275362318841</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L361" t="n">
         <v>3050.6</v>
@@ -18690,7 +18712,7 @@
         <v>1851</v>
       </c>
       <c r="K362" t="n">
-        <v>50.41322314049587</v>
+        <v>12</v>
       </c>
       <c r="L362" t="n">
         <v>3052</v>
@@ -18741,7 +18763,7 @@
         <v>1862</v>
       </c>
       <c r="K363" t="n">
-        <v>24.77064220183486</v>
+        <v>-8.196721311475409</v>
       </c>
       <c r="L363" t="n">
         <v>3051.5</v>
@@ -18792,7 +18814,7 @@
         <v>1862</v>
       </c>
       <c r="K364" t="n">
-        <v>21.90476190476191</v>
+        <v>-26.92307692307692</v>
       </c>
       <c r="L364" t="n">
         <v>3051</v>
@@ -18843,7 +18865,7 @@
         <v>1873</v>
       </c>
       <c r="K365" t="n">
-        <v>30.43478260869566</v>
+        <v>-13.79310344827586</v>
       </c>
       <c r="L365" t="n">
         <v>3050.7</v>
@@ -18894,7 +18916,7 @@
         <v>1882</v>
       </c>
       <c r="K366" t="n">
-        <v>33.88429752066116</v>
+        <v>-1.538461538461539</v>
       </c>
       <c r="L366" t="n">
         <v>3050.8</v>
@@ -18945,7 +18967,7 @@
         <v>1893</v>
       </c>
       <c r="K367" t="n">
-        <v>38.93129770992366</v>
+        <v>13.1578947368421</v>
       </c>
       <c r="L367" t="n">
         <v>3051.8</v>
@@ -18996,7 +19018,7 @@
         <v>1901</v>
       </c>
       <c r="K368" t="n">
-        <v>40.29850746268657</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="L368" t="n">
         <v>3053.6</v>
@@ -19047,7 +19069,7 @@
         <v>1903</v>
       </c>
       <c r="K369" t="n">
-        <v>39.84962406015038</v>
+        <v>34.17721518987342</v>
       </c>
       <c r="L369" t="n">
         <v>3055.6</v>
@@ -19098,7 +19120,7 @@
         <v>1908</v>
       </c>
       <c r="K370" t="n">
-        <v>34.3065693430657</v>
+        <v>53.62318840579711</v>
       </c>
       <c r="L370" t="n">
         <v>3057.8</v>
@@ -19149,7 +19171,7 @@
         <v>1919</v>
       </c>
       <c r="K371" t="n">
-        <v>15.78947368421053</v>
+        <v>20.58823529411764</v>
       </c>
       <c r="L371" t="n">
         <v>3060.4</v>
@@ -19200,7 +19222,7 @@
         <v>1924</v>
       </c>
       <c r="K372" t="n">
-        <v>17.55725190839695</v>
+        <v>32.25806451612903</v>
       </c>
       <c r="L372" t="n">
         <v>3061.3</v>
@@ -19251,7 +19273,7 @@
         <v>1932</v>
       </c>
       <c r="K373" t="n">
-        <v>17.55725190839695</v>
+        <v>40</v>
       </c>
       <c r="L373" t="n">
         <v>3064.1</v>
@@ -19302,7 +19324,7 @@
         <v>1932</v>
       </c>
       <c r="K374" t="n">
-        <v>17.55725190839695</v>
+        <v>28.8135593220339</v>
       </c>
       <c r="L374" t="n">
         <v>3066.9</v>
@@ -19353,7 +19375,7 @@
         <v>1935</v>
       </c>
       <c r="K375" t="n">
-        <v>8.799999999999999</v>
+        <v>9.433962264150944</v>
       </c>
       <c r="L375" t="n">
         <v>3068.3</v>
@@ -19404,7 +19426,7 @@
         <v>1935</v>
       </c>
       <c r="K376" t="n">
-        <v>5</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L376" t="n">
         <v>3068.8</v>
@@ -19455,7 +19477,7 @@
         <v>1938</v>
       </c>
       <c r="K377" t="n">
-        <v>5.785123966942149</v>
+        <v>-29.72972972972973</v>
       </c>
       <c r="L377" t="n">
         <v>3068.5</v>
@@ -19506,7 +19528,7 @@
         <v>1938</v>
       </c>
       <c r="K378" t="n">
-        <v>5.785123966942149</v>
+        <v>-37.14285714285715</v>
       </c>
       <c r="L378" t="n">
         <v>3067.4</v>
@@ -19557,7 +19579,7 @@
         <v>1941</v>
       </c>
       <c r="K379" t="n">
-        <v>3.225806451612903</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L379" t="n">
         <v>3065.8</v>
@@ -19608,7 +19630,7 @@
         <v>1952</v>
       </c>
       <c r="K380" t="n">
-        <v>17.1875</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L380" t="n">
         <v>3065.8</v>
@@ -19659,7 +19681,7 @@
         <v>1952</v>
       </c>
       <c r="K381" t="n">
-        <v>32.74336283185841</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L381" t="n">
         <v>3066.9</v>
@@ -19710,7 +19732,7 @@
         <v>1952</v>
       </c>
       <c r="K382" t="n">
-        <v>24.75247524752475</v>
+        <v>40</v>
       </c>
       <c r="L382" t="n">
         <v>3068.5</v>
@@ -19761,7 +19783,7 @@
         <v>1958</v>
       </c>
       <c r="K383" t="n">
-        <v>31.25</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L383" t="n">
         <v>3068.7</v>
@@ -19812,7 +19834,7 @@
         <v>1972</v>
       </c>
       <c r="K384" t="n">
-        <v>40</v>
+        <v>51.35135135135135</v>
       </c>
       <c r="L384" t="n">
         <v>3070.3</v>
@@ -19863,7 +19885,7 @@
         <v>1974</v>
       </c>
       <c r="K385" t="n">
-        <v>30.69306930693069</v>
+        <v>43.58974358974359</v>
       </c>
       <c r="L385" t="n">
         <v>3072</v>
@@ -19914,7 +19936,7 @@
         <v>2004</v>
       </c>
       <c r="K386" t="n">
-        <v>-6.557377049180328</v>
+        <v>-24.24242424242424</v>
       </c>
       <c r="L386" t="n">
         <v>3070.7</v>
@@ -19965,7 +19987,7 @@
         <v>2008</v>
       </c>
       <c r="K387" t="n">
-        <v>-13.04347826086956</v>
+        <v>-17.14285714285714</v>
       </c>
       <c r="L387" t="n">
         <v>3069.5</v>
@@ -20016,7 +20038,7 @@
         <v>2012</v>
       </c>
       <c r="K388" t="n">
-        <v>-17.11711711711712</v>
+        <v>-7.042253521126761</v>
       </c>
       <c r="L388" t="n">
         <v>3068.7</v>
@@ -20067,7 +20089,7 @@
         <v>2021</v>
       </c>
       <c r="K389" t="n">
-        <v>-25.42372881355932</v>
+        <v>-36.23188405797102</v>
       </c>
       <c r="L389" t="n">
         <v>3067.3</v>
@@ -20118,7 +20140,7 @@
         <v>2021</v>
       </c>
       <c r="K390" t="n">
-        <v>-22.12389380530973</v>
+        <v>-36.23188405797102</v>
       </c>
       <c r="L390" t="n">
         <v>3064.8</v>
@@ -20169,7 +20191,7 @@
         <v>2043</v>
       </c>
       <c r="K391" t="n">
-        <v>-29.03225806451613</v>
+        <v>-51.64835164835166</v>
       </c>
       <c r="L391" t="n">
         <v>3060.1</v>
@@ -20220,7 +20242,7 @@
         <v>2048</v>
       </c>
       <c r="K392" t="n">
-        <v>-20.96774193548387</v>
+        <v>-40</v>
       </c>
       <c r="L392" t="n">
         <v>3055.9</v>
@@ -20271,7 +20293,7 @@
         <v>2051</v>
       </c>
       <c r="K393" t="n">
-        <v>-31.09243697478992</v>
+        <v>-67.08860759493672</v>
       </c>
       <c r="L393" t="n">
         <v>3052</v>
@@ -20322,7 +20344,7 @@
         <v>2054</v>
       </c>
       <c r="K394" t="n">
-        <v>-27.86885245901639</v>
+        <v>-60</v>
       </c>
       <c r="L394" t="n">
         <v>3047</v>
@@ -20373,7 +20395,7 @@
         <v>2057</v>
       </c>
       <c r="K395" t="n">
-        <v>-22.95081967213115</v>
+        <v>-28.30188679245283</v>
       </c>
       <c r="L395" t="n">
         <v>3042.5</v>
@@ -20424,7 +20446,7 @@
         <v>2062</v>
       </c>
       <c r="K396" t="n">
-        <v>-18.11023622047244</v>
+        <v>-25.92592592592592</v>
       </c>
       <c r="L396" t="n">
         <v>3041.5</v>
@@ -20475,7 +20497,7 @@
         <v>2065</v>
       </c>
       <c r="K397" t="n">
-        <v>-18.11023622047244</v>
+        <v>-28.30188679245283</v>
       </c>
       <c r="L397" t="n">
         <v>3040.4</v>
@@ -20526,7 +20548,7 @@
         <v>2071</v>
       </c>
       <c r="K398" t="n">
-        <v>-12.78195488721804</v>
+        <v>0</v>
       </c>
       <c r="L398" t="n">
         <v>3039.5</v>
@@ -20577,7 +20599,7 @@
         <v>2078</v>
       </c>
       <c r="K399" t="n">
-        <v>-15.32846715328467</v>
+        <v>-12.28070175438596</v>
       </c>
       <c r="L399" t="n">
         <v>3038.8</v>
@@ -20628,7 +20650,7 @@
         <v>2080</v>
       </c>
       <c r="K400" t="n">
-        <v>-23.4375</v>
+        <v>45.94594594594595</v>
       </c>
       <c r="L400" t="n">
         <v>3038.3</v>
@@ -20679,7 +20701,7 @@
         <v>2080</v>
       </c>
       <c r="K401" t="n">
-        <v>-23.4375</v>
+        <v>37.5</v>
       </c>
       <c r="L401" t="n">
         <v>3040</v>
@@ -20730,7 +20752,7 @@
         <v>2084</v>
       </c>
       <c r="K402" t="n">
-        <v>-25.75757575757576</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L402" t="n">
         <v>3040.8</v>
@@ -20781,7 +20803,7 @@
         <v>2085</v>
       </c>
       <c r="K403" t="n">
-        <v>-22.83464566929134</v>
+        <v>22.58064516129032</v>
       </c>
       <c r="L403" t="n">
         <v>3041.8</v>
@@ -20832,7 +20854,7 @@
         <v>2099</v>
       </c>
       <c r="K404" t="n">
-        <v>-44.88188976377953</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L404" t="n">
         <v>3041.1</v>
@@ -20883,7 +20905,7 @@
         <v>2107</v>
       </c>
       <c r="K405" t="n">
-        <v>-35.33834586466165</v>
+        <v>-15.55555555555556</v>
       </c>
       <c r="L405" t="n">
         <v>3040.9</v>
@@ -20934,7 +20956,7 @@
         <v>2112</v>
       </c>
       <c r="K406" t="n">
-        <v>-11.11111111111111</v>
+        <v>-10.63829787234043</v>
       </c>
       <c r="L406" t="n">
         <v>3040.7</v>
@@ -20985,7 +21007,7 @@
         <v>2116</v>
       </c>
       <c r="K407" t="n">
-        <v>-11.11111111111111</v>
+        <v>-15.55555555555556</v>
       </c>
       <c r="L407" t="n">
         <v>3040.6</v>
@@ -21036,7 +21058,7 @@
         <v>2127</v>
       </c>
       <c r="K408" t="n">
-        <v>-23.47826086956522</v>
+        <v>-22.44897959183674</v>
       </c>
       <c r="L408" t="n">
         <v>3038.8</v>
@@ -21087,7 +21109,7 @@
         <v>2127</v>
       </c>
       <c r="K409" t="n">
-        <v>-16.9811320754717</v>
+        <v>-27.65957446808511</v>
       </c>
       <c r="L409" t="n">
         <v>3037.7</v>
@@ -21138,7 +21160,7 @@
         <v>2137</v>
       </c>
       <c r="K410" t="n">
-        <v>-24.13793103448276</v>
+        <v>-40.35087719298245</v>
       </c>
       <c r="L410" t="n">
         <v>3035.4</v>
@@ -21189,7 +21211,7 @@
         <v>2148</v>
       </c>
       <c r="K411" t="n">
-        <v>4.761904761904762</v>
+        <v>-12.5</v>
       </c>
       <c r="L411" t="n">
         <v>3034.2</v>
@@ -21240,7 +21262,7 @@
         <v>2150</v>
       </c>
       <c r="K412" t="n">
-        <v>1.96078431372549</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L412" t="n">
         <v>3033.6</v>
@@ -21291,7 +21313,7 @@
         <v>2164</v>
       </c>
       <c r="K413" t="n">
-        <v>-7.964601769911504</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L413" t="n">
         <v>3031.7</v>
@@ -21342,7 +21364,7 @@
         <v>2174</v>
       </c>
       <c r="K414" t="n">
-        <v>-1.666666666666667</v>
+        <v>-4.477611940298507</v>
       </c>
       <c r="L414" t="n">
         <v>3032.2</v>
@@ -21393,7 +21415,7 @@
         <v>2178</v>
       </c>
       <c r="K415" t="n">
-        <v>-0.8264462809917356</v>
+        <v>-6.060606060606061</v>
       </c>
       <c r="L415" t="n">
         <v>3032.3</v>
@@ -21444,7 +21466,7 @@
         <v>2184</v>
       </c>
       <c r="K416" t="n">
-        <v>0</v>
+        <v>-2.941176470588235</v>
       </c>
       <c r="L416" t="n">
         <v>3032.5</v>
@@ -21495,7 +21517,7 @@
         <v>2186</v>
       </c>
       <c r="K417" t="n">
-        <v>-4.132231404958678</v>
+        <v>11.86440677966102</v>
       </c>
       <c r="L417" t="n">
         <v>3032.1</v>
@@ -21546,7 +21568,7 @@
         <v>2197</v>
       </c>
       <c r="K418" t="n">
-        <v>0</v>
+        <v>25.71428571428571</v>
       </c>
       <c r="L418" t="n">
         <v>3033.9</v>
@@ -21597,7 +21619,7 @@
         <v>2198</v>
       </c>
       <c r="K419" t="n">
-        <v>6.666666666666667</v>
+        <v>47.54098360655738</v>
       </c>
       <c r="L419" t="n">
         <v>3035.8</v>
@@ -21648,7 +21670,7 @@
         <v>2226</v>
       </c>
       <c r="K420" t="n">
-        <v>-15.06849315068493</v>
+        <v>-12.82051282051282</v>
       </c>
       <c r="L420" t="n">
         <v>3035.9</v>
@@ -21699,7 +21721,7 @@
         <v>2231</v>
       </c>
       <c r="K421" t="n">
-        <v>-17.88079470198675</v>
+        <v>-20.98765432098765</v>
       </c>
       <c r="L421" t="n">
         <v>3034.4</v>
@@ -21750,7 +21772,7 @@
         <v>2238</v>
       </c>
       <c r="K422" t="n">
-        <v>-19.48051948051948</v>
+        <v>-13.51351351351351</v>
       </c>
       <c r="L422" t="n">
         <v>3032</v>
@@ -21801,7 +21823,7 @@
         <v>2238</v>
       </c>
       <c r="K423" t="n">
-        <v>-18.95424836601307</v>
+        <v>-31.25</v>
       </c>
       <c r="L423" t="n">
         <v>3031</v>
@@ -21852,7 +21874,7 @@
         <v>2248</v>
       </c>
       <c r="K424" t="n">
-        <v>-3.355704697986577</v>
+        <v>-20</v>
       </c>
       <c r="L424" t="n">
         <v>3030</v>
@@ -21903,7 +21925,7 @@
         <v>2251</v>
       </c>
       <c r="K425" t="n">
-        <v>-11.11111111111111</v>
+        <v>-34.32835820895522</v>
       </c>
       <c r="L425" t="n">
         <v>3028.3</v>
@@ -21954,7 +21976,7 @@
         <v>2253</v>
       </c>
       <c r="K426" t="n">
-        <v>-13.47517730496454</v>
+        <v>-28.35820895522388</v>
       </c>
       <c r="L426" t="n">
         <v>3026.2</v>
@@ -22005,7 +22027,7 @@
         <v>2265</v>
       </c>
       <c r="K427" t="n">
-        <v>-23.48993288590604</v>
+        <v>-61.76470588235294</v>
       </c>
       <c r="L427" t="n">
         <v>3023.1</v>
@@ -22056,7 +22078,7 @@
         <v>2265</v>
       </c>
       <c r="K428" t="n">
-        <v>-17.39130434782609</v>
+        <v>-64.17910447761194</v>
       </c>
       <c r="L428" t="n">
         <v>3018.9</v>
@@ -22107,7 +22129,7 @@
         <v>2281</v>
       </c>
       <c r="K429" t="n">
-        <v>-5.194805194805195</v>
+        <v>1.818181818181818</v>
       </c>
       <c r="L429" t="n">
         <v>3016.2</v>
@@ -22158,7 +22180,7 @@
         <v>2282</v>
       </c>
       <c r="K430" t="n">
-        <v>2.068965517241379</v>
+        <v>13.72549019607843</v>
       </c>
       <c r="L430" t="n">
         <v>3016.4</v>
@@ -22209,7 +22231,7 @@
         <v>2282</v>
       </c>
       <c r="K431" t="n">
-        <v>-5.970149253731343</v>
+        <v>31.81818181818182</v>
       </c>
       <c r="L431" t="n">
         <v>3017.1</v>
@@ -22260,7 +22282,7 @@
         <v>2283</v>
       </c>
       <c r="K432" t="n">
-        <v>-8.270676691729323</v>
+        <v>28.88888888888889</v>
       </c>
       <c r="L432" t="n">
         <v>3018.4</v>
@@ -22311,7 +22333,7 @@
         <v>2284</v>
       </c>
       <c r="K433" t="n">
-        <v>3.333333333333333</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L433" t="n">
         <v>3019.8</v>
@@ -22362,7 +22384,7 @@
         <v>2304</v>
       </c>
       <c r="K434" t="n">
-        <v>10.76923076923077</v>
+        <v>50.9433962264151</v>
       </c>
       <c r="L434" t="n">
         <v>3022.2</v>
@@ -22413,7 +22435,7 @@
         <v>2319</v>
       </c>
       <c r="K435" t="n">
-        <v>-3.546099290780142</v>
+        <v>15.15151515151515</v>
       </c>
       <c r="L435" t="n">
         <v>3023.4</v>
@@ -22464,7 +22486,7 @@
         <v>2334</v>
       </c>
       <c r="K436" t="n">
-        <v>2.666666666666667</v>
+        <v>53.62318840579711</v>
       </c>
       <c r="L436" t="n">
         <v>3025.9</v>
@@ -22515,7 +22537,7 @@
         <v>2335</v>
       </c>
       <c r="K437" t="n">
-        <v>4.697986577181208</v>
+        <v>54.28571428571428</v>
       </c>
       <c r="L437" t="n">
         <v>3029.7</v>
@@ -22566,7 +22588,7 @@
         <v>2336</v>
       </c>
       <c r="K438" t="n">
-        <v>-2.158273381294964</v>
+        <v>41.81818181818181</v>
       </c>
       <c r="L438" t="n">
         <v>3033.6</v>
@@ -22617,7 +22639,7 @@
         <v>2351</v>
       </c>
       <c r="K439" t="n">
-        <v>-12.41830065359477</v>
+        <v>10.14492753623188</v>
       </c>
       <c r="L439" t="n">
         <v>3034.4</v>
@@ -22668,7 +22690,7 @@
         <v>2366</v>
       </c>
       <c r="K440" t="n">
-        <v>17.14285714285714</v>
+        <v>26.19047619047619</v>
       </c>
       <c r="L440" t="n">
         <v>3036.6</v>
@@ -22719,7 +22741,7 @@
         <v>2366</v>
       </c>
       <c r="K441" t="n">
-        <v>21.48148148148148</v>
+        <v>27.71084337349398</v>
       </c>
       <c r="L441" t="n">
         <v>3038.8</v>
@@ -22770,7 +22792,7 @@
         <v>2366</v>
       </c>
       <c r="K442" t="n">
-        <v>28.125</v>
+        <v>26.82926829268293</v>
       </c>
       <c r="L442" t="n">
         <v>3041.1</v>
@@ -22821,7 +22843,7 @@
         <v>2366</v>
       </c>
       <c r="K443" t="n">
-        <v>28.125</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="L443" t="n">
         <v>3043.3</v>
@@ -22872,7 +22894,7 @@
         <v>2366</v>
       </c>
       <c r="K444" t="n">
-        <v>22.03389830508474</v>
+        <v>36.17021276595745</v>
       </c>
       <c r="L444" t="n">
         <v>3043.5</v>
@@ -22923,7 +22945,7 @@
         <v>2366</v>
       </c>
       <c r="K445" t="n">
-        <v>25.21739130434782</v>
+        <v>6.25</v>
       </c>
       <c r="L445" t="n">
         <v>3045.2</v>
@@ -22974,7 +22996,7 @@
         <v>2366</v>
       </c>
       <c r="K446" t="n">
-        <v>23.89380530973451</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="L446" t="n">
         <v>3045.4</v>
@@ -23025,7 +23047,7 @@
         <v>2366</v>
       </c>
       <c r="K447" t="n">
-        <v>38.61386138613862</v>
+        <v>0</v>
       </c>
       <c r="L447" t="n">
         <v>3045.5</v>
@@ -23076,7 +23098,7 @@
         <v>2369</v>
       </c>
       <c r="K448" t="n">
-        <v>40.38461538461539</v>
+        <v>100</v>
       </c>
       <c r="L448" t="n">
         <v>3045.8</v>
@@ -23127,7 +23149,7 @@
         <v>2371</v>
       </c>
       <c r="K449" t="n">
-        <v>31.11111111111111</v>
+        <v>100</v>
       </c>
       <c r="L449" t="n">
         <v>3047.8</v>
@@ -23178,7 +23200,7 @@
         <v>2371</v>
       </c>
       <c r="K450" t="n">
-        <v>30.3370786516854</v>
+        <v>100</v>
       </c>
       <c r="L450" t="n">
         <v>3048.3</v>
@@ -23229,7 +23251,7 @@
         <v>2388</v>
       </c>
       <c r="K451" t="n">
-        <v>41.50943396226415</v>
+        <v>100</v>
       </c>
       <c r="L451" t="n">
         <v>3050.5</v>
@@ -23280,7 +23302,7 @@
         <v>2390</v>
       </c>
       <c r="K452" t="n">
-        <v>40.18691588785047</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="L452" t="n">
         <v>3052.5</v>
@@ -23331,7 +23353,7 @@
         <v>2390</v>
       </c>
       <c r="K453" t="n">
-        <v>39.62264150943396</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="L453" t="n">
         <v>3054.5</v>
@@ -23382,7 +23404,7 @@
         <v>2396</v>
       </c>
       <c r="K454" t="n">
-        <v>30.43478260869566</v>
+        <v>86.66666666666667</v>
       </c>
       <c r="L454" t="n">
         <v>3057.1</v>
@@ -23433,7 +23455,7 @@
         <v>2408</v>
       </c>
       <c r="K455" t="n">
-        <v>34.83146067415731</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L455" t="n">
         <v>3058.5</v>
@@ -23484,7 +23506,7 @@
         <v>2415</v>
       </c>
       <c r="K456" t="n">
-        <v>28.39506172839506</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L456" t="n">
         <v>3060.6</v>
@@ -23535,7 +23557,7 @@
         <v>2415</v>
       </c>
       <c r="K457" t="n">
-        <v>27.5</v>
+        <v>39.1304347826087</v>
       </c>
       <c r="L457" t="n">
         <v>3062.7</v>
@@ -23586,7 +23608,7 @@
         <v>2419</v>
       </c>
       <c r="K458" t="n">
-        <v>30.12048192771084</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="L458" t="n">
         <v>3064.9</v>
@@ -23637,7 +23659,7 @@
         <v>2423</v>
       </c>
       <c r="K459" t="n">
-        <v>61.11111111111111</v>
+        <v>46.15384615384615</v>
       </c>
       <c r="L459" t="n">
         <v>3067.3</v>
@@ -23688,7 +23710,7 @@
         <v>2424</v>
       </c>
       <c r="K460" t="n">
-        <v>48.27586206896552</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L460" t="n">
         <v>3069.6</v>
@@ -23739,7 +23761,7 @@
         <v>2427</v>
       </c>
       <c r="K461" t="n">
-        <v>40.98360655737705</v>
+        <v>13.51351351351351</v>
       </c>
       <c r="L461" t="n">
         <v>3069.9</v>
@@ -23790,7 +23812,7 @@
         <v>2430</v>
       </c>
       <c r="K462" t="n">
-        <v>43.75</v>
+        <v>20</v>
       </c>
       <c r="L462" t="n">
         <v>3070.7</v>
@@ -23841,7 +23863,7 @@
         <v>2434</v>
       </c>
       <c r="K463" t="n">
-        <v>47.05882352941176</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L463" t="n">
         <v>3071.9</v>
@@ -23892,7 +23914,7 @@
         <v>2439</v>
       </c>
       <c r="K464" t="n">
-        <v>50.68493150684932</v>
+        <v>74.19354838709677</v>
       </c>
       <c r="L464" t="n">
         <v>3073</v>
@@ -23943,7 +23965,7 @@
         <v>2439</v>
       </c>
       <c r="K465" t="n">
-        <v>50.68493150684932</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L465" t="n">
         <v>3075.3</v>
@@ -23994,7 +24016,7 @@
         <v>2446</v>
       </c>
       <c r="K466" t="n">
-        <v>55.00000000000001</v>
+        <v>74.19354838709677</v>
       </c>
       <c r="L466" t="n">
         <v>3077.6</v>
@@ -24045,7 +24067,7 @@
         <v>2451</v>
       </c>
       <c r="K467" t="n">
-        <v>57.64705882352941</v>
+        <v>75</v>
       </c>
       <c r="L467" t="n">
         <v>3080.4</v>
@@ -24096,7 +24118,7 @@
         <v>2462</v>
       </c>
       <c r="K468" t="n">
-        <v>61.29032258064516</v>
+        <v>79.48717948717949</v>
       </c>
       <c r="L468" t="n">
         <v>3083.9</v>
@@ -24147,7 +24169,7 @@
         <v>2470</v>
       </c>
       <c r="K469" t="n">
-        <v>47.47474747474747</v>
+        <v>52.17391304347826</v>
       </c>
       <c r="L469" t="n">
         <v>3086.2</v>
@@ -24198,7 +24220,7 @@
         <v>2479</v>
       </c>
       <c r="K470" t="n">
-        <v>51.85185185185185</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L470" t="n">
         <v>3089.5</v>
@@ -24249,7 +24271,7 @@
         <v>2492</v>
       </c>
       <c r="K471" t="n">
-        <v>25</v>
+        <v>32.25806451612903</v>
       </c>
       <c r="L471" t="n">
         <v>3091.8</v>
@@ -24300,7 +24322,7 @@
         <v>2508</v>
       </c>
       <c r="K472" t="n">
-        <v>37.28813559322034</v>
+        <v>43.24324324324324</v>
       </c>
       <c r="L472" t="n">
         <v>3095.4</v>
@@ -24351,7 +24373,7 @@
         <v>2516</v>
       </c>
       <c r="K473" t="n">
-        <v>28.57142857142857</v>
+        <v>24.67532467532467</v>
       </c>
       <c r="L473" t="n">
         <v>3097.8</v>
@@ -24402,7 +24424,7 @@
         <v>2524</v>
       </c>
       <c r="K474" t="n">
-        <v>17.1875</v>
+        <v>12.94117647058824</v>
       </c>
       <c r="L474" t="n">
         <v>3098.9</v>
@@ -24453,7 +24475,7 @@
         <v>2525</v>
       </c>
       <c r="K475" t="n">
-        <v>29.91452991452991</v>
+        <v>6.329113924050633</v>
       </c>
       <c r="L475" t="n">
         <v>3100.1</v>
@@ -24504,7 +24526,7 @@
         <v>2539</v>
       </c>
       <c r="K476" t="n">
-        <v>33.87096774193548</v>
+        <v>15.90909090909091</v>
       </c>
       <c r="L476" t="n">
         <v>3102</v>
@@ -24555,7 +24577,7 @@
         <v>2540</v>
       </c>
       <c r="K477" t="n">
-        <v>34.4</v>
+        <v>5.128205128205128</v>
       </c>
       <c r="L477" t="n">
         <v>3103.5</v>
@@ -24606,7 +24628,7 @@
         <v>2547</v>
       </c>
       <c r="K478" t="n">
-        <v>25</v>
+        <v>6.493506493506493</v>
       </c>
       <c r="L478" t="n">
         <v>3103.2</v>
@@ -24657,7 +24679,7 @@
         <v>2554</v>
       </c>
       <c r="K479" t="n">
-        <v>26.7175572519084</v>
+        <v>4</v>
       </c>
       <c r="L479" t="n">
         <v>3104.4</v>
@@ -24708,7 +24730,7 @@
         <v>2560</v>
       </c>
       <c r="K480" t="n">
-        <v>22.05882352941176</v>
+        <v>14.70588235294118</v>
       </c>
       <c r="L480" t="n">
         <v>3104.1</v>
@@ -24759,7 +24781,7 @@
         <v>2562</v>
       </c>
       <c r="K481" t="n">
-        <v>22.96296296296296</v>
+        <v>-14.81481481481481</v>
       </c>
       <c r="L481" t="n">
         <v>3104.9</v>
@@ -24810,7 +24832,7 @@
         <v>2567</v>
       </c>
       <c r="K482" t="n">
-        <v>24.08759124087591</v>
+        <v>9.803921568627452</v>
       </c>
       <c r="L482" t="n">
         <v>3104.6</v>
@@ -24861,7 +24883,7 @@
         <v>2573</v>
       </c>
       <c r="K483" t="n">
-        <v>16.54676258992806</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L483" t="n">
         <v>3104.5</v>
@@ -24912,7 +24934,7 @@
         <v>2573</v>
       </c>
       <c r="K484" t="n">
-        <v>13.43283582089552</v>
+        <v>12.5</v>
       </c>
       <c r="L484" t="n">
         <v>3105.2</v>
@@ -24963,7 +24985,7 @@
         <v>2575</v>
       </c>
       <c r="K485" t="n">
-        <v>11.76470588235294</v>
+        <v>-27.77777777777778</v>
       </c>
       <c r="L485" t="n">
         <v>3105.6</v>
@@ -25014,7 +25036,7 @@
         <v>2576</v>
       </c>
       <c r="K486" t="n">
-        <v>6.153846153846154</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L486" t="n">
         <v>3104.5</v>
@@ -25065,7 +25087,7 @@
         <v>2579</v>
       </c>
       <c r="K487" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L487" t="n">
         <v>3103</v>
@@ -25116,7 +25138,7 @@
         <v>2588</v>
       </c>
       <c r="K488" t="n">
-        <v>-15.87301587301587</v>
+        <v>-70.58823529411765</v>
       </c>
       <c r="L488" t="n">
         <v>3101.3</v>
@@ -25167,7 +25189,7 @@
         <v>2592</v>
       </c>
       <c r="K489" t="n">
-        <v>-6.557377049180328</v>
+        <v>-43.75</v>
       </c>
       <c r="L489" t="n">
         <v>3099.3</v>
@@ -25218,7 +25240,7 @@
         <v>2592</v>
       </c>
       <c r="K490" t="n">
-        <v>-15.04424778761062</v>
+        <v>-40</v>
       </c>
       <c r="L490" t="n">
         <v>3097.9</v>
@@ -25269,7 +25291,7 @@
         <v>2593</v>
       </c>
       <c r="K491" t="n">
-        <v>-4.95049504950495</v>
+        <v>-69.23076923076923</v>
       </c>
       <c r="L491" t="n">
         <v>3096.6</v>
@@ -25320,7 +25342,7 @@
         <v>2593</v>
       </c>
       <c r="K492" t="n">
-        <v>-24.70588235294118</v>
+        <v>-60</v>
       </c>
       <c r="L492" t="n">
         <v>3094.8</v>
@@ -25371,7 +25393,7 @@
         <v>2597</v>
       </c>
       <c r="K493" t="n">
-        <v>-20.98765432098765</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L493" t="n">
         <v>3093.2</v>
@@ -25422,7 +25444,7 @@
         <v>2597</v>
       </c>
       <c r="K494" t="n">
-        <v>-12.32876712328767</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L494" t="n">
         <v>3091.6</v>
@@ -25473,7 +25495,7 @@
         <v>2597</v>
       </c>
       <c r="K495" t="n">
-        <v>-13.88888888888889</v>
+        <v>-61.90476190476191</v>
       </c>
       <c r="L495" t="n">
         <v>3090.2</v>
@@ -25524,7 +25546,7 @@
         <v>2597</v>
       </c>
       <c r="K496" t="n">
-        <v>-41.37931034482759</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L496" t="n">
         <v>3088.9</v>
@@ -25575,7 +25597,7 @@
         <v>2597</v>
       </c>
       <c r="K497" t="n">
-        <v>-43.85964912280701</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L497" t="n">
         <v>3087.9</v>
@@ -25626,7 +25648,7 @@
         <v>2597</v>
       </c>
       <c r="K498" t="n">
-        <v>-36</v>
+        <v>-100</v>
       </c>
       <c r="L498" t="n">
         <v>3087.8</v>
@@ -25677,7 +25699,7 @@
         <v>2600</v>
       </c>
       <c r="K499" t="n">
-        <v>-60.86956521739131</v>
+        <v>-100</v>
       </c>
       <c r="L499" t="n">
         <v>3087</v>
@@ -25728,7 +25750,7 @@
         <v>2602</v>
       </c>
       <c r="K500" t="n">
-        <v>-57.14285714285714</v>
+        <v>-100</v>
       </c>
       <c r="L500" t="n">
         <v>3086</v>
@@ -25779,7 +25801,7 @@
         <v>2612</v>
       </c>
       <c r="K501" t="n">
-        <v>-64</v>
+        <v>-100</v>
       </c>
       <c r="L501" t="n">
         <v>3084.1</v>
@@ -25830,7 +25852,7 @@
         <v>2626</v>
       </c>
       <c r="K502" t="n">
-        <v>-38.98305084745763</v>
+        <v>-3.448275862068965</v>
       </c>
       <c r="L502" t="n">
         <v>3083.6</v>
@@ -25881,7 +25903,7 @@
         <v>2640</v>
       </c>
       <c r="K503" t="n">
-        <v>-46.26865671641791</v>
+        <v>-34.88372093023256</v>
       </c>
       <c r="L503" t="n">
         <v>3082.1</v>
@@ -25932,7 +25954,7 @@
         <v>2640</v>
       </c>
       <c r="K504" t="n">
-        <v>-46.26865671641791</v>
+        <v>-34.88372093023256</v>
       </c>
       <c r="L504" t="n">
         <v>3080.6</v>
@@ -25983,7 +26005,7 @@
         <v>2650</v>
       </c>
       <c r="K505" t="n">
-        <v>-25.33333333333334</v>
+        <v>-9.433962264150944</v>
       </c>
       <c r="L505" t="n">
         <v>3080.1</v>
@@ -26034,7 +26056,7 @@
         <v>2663</v>
       </c>
       <c r="K506" t="n">
-        <v>-35.63218390804598</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L506" t="n">
         <v>3078.3</v>
@@ -26085,7 +26107,7 @@
         <v>2665</v>
       </c>
       <c r="K507" t="n">
-        <v>-30.23255813953488</v>
+        <v>-23.52941176470588</v>
       </c>
       <c r="L507" t="n">
         <v>3076.7</v>
@@ -26136,7 +26158,7 @@
         <v>2670</v>
       </c>
       <c r="K508" t="n">
-        <v>-26.82926829268293</v>
+        <v>-25.71428571428571</v>
       </c>
       <c r="L508" t="n">
         <v>3074.6</v>
@@ -26187,7 +26209,7 @@
         <v>2682</v>
       </c>
       <c r="K509" t="n">
-        <v>-15.55555555555556</v>
+        <v>-5</v>
       </c>
       <c r="L509" t="n">
         <v>3074</v>
@@ -26238,7 +26260,7 @@
         <v>2686</v>
       </c>
       <c r="K510" t="n">
-        <v>-10.63829787234043</v>
+        <v>13.51351351351351</v>
       </c>
       <c r="L510" t="n">
         <v>3074</v>
@@ -26289,7 +26311,7 @@
         <v>2686</v>
       </c>
       <c r="K511" t="n">
-        <v>-9.67741935483871</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L511" t="n">
         <v>3075</v>
@@ -26340,7 +26362,7 @@
         <v>2686</v>
       </c>
       <c r="K512" t="n">
-        <v>-9.67741935483871</v>
+        <v>21.73913043478261</v>
       </c>
       <c r="L512" t="n">
         <v>3074.6</v>
@@ -26391,7 +26413,7 @@
         <v>2688</v>
       </c>
       <c r="K513" t="n">
-        <v>-3.296703296703297</v>
+        <v>25</v>
       </c>
       <c r="L513" t="n">
         <v>3075.8</v>
@@ -26442,7 +26464,7 @@
         <v>2698</v>
       </c>
       <c r="K514" t="n">
-        <v>6.930693069306932</v>
+        <v>25</v>
       </c>
       <c r="L514" t="n">
         <v>3078</v>
@@ -26493,7 +26515,7 @@
         <v>2699</v>
       </c>
       <c r="K515" t="n">
-        <v>7.84313725490196</v>
+        <v>72.22222222222221</v>
       </c>
       <c r="L515" t="n">
         <v>3079.3</v>
@@ -26544,7 +26566,7 @@
         <v>2703</v>
       </c>
       <c r="K516" t="n">
-        <v>11.32075471698113</v>
+        <v>73.68421052631578</v>
       </c>
       <c r="L516" t="n">
         <v>3082.3</v>
@@ -26595,7 +26617,7 @@
         <v>2703</v>
       </c>
       <c r="K517" t="n">
-        <v>11.32075471698113</v>
+        <v>100</v>
       </c>
       <c r="L517" t="n">
         <v>3085.1</v>
@@ -26646,7 +26668,7 @@
         <v>2703</v>
       </c>
       <c r="K518" t="n">
-        <v>11.32075471698113</v>
+        <v>100</v>
       </c>
       <c r="L518" t="n">
         <v>3088.4</v>
@@ -26697,7 +26719,7 @@
         <v>2703</v>
       </c>
       <c r="K519" t="n">
-        <v>14.5631067961165</v>
+        <v>100</v>
       </c>
       <c r="L519" t="n">
         <v>3090.5</v>
@@ -26748,7 +26770,7 @@
         <v>2710</v>
       </c>
       <c r="K520" t="n">
-        <v>9.25925925925926</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="L520" t="n">
         <v>3091.5</v>
@@ -26799,7 +26821,7 @@
         <v>2719</v>
       </c>
       <c r="K521" t="n">
-        <v>10.2803738317757</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="L521" t="n">
         <v>3091.6</v>
@@ -26850,7 +26872,7 @@
         <v>2734</v>
       </c>
       <c r="K522" t="n">
-        <v>11.11111111111111</v>
+        <v>30.43478260869566</v>
       </c>
       <c r="L522" t="n">
         <v>3093.2</v>
@@ -26901,7 +26923,7 @@
         <v>2737</v>
       </c>
       <c r="K523" t="n">
-        <v>29.89690721649485</v>
+        <v>17.94871794871795</v>
       </c>
       <c r="L523" t="n">
         <v>3094.9</v>
@@ -26952,7 +26974,7 @@
         <v>2737</v>
       </c>
       <c r="K524" t="n">
-        <v>29.89690721649485</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L524" t="n">
         <v>3095.6</v>
@@ -27003,7 +27025,7 @@
         <v>2755</v>
       </c>
       <c r="K525" t="n">
-        <v>0.9523809523809524</v>
+        <v>-30.76923076923077</v>
       </c>
       <c r="L525" t="n">
         <v>3094.4</v>
@@ -27054,7 +27076,7 @@
         <v>2761</v>
       </c>
       <c r="K526" t="n">
-        <v>20.40816326530612</v>
+        <v>-17.24137931034483</v>
       </c>
       <c r="L526" t="n">
         <v>3093.4</v>
@@ -27105,7 +27127,7 @@
         <v>2762</v>
       </c>
       <c r="K527" t="n">
-        <v>19.58762886597938</v>
+        <v>-15.25423728813559</v>
       </c>
       <c r="L527" t="n">
         <v>3092.5</v>
@@ -27156,7 +27178,7 @@
         <v>2763</v>
       </c>
       <c r="K528" t="n">
-        <v>26.88172043010752</v>
+        <v>-13.33333333333333</v>
       </c>
       <c r="L528" t="n">
         <v>3091.7</v>
@@ -27207,7 +27229,7 @@
         <v>2770</v>
       </c>
       <c r="K529" t="n">
-        <v>22.72727272727273</v>
+        <v>10</v>
       </c>
       <c r="L529" t="n">
         <v>3091.6</v>
@@ -27258,7 +27280,7 @@
         <v>2770</v>
       </c>
       <c r="K530" t="n">
-        <v>19.04761904761905</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L530" t="n">
         <v>3092.2</v>
@@ -27309,7 +27331,7 @@
         <v>2771</v>
       </c>
       <c r="K531" t="n">
-        <v>20</v>
+        <v>2.702702702702703</v>
       </c>
       <c r="L531" t="n">
         <v>3093.8</v>
@@ -27360,7 +27382,7 @@
         <v>2771</v>
       </c>
       <c r="K532" t="n">
-        <v>20</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L532" t="n">
         <v>3093.9</v>
@@ -27411,7 +27433,7 @@
         <v>2772</v>
       </c>
       <c r="K533" t="n">
-        <v>16.66666666666666</v>
+        <v>-8.571428571428571</v>
       </c>
       <c r="L533" t="n">
         <v>3093.6</v>
@@ -27462,7 +27484,7 @@
         <v>2777</v>
       </c>
       <c r="K534" t="n">
-        <v>-1.265822784810127</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L534" t="n">
         <v>3092.8</v>
@@ -27513,7 +27535,7 @@
         <v>2793</v>
       </c>
       <c r="K535" t="n">
-        <v>-19.14893617021277</v>
+        <v>-37.5</v>
       </c>
       <c r="L535" t="n">
         <v>3092.2</v>
@@ -27564,7 +27586,7 @@
         <v>2814</v>
       </c>
       <c r="K536" t="n">
-        <v>-0.9009009009009009</v>
+        <v>15.38461538461539</v>
       </c>
       <c r="L536" t="n">
         <v>3093.1</v>
@@ -27615,7 +27637,7 @@
         <v>2817</v>
       </c>
       <c r="K537" t="n">
-        <v>1.754385964912281</v>
+        <v>18.51851851851852</v>
       </c>
       <c r="L537" t="n">
         <v>3094.2</v>
@@ -27666,7 +27688,7 @@
         <v>2817</v>
       </c>
       <c r="K538" t="n">
-        <v>1.754385964912281</v>
+        <v>6.382978723404255</v>
       </c>
       <c r="L538" t="n">
         <v>3095.2</v>
@@ -27717,7 +27739,7 @@
         <v>2817</v>
       </c>
       <c r="K539" t="n">
-        <v>1.754385964912281</v>
+        <v>6.382978723404255</v>
       </c>
       <c r="L539" t="n">
         <v>3095.5</v>
@@ -27768,7 +27790,7 @@
         <v>2817</v>
       </c>
       <c r="K540" t="n">
-        <v>8.411214953271028</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L540" t="n">
         <v>3095.8</v>
@@ -27819,7 +27841,7 @@
         <v>2819</v>
       </c>
       <c r="K541" t="n">
-        <v>20</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L541" t="n">
         <v>3096.2</v>
@@ -27870,7 +27892,7 @@
         <v>2819</v>
       </c>
       <c r="K542" t="n">
-        <v>5.88235294117647</v>
+        <v>10.63829787234043</v>
       </c>
       <c r="L542" t="n">
         <v>3096.6</v>
@@ -27921,7 +27943,7 @@
         <v>2819</v>
       </c>
       <c r="K543" t="n">
-        <v>2.439024390243902</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L543" t="n">
         <v>3097.1</v>
@@ -27972,7 +27994,7 @@
         <v>2819</v>
       </c>
       <c r="K544" t="n">
-        <v>2.439024390243902</v>
+        <v>100</v>
       </c>
       <c r="L544" t="n">
         <v>3098.1</v>
@@ -28023,7 +28045,7 @@
         <v>2825</v>
       </c>
       <c r="K545" t="n">
-        <v>37.14285714285715</v>
+        <v>100</v>
       </c>
       <c r="L545" t="n">
         <v>3101.3</v>
@@ -28074,7 +28096,7 @@
         <v>2839</v>
       </c>
       <c r="K546" t="n">
-        <v>7.692307692307693</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L546" t="n">
         <v>3101</v>
@@ -28125,7 +28147,7 @@
         <v>2863</v>
       </c>
       <c r="K547" t="n">
-        <v>28.71287128712871</v>
+        <v>39.1304347826087</v>
       </c>
       <c r="L547" t="n">
         <v>3102.8</v>
@@ -28176,7 +28198,7 @@
         <v>2864</v>
       </c>
       <c r="K548" t="n">
-        <v>28.71287128712871</v>
+        <v>40.42553191489361</v>
       </c>
       <c r="L548" t="n">
         <v>3104.7</v>
@@ -28227,7 +28249,7 @@
         <v>2865</v>
       </c>
       <c r="K549" t="n">
-        <v>24.21052631578947</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="L549" t="n">
         <v>3106.7</v>
@@ -28278,7 +28300,7 @@
         <v>2865</v>
       </c>
       <c r="K550" t="n">
-        <v>24.21052631578947</v>
+        <v>39.1304347826087</v>
       </c>
       <c r="L550" t="n">
         <v>3108.7</v>
@@ -28329,7 +28351,7 @@
         <v>2870</v>
       </c>
       <c r="K551" t="n">
-        <v>27.27272727272727</v>
+        <v>45.09803921568628</v>
       </c>
       <c r="L551" t="n">
         <v>3111</v>
@@ -28380,7 +28402,7 @@
         <v>2871</v>
       </c>
       <c r="K552" t="n">
-        <v>26</v>
+        <v>42.30769230769231</v>
       </c>
       <c r="L552" t="n">
         <v>3113.2</v>
@@ -28431,7 +28453,7 @@
         <v>2871</v>
       </c>
       <c r="K553" t="n">
-        <v>27.27272727272727</v>
+        <v>42.30769230769231</v>
       </c>
       <c r="L553" t="n">
         <v>3115.4</v>
@@ -28482,7 +28504,7 @@
         <v>2883</v>
       </c>
       <c r="K554" t="n">
-        <v>18.86792452830189</v>
+        <v>6.896551724137931</v>
       </c>
       <c r="L554" t="n">
         <v>3116.4</v>
@@ -28533,7 +28555,7 @@
         <v>2885</v>
       </c>
       <c r="K555" t="n">
-        <v>41.30434782608695</v>
+        <v>43.47826086956522</v>
       </c>
       <c r="L555" t="n">
         <v>3117</v>
@@ -28584,7 +28606,7 @@
         <v>2885</v>
       </c>
       <c r="K556" t="n">
-        <v>23.94366197183098</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L556" t="n">
         <v>3119</v>
@@ -28635,7 +28657,7 @@
         <v>2894</v>
       </c>
       <c r="K557" t="n">
-        <v>29.87012987012987</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="L557" t="n">
         <v>3119.5</v>
@@ -28686,7 +28708,7 @@
         <v>2894</v>
       </c>
       <c r="K558" t="n">
-        <v>29.87012987012987</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="L558" t="n">
         <v>3119.9</v>
@@ -28737,7 +28759,7 @@
         <v>2894</v>
       </c>
       <c r="K559" t="n">
-        <v>29.87012987012987</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="L559" t="n">
         <v>3120.2</v>
@@ -28788,7 +28810,7 @@
         <v>2897</v>
       </c>
       <c r="K560" t="n">
-        <v>25</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L560" t="n">
         <v>3120.2</v>
@@ -28839,7 +28861,7 @@
         <v>2901</v>
       </c>
       <c r="K561" t="n">
-        <v>26.82926829268293</v>
+        <v>0</v>
       </c>
       <c r="L561" t="n">
         <v>3120.1</v>
@@ -28890,7 +28912,7 @@
         <v>2904</v>
       </c>
       <c r="K562" t="n">
-        <v>22.35294117647059</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L562" t="n">
         <v>3119.8</v>
@@ -28941,7 +28963,7 @@
         <v>2918</v>
       </c>
       <c r="K563" t="n">
-        <v>33.33333333333333</v>
+        <v>65.71428571428571</v>
       </c>
       <c r="L563" t="n">
         <v>3120.9</v>
@@ -28992,7 +29014,7 @@
         <v>2928</v>
       </c>
       <c r="K564" t="n">
-        <v>39.44954128440367</v>
+        <v>72.09302325581395</v>
       </c>
       <c r="L564" t="n">
         <v>3124.2</v>
@@ -29043,7 +29065,7 @@
         <v>2932</v>
       </c>
       <c r="K565" t="n">
-        <v>38.31775700934579</v>
+        <v>74.46808510638297</v>
       </c>
       <c r="L565" t="n">
         <v>3127.7</v>
@@ -29094,7 +29116,7 @@
         <v>2932</v>
       </c>
       <c r="K566" t="n">
-        <v>59.13978494623656</v>
+        <v>68.42105263157895</v>
       </c>
       <c r="L566" t="n">
         <v>3131.2</v>
@@ -29145,7 +29167,7 @@
         <v>2940</v>
       </c>
       <c r="K567" t="n">
-        <v>50.64935064935064</v>
+        <v>73.91304347826086</v>
       </c>
       <c r="L567" t="n">
         <v>3134.6</v>
@@ -29196,7 +29218,7 @@
         <v>2942</v>
       </c>
       <c r="K568" t="n">
-        <v>46.15384615384615</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L568" t="n">
         <v>3137.8</v>
@@ -29247,7 +29269,7 @@
         <v>2955</v>
       </c>
       <c r="K569" t="n">
-        <v>53.33333333333334</v>
+        <v>82.75862068965517</v>
       </c>
       <c r="L569" t="n">
         <v>3142.3</v>
@@ -29298,7 +29320,7 @@
         <v>2960</v>
       </c>
       <c r="K570" t="n">
-        <v>55.78947368421052</v>
+        <v>83.05084745762711</v>
       </c>
       <c r="L570" t="n">
         <v>3147.6</v>
@@ -29349,7 +29371,7 @@
         <v>2964</v>
       </c>
       <c r="K571" t="n">
-        <v>55.31914893617022</v>
+        <v>93.33333333333333</v>
       </c>
       <c r="L571" t="n">
         <v>3152.9</v>
@@ -29400,7 +29422,7 @@
         <v>2964</v>
       </c>
       <c r="K572" t="n">
-        <v>56.98924731182796</v>
+        <v>91.30434782608695</v>
       </c>
       <c r="L572" t="n">
         <v>3158.5</v>
@@ -29451,7 +29473,7 @@
         <v>2965</v>
       </c>
       <c r="K573" t="n">
-        <v>57.44680851063831</v>
+        <v>89.18918918918919</v>
       </c>
       <c r="L573" t="n">
         <v>3162.8</v>
@@ -29502,7 +29524,7 @@
         <v>2971</v>
       </c>
       <c r="K574" t="n">
-        <v>68.18181818181817</v>
+        <v>58.97435897435898</v>
       </c>
       <c r="L574" t="n">
         <v>3165.5</v>
@@ -29553,7 +29575,7 @@
         <v>2971</v>
       </c>
       <c r="K575" t="n">
-        <v>67.44186046511628</v>
+        <v>58.97435897435898</v>
       </c>
       <c r="L575" t="n">
         <v>3167.8</v>
@@ -29604,7 +29626,7 @@
         <v>2978</v>
       </c>
       <c r="K576" t="n">
-        <v>69.89247311827957</v>
+        <v>57.89473684210527</v>
       </c>
       <c r="L576" t="n">
         <v>3170.8</v>
@@ -29706,7 +29728,7 @@
         <v>2979</v>
       </c>
       <c r="K578" t="n">
-        <v>67.05882352941175</v>
+        <v>50</v>
       </c>
       <c r="L578" t="n">
         <v>3175.5</v>
@@ -29757,7 +29779,7 @@
         <v>2986</v>
       </c>
       <c r="K579" t="n">
-        <v>69.56521739130434</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L579" t="n">
         <v>3177.4</v>
@@ -29808,7 +29830,7 @@
         <v>2990</v>
       </c>
       <c r="K580" t="n">
-        <v>67.74193548387096</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L580" t="n">
         <v>3178.4</v>
@@ -29859,7 +29881,7 @@
         <v>2990</v>
       </c>
       <c r="K581" t="n">
-        <v>66.29213483146067</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L581" t="n">
         <v>3179</v>
@@ -29910,7 +29932,7 @@
         <v>2994</v>
       </c>
       <c r="K582" t="n">
-        <v>64.44444444444444</v>
+        <v>3.448275862068965</v>
       </c>
       <c r="L582" t="n">
         <v>3179.2</v>
@@ -29961,7 +29983,7 @@
         <v>2994</v>
       </c>
       <c r="K583" t="n">
-        <v>57.89473684210527</v>
+        <v>30.43478260869566</v>
       </c>
       <c r="L583" t="n">
         <v>3179.3</v>
@@ -30012,7 +30034,7 @@
         <v>3005</v>
       </c>
       <c r="K584" t="n">
-        <v>29.87012987012987</v>
+        <v>-11.76470588235294</v>
       </c>
       <c r="L584" t="n">
         <v>3178.9</v>
@@ -30063,7 +30085,7 @@
         <v>3009</v>
       </c>
       <c r="K585" t="n">
-        <v>29.87012987012987</v>
+        <v>-22.58064516129032</v>
       </c>
       <c r="L585" t="n">
         <v>3178.9</v>
@@ -30114,7 +30136,7 @@
         <v>3016</v>
       </c>
       <c r="K586" t="n">
-        <v>19.04761904761905</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L586" t="n">
         <v>3177.5</v>
@@ -30165,7 +30187,7 @@
         <v>3028</v>
       </c>
       <c r="K587" t="n">
-        <v>22.72727272727273</v>
+        <v>-6.122448979591836</v>
       </c>
       <c r="L587" t="n">
         <v>3177.3</v>
@@ -30216,7 +30238,7 @@
         <v>3032</v>
       </c>
       <c r="K588" t="n">
-        <v>28.88888888888889</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L588" t="n">
         <v>3177.4</v>
@@ -30267,7 +30289,7 @@
         <v>3043</v>
       </c>
       <c r="K589" t="n">
-        <v>2.272727272727273</v>
+        <v>-24.52830188679245</v>
       </c>
       <c r="L589" t="n">
         <v>3175.7</v>
@@ -30318,7 +30340,7 @@
         <v>3048</v>
       </c>
       <c r="K590" t="n">
-        <v>2.272727272727273</v>
+        <v>-13.79310344827586</v>
       </c>
       <c r="L590" t="n">
         <v>3174.9</v>
@@ -30369,7 +30391,7 @@
         <v>3048</v>
       </c>
       <c r="K591" t="n">
-        <v>-2.380952380952381</v>
+        <v>-7.407407407407407</v>
       </c>
       <c r="L591" t="n">
         <v>3174.1</v>
@@ -30420,7 +30442,7 @@
         <v>3057</v>
       </c>
       <c r="K592" t="n">
-        <v>-11.82795698924731</v>
+        <v>-20.63492063492063</v>
       </c>
       <c r="L592" t="n">
         <v>3172.8</v>
@@ -30471,7 +30493,7 @@
         <v>3067</v>
       </c>
       <c r="K593" t="n">
-        <v>-1.96078431372549</v>
+        <v>12.90322580645161</v>
       </c>
       <c r="L593" t="n">
         <v>3172.5</v>
@@ -30522,7 +30544,7 @@
         <v>3068</v>
       </c>
       <c r="K594" t="n">
-        <v>3.092783505154639</v>
+        <v>5.084745762711865</v>
       </c>
       <c r="L594" t="n">
         <v>3173.2</v>
@@ -30573,7 +30595,7 @@
         <v>3073</v>
       </c>
       <c r="K595" t="n">
-        <v>7.84313725490196</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L595" t="n">
         <v>3174</v>
@@ -30624,7 +30646,7 @@
         <v>3073</v>
       </c>
       <c r="K596" t="n">
-        <v>1.052631578947368</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L596" t="n">
         <v>3175.5</v>
@@ -30675,7 +30697,7 @@
         <v>3073</v>
       </c>
       <c r="K597" t="n">
-        <v>1.052631578947368</v>
+        <v>-2.439024390243902</v>
       </c>
       <c r="L597" t="n">
         <v>3175.8</v>
@@ -30726,7 +30748,7 @@
         <v>3075</v>
       </c>
       <c r="K598" t="n">
-        <v>2.083333333333333</v>
+        <v>37.5</v>
       </c>
       <c r="L598" t="n">
         <v>3175.9</v>
@@ -30777,7 +30799,7 @@
         <v>3076</v>
       </c>
       <c r="K599" t="n">
-        <v>-4.444444444444445</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L599" t="n">
         <v>3177.2</v>
@@ -30828,7 +30850,7 @@
         <v>3077</v>
       </c>
       <c r="K600" t="n">
-        <v>-1.149425287356322</v>
+        <v>24.13793103448276</v>
       </c>
       <c r="L600" t="n">
         <v>3177.9</v>
@@ -30879,7 +30901,7 @@
         <v>3078</v>
       </c>
       <c r="K601" t="n">
-        <v>0</v>
+        <v>80.95238095238095</v>
       </c>
       <c r="L601" t="n">
         <v>3178.7</v>
@@ -30930,7 +30952,7 @@
         <v>3080</v>
       </c>
       <c r="K602" t="n">
-        <v>6.976744186046512</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L602" t="n">
         <v>3180.6</v>
@@ -30981,7 +31003,7 @@
         <v>3095</v>
       </c>
       <c r="K603" t="n">
-        <v>20.79207920792079</v>
+        <v>92.5925925925926</v>
       </c>
       <c r="L603" t="n">
         <v>3183</v>
@@ -31032,7 +31054,7 @@
         <v>3102</v>
       </c>
       <c r="K604" t="n">
-        <v>40.20618556701031</v>
+        <v>93.10344827586206</v>
       </c>
       <c r="L604" t="n">
         <v>3186.2</v>
@@ -31083,7 +31105,7 @@
         <v>3103</v>
       </c>
       <c r="K605" t="n">
-        <v>38.29787234042553</v>
+        <v>93.33333333333333</v>
       </c>
       <c r="L605" t="n">
         <v>3189</v>
@@ -31134,7 +31156,7 @@
         <v>3109</v>
       </c>
       <c r="K606" t="n">
-        <v>52.68817204301075</v>
+        <v>94.44444444444444</v>
       </c>
       <c r="L606" t="n">
         <v>3192.4</v>
@@ -31185,7 +31207,7 @@
         <v>3111</v>
       </c>
       <c r="K607" t="n">
-        <v>42.16867469879519</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="L607" t="n">
         <v>3195.6</v>
@@ -31236,7 +31258,7 @@
         <v>3111</v>
       </c>
       <c r="K608" t="n">
-        <v>39.24050632911392</v>
+        <v>82.85714285714286</v>
       </c>
       <c r="L608" t="n">
         <v>3198.6</v>
@@ -31287,7 +31309,7 @@
         <v>3111</v>
       </c>
       <c r="K609" t="n">
-        <v>61.76470588235294</v>
+        <v>88.23529411764706</v>
       </c>
       <c r="L609" t="n">
         <v>3201.5</v>
@@ -31338,7 +31360,7 @@
         <v>3125</v>
       </c>
       <c r="K610" t="n">
-        <v>29.87012987012987</v>
+        <v>31.91489361702128</v>
       </c>
       <c r="L610" t="n">
         <v>3203.1</v>
@@ -31389,7 +31411,7 @@
         <v>3126</v>
       </c>
       <c r="K611" t="n">
-        <v>28.2051282051282</v>
+        <v>26.08695652173913</v>
       </c>
       <c r="L611" t="n">
         <v>3204.5</v>
@@ -31440,7 +31462,7 @@
         <v>3126</v>
       </c>
       <c r="K612" t="n">
-        <v>44.92753623188405</v>
+        <v>-9.67741935483871</v>
       </c>
       <c r="L612" t="n">
         <v>3205.7</v>
@@ -31491,7 +31513,7 @@
         <v>3126</v>
       </c>
       <c r="K613" t="n">
-        <v>35.59322033898305</v>
+        <v>-41.66666666666667</v>
       </c>
       <c r="L613" t="n">
         <v>3205.4</v>
@@ -31542,7 +31564,7 @@
         <v>3127</v>
       </c>
       <c r="K614" t="n">
-        <v>38.98305084745763</v>
+        <v>-41.66666666666667</v>
       </c>
       <c r="L614" t="n">
         <v>3204.5</v>
@@ -31593,7 +31615,7 @@
         <v>3129</v>
       </c>
       <c r="K615" t="n">
-        <v>35.71428571428572</v>
+        <v>-70</v>
       </c>
       <c r="L615" t="n">
         <v>3203.7</v>
@@ -31644,7 +31666,7 @@
         <v>3129</v>
       </c>
       <c r="K616" t="n">
-        <v>35.71428571428572</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L616" t="n">
         <v>3202.3</v>
@@ -31695,7 +31717,7 @@
         <v>3141</v>
       </c>
       <c r="K617" t="n">
-        <v>47.05882352941176</v>
+        <v>0</v>
       </c>
       <c r="L617" t="n">
         <v>3202.3</v>
@@ -31746,7 +31768,7 @@
         <v>3149</v>
       </c>
       <c r="K618" t="n">
-        <v>51.35135135135135</v>
+        <v>21.05263157894737</v>
       </c>
       <c r="L618" t="n">
         <v>3203.1</v>
@@ -31797,7 +31819,7 @@
         <v>3156</v>
       </c>
       <c r="K619" t="n">
-        <v>55.00000000000001</v>
+        <v>93.54838709677419</v>
       </c>
       <c r="L619" t="n">
         <v>3204.6</v>
@@ -31848,7 +31870,7 @@
         <v>3164</v>
       </c>
       <c r="K620" t="n">
-        <v>60.91954022988506</v>
+        <v>100</v>
       </c>
       <c r="L620" t="n">
         <v>3208.3</v>
@@ -31899,7 +31921,7 @@
         <v>3170</v>
       </c>
       <c r="K621" t="n">
-        <v>50</v>
+        <v>72.72727272727273</v>
       </c>
       <c r="L621" t="n">
         <v>3211.5</v>
@@ -31950,7 +31972,7 @@
         <v>3174</v>
       </c>
       <c r="K622" t="n">
-        <v>51.06382978723404</v>
+        <v>75</v>
       </c>
       <c r="L622" t="n">
         <v>3215.1</v>
@@ -32001,7 +32023,7 @@
         <v>3179</v>
       </c>
       <c r="K623" t="n">
-        <v>33.33333333333333</v>
+        <v>57.69230769230769</v>
       </c>
       <c r="L623" t="n">
         <v>3218.2</v>
@@ -32052,7 +32074,7 @@
         <v>3179</v>
       </c>
       <c r="K624" t="n">
-        <v>27.27272727272727</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="L624" t="n">
         <v>3221.2</v>
@@ -32103,7 +32125,7 @@
         <v>3180</v>
       </c>
       <c r="K625" t="n">
-        <v>24.67532467532467</v>
+        <v>52.94117647058824</v>
       </c>
       <c r="L625" t="n">
         <v>3223.9</v>
@@ -32154,7 +32176,7 @@
         <v>3181</v>
       </c>
       <c r="K626" t="n">
-        <v>16.66666666666666</v>
+        <v>35</v>
       </c>
       <c r="L626" t="n">
         <v>3226.5</v>
@@ -32205,7 +32227,7 @@
         <v>3181</v>
       </c>
       <c r="K627" t="n">
-        <v>20</v>
+        <v>18.75</v>
       </c>
       <c r="L627" t="n">
         <v>3227.9</v>
@@ -32256,7 +32278,7 @@
         <v>3181</v>
       </c>
       <c r="K628" t="n">
-        <v>20</v>
+        <v>-4</v>
       </c>
       <c r="L628" t="n">
         <v>3228.5</v>
@@ -32307,7 +32329,7 @@
         <v>3187</v>
       </c>
       <c r="K629" t="n">
-        <v>26.31578947368421</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L629" t="n">
         <v>3229</v>
@@ -32358,7 +32380,7 @@
         <v>3194</v>
       </c>
       <c r="K630" t="n">
-        <v>39.1304347826087</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L630" t="n">
         <v>3228</v>
@@ -32409,7 +32431,7 @@
         <v>3205</v>
       </c>
       <c r="K631" t="n">
-        <v>21.51898734177215</v>
+        <v>-61.29032258064516</v>
       </c>
       <c r="L631" t="n">
         <v>3226.5</v>
@@ -32460,7 +32482,7 @@
         <v>3206</v>
       </c>
       <c r="K632" t="n">
-        <v>22.5</v>
+        <v>-48.14814814814815</v>
       </c>
       <c r="L632" t="n">
         <v>3224.7</v>
@@ -32511,7 +32533,7 @@
         <v>3207</v>
       </c>
       <c r="K633" t="n">
-        <v>23.45679012345679</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L633" t="n">
         <v>3223.5</v>
@@ -32562,7 +32584,7 @@
         <v>3215</v>
       </c>
       <c r="K634" t="n">
-        <v>11.36363636363636</v>
+        <v>-54.28571428571428</v>
       </c>
       <c r="L634" t="n">
         <v>3221.5</v>
@@ -32613,7 +32635,7 @@
         <v>3217</v>
       </c>
       <c r="K635" t="n">
-        <v>6.818181818181817</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L635" t="n">
         <v>3219.4</v>
@@ -32664,7 +32686,7 @@
         <v>3246</v>
       </c>
       <c r="K636" t="n">
-        <v>-19.65811965811966</v>
+        <v>-75.38461538461539</v>
       </c>
       <c r="L636" t="n">
         <v>3214.5</v>
@@ -32715,7 +32737,7 @@
         <v>3264</v>
       </c>
       <c r="K637" t="n">
-        <v>-13.82113821138211</v>
+        <v>-37.34939759036144</v>
       </c>
       <c r="L637" t="n">
         <v>3211.4</v>
@@ -32766,7 +32788,7 @@
         <v>3291</v>
       </c>
       <c r="K638" t="n">
-        <v>-36.61971830985916</v>
+        <v>-61.53846153846154</v>
       </c>
       <c r="L638" t="n">
         <v>3205.6</v>
@@ -32817,7 +32839,7 @@
         <v>3292</v>
       </c>
       <c r="K639" t="n">
-        <v>-44.11764705882353</v>
+        <v>-59.18367346938776</v>
       </c>
       <c r="L639" t="n">
         <v>3199.1</v>
@@ -32868,7 +32890,7 @@
         <v>3310</v>
       </c>
       <c r="K640" t="n">
-        <v>-58.9041095890411</v>
+        <v>-61.90476190476191</v>
       </c>
       <c r="L640" t="n">
         <v>3191.5</v>
@@ -32919,7 +32941,7 @@
         <v>3311</v>
       </c>
       <c r="K641" t="n">
-        <v>-56.02836879432624</v>
+        <v>-61.90476190476191</v>
       </c>
       <c r="L641" t="n">
         <v>3185.1</v>
@@ -32970,7 +32992,7 @@
         <v>3313</v>
       </c>
       <c r="K642" t="n">
-        <v>-58.27338129496403</v>
+        <v>-60.37735849056604</v>
       </c>
       <c r="L642" t="n">
         <v>3178.8</v>
@@ -33021,7 +33043,7 @@
         <v>3313</v>
       </c>
       <c r="K643" t="n">
-        <v>-56.71641791044776</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L643" t="n">
         <v>3172.4</v>
@@ -33072,7 +33094,7 @@
         <v>3321</v>
       </c>
       <c r="K644" t="n">
-        <v>-47.88732394366197</v>
+        <v>-44.23076923076923</v>
       </c>
       <c r="L644" t="n">
         <v>3167.6</v>
@@ -33123,7 +33145,7 @@
         <v>3328</v>
       </c>
       <c r="K645" t="n">
-        <v>-40.54054054054054</v>
+        <v>-12.19512195121951</v>
       </c>
       <c r="L645" t="n">
         <v>3163.7</v>
@@ -33174,7 +33196,7 @@
         <v>3329</v>
       </c>
       <c r="K646" t="n">
-        <v>-39.18918918918919</v>
+        <v>-41.53846153846154</v>
       </c>
       <c r="L646" t="n">
         <v>3162.8</v>
@@ -33225,7 +33247,7 @@
         <v>3330</v>
       </c>
       <c r="K647" t="n">
-        <v>-39.59731543624161</v>
+        <v>-2.564102564102564</v>
       </c>
       <c r="L647" t="n">
         <v>3160</v>
@@ -33276,7 +33298,7 @@
         <v>3330</v>
       </c>
       <c r="K648" t="n">
-        <v>-39.59731543624161</v>
+        <v>0</v>
       </c>
       <c r="L648" t="n">
         <v>3159.9</v>
@@ -33327,7 +33349,7 @@
         <v>3334</v>
       </c>
       <c r="K649" t="n">
-        <v>-46.93877551020408</v>
+        <v>58.33333333333334</v>
       </c>
       <c r="L649" t="n">
         <v>3159.5</v>
@@ -33378,7 +33400,7 @@
         <v>3348</v>
       </c>
       <c r="K650" t="n">
-        <v>-31.16883116883117</v>
+        <v>72.97297297297297</v>
       </c>
       <c r="L650" t="n">
         <v>3162.3</v>
@@ -33429,7 +33451,7 @@
         <v>3352</v>
       </c>
       <c r="K651" t="n">
-        <v>-22.44897959183674</v>
+        <v>74.35897435897436</v>
       </c>
       <c r="L651" t="n">
         <v>3165.4</v>
@@ -33480,7 +33502,7 @@
         <v>3365</v>
       </c>
       <c r="K652" t="n">
-        <v>-13.20754716981132</v>
+        <v>80.76923076923077</v>
       </c>
       <c r="L652" t="n">
         <v>3169.6</v>
@@ -33531,7 +33553,7 @@
         <v>3365</v>
       </c>
       <c r="K653" t="n">
-        <v>-13.92405063291139</v>
+        <v>77.27272727272727</v>
       </c>
       <c r="L653" t="n">
         <v>3173.8</v>
@@ -33582,7 +33604,7 @@
         <v>3371</v>
       </c>
       <c r="K654" t="n">
-        <v>-12.82051282051282</v>
+        <v>48.83720930232558</v>
       </c>
       <c r="L654" t="n">
         <v>3176.6</v>
@@ -33633,7 +33655,7 @@
         <v>3373</v>
       </c>
       <c r="K655" t="n">
-        <v>-10.25641025641026</v>
+        <v>50</v>
       </c>
       <c r="L655" t="n">
         <v>3178.9</v>
@@ -33684,7 +33706,7 @@
         <v>3386</v>
       </c>
       <c r="K656" t="n">
-        <v>0</v>
+        <v>17.85714285714286</v>
       </c>
       <c r="L656" t="n">
         <v>3179.8</v>
@@ -33735,7 +33757,7 @@
         <v>3392</v>
       </c>
       <c r="K657" t="n">
-        <v>-9.375</v>
+        <v>25.80645161290322</v>
       </c>
       <c r="L657" t="n">
         <v>3181.4</v>
@@ -33786,7 +33808,7 @@
         <v>3392</v>
       </c>
       <c r="K658" t="n">
-        <v>14.85148514851485</v>
+        <v>34.48275862068966</v>
       </c>
       <c r="L658" t="n">
         <v>3183</v>
@@ -33837,7 +33859,7 @@
         <v>3392</v>
       </c>
       <c r="K659" t="n">
-        <v>16</v>
+        <v>13.63636363636363</v>
       </c>
       <c r="L659" t="n">
         <v>3185</v>
@@ -33888,7 +33910,7 @@
         <v>3397</v>
       </c>
       <c r="K660" t="n">
-        <v>33.33333333333333</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L660" t="n">
         <v>3185.1</v>
@@ -33939,7 +33961,7 @@
         <v>3398</v>
       </c>
       <c r="K661" t="n">
-        <v>31.03448275862069</v>
+        <v>-51.51515151515152</v>
       </c>
       <c r="L661" t="n">
         <v>3184.7</v>
@@ -33990,7 +34012,7 @@
         <v>3411</v>
       </c>
       <c r="K662" t="n">
-        <v>38.77551020408163</v>
+        <v>-8.695652173913043</v>
       </c>
       <c r="L662" t="n">
         <v>3184.3</v>
@@ -34041,7 +34063,7 @@
         <v>3411</v>
       </c>
       <c r="K663" t="n">
-        <v>38.77551020408163</v>
+        <v>5</v>
       </c>
       <c r="L663" t="n">
         <v>3183.9</v>
@@ -34092,7 +34114,7 @@
         <v>3411</v>
       </c>
       <c r="K664" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L664" t="n">
         <v>3184.1</v>
@@ -34143,7 +34165,7 @@
         <v>3431</v>
       </c>
       <c r="K665" t="n">
-        <v>41.74757281553398</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="L665" t="n">
         <v>3186.1</v>
@@ -34194,7 +34216,7 @@
         <v>3434</v>
       </c>
       <c r="K666" t="n">
-        <v>42.85714285714285</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L666" t="n">
         <v>3189.7</v>
@@ -34245,7 +34267,7 @@
         <v>3436</v>
       </c>
       <c r="K667" t="n">
-        <v>45.28301886792453</v>
+        <v>72.72727272727273</v>
       </c>
       <c r="L667" t="n">
         <v>3192.9</v>
@@ -34296,7 +34318,7 @@
         <v>3443</v>
       </c>
       <c r="K668" t="n">
-        <v>48.67256637168141</v>
+        <v>76.47058823529412</v>
       </c>
       <c r="L668" t="n">
         <v>3196.8</v>
@@ -34347,7 +34369,7 @@
         <v>3443</v>
       </c>
       <c r="K669" t="n">
-        <v>54.12844036697248</v>
+        <v>95.65217391304348</v>
       </c>
       <c r="L669" t="n">
         <v>3200.7</v>
@@ -34398,7 +34420,7 @@
         <v>3448</v>
       </c>
       <c r="K670" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L670" t="n">
         <v>3205.6</v>
@@ -34449,7 +34471,7 @@
         <v>3448</v>
       </c>
       <c r="K671" t="n">
-        <v>47.91666666666667</v>
+        <v>100</v>
       </c>
       <c r="L671" t="n">
         <v>3210.6</v>
@@ -34500,7 +34522,7 @@
         <v>3449</v>
       </c>
       <c r="K672" t="n">
-        <v>40.47619047619047</v>
+        <v>100</v>
       </c>
       <c r="L672" t="n">
         <v>3214.4</v>
@@ -34551,7 +34573,7 @@
         <v>3450</v>
       </c>
       <c r="K673" t="n">
-        <v>38.82352941176471</v>
+        <v>94.87179487179486</v>
       </c>
       <c r="L673" t="n">
         <v>3218.1</v>
@@ -34602,7 +34624,7 @@
         <v>3453</v>
       </c>
       <c r="K674" t="n">
-        <v>43.90243902439025</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L674" t="n">
         <v>3221.5</v>
@@ -34653,7 +34675,7 @@
         <v>3454</v>
       </c>
       <c r="K675" t="n">
-        <v>40.74074074074074</v>
+        <v>50</v>
       </c>
       <c r="L675" t="n">
         <v>3222.8</v>
@@ -34704,7 +34726,7 @@
         <v>3454</v>
       </c>
       <c r="K676" t="n">
-        <v>67.64705882352942</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L676" t="n">
         <v>3223.8</v>
@@ -34755,7 +34777,7 @@
         <v>3455</v>
       </c>
       <c r="K677" t="n">
-        <v>65.07936507936508</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L677" t="n">
         <v>3224.7</v>
@@ -34806,7 +34828,7 @@
         <v>3461</v>
       </c>
       <c r="K678" t="n">
-        <v>68.11594202898551</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L678" t="n">
         <v>3225.5</v>
@@ -34857,7 +34879,7 @@
         <v>3471</v>
       </c>
       <c r="K679" t="n">
-        <v>72.15189873417721</v>
+        <v>56.52173913043478</v>
       </c>
       <c r="L679" t="n">
         <v>3227.3</v>
@@ -34908,7 +34930,7 @@
         <v>3481</v>
       </c>
       <c r="K680" t="n">
-        <v>61.90476190476191</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L680" t="n">
         <v>3227.6</v>
@@ -34959,7 +34981,7 @@
         <v>3481</v>
       </c>
       <c r="K681" t="n">
-        <v>63.85542168674698</v>
+        <v>6.25</v>
       </c>
       <c r="L681" t="n">
         <v>3227.9</v>
@@ -35010,7 +35032,7 @@
         <v>3491</v>
       </c>
       <c r="K682" t="n">
-        <v>62.5</v>
+        <v>31.70731707317073</v>
       </c>
       <c r="L682" t="n">
         <v>3229.1</v>
@@ -35061,7 +35083,7 @@
         <v>3494</v>
       </c>
       <c r="K683" t="n">
-        <v>56.62650602409639</v>
+        <v>31.70731707317073</v>
       </c>
       <c r="L683" t="n">
         <v>3230.1</v>
@@ -35112,7 +35134,7 @@
         <v>3494</v>
       </c>
       <c r="K684" t="n">
-        <v>56.62650602409639</v>
+        <v>35</v>
       </c>
       <c r="L684" t="n">
         <v>3231.4</v>
@@ -35163,7 +35185,7 @@
         <v>3499</v>
       </c>
       <c r="K685" t="n">
-        <v>32.35294117647059</v>
+        <v>20</v>
       </c>
       <c r="L685" t="n">
         <v>3232.3</v>
@@ -35214,7 +35236,7 @@
         <v>3507</v>
       </c>
       <c r="K686" t="n">
-        <v>15.06849315068493</v>
+        <v>0</v>
       </c>
       <c r="L686" t="n">
         <v>3232.4</v>
@@ -35265,7 +35287,7 @@
         <v>3517</v>
       </c>
       <c r="K687" t="n">
-        <v>-1.234567901234568</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L687" t="n">
         <v>3231.4</v>
@@ -35316,7 +35338,7 @@
         <v>3525</v>
       </c>
       <c r="K688" t="n">
-        <v>-19.51219512195122</v>
+        <v>-62.96296296296296</v>
       </c>
       <c r="L688" t="n">
         <v>3229</v>
@@ -35367,7 +35389,7 @@
         <v>3525</v>
       </c>
       <c r="K689" t="n">
-        <v>-19.51219512195122</v>
+        <v>-54.54545454545454</v>
       </c>
       <c r="L689" t="n">
         <v>3225.6</v>
@@ -35418,7 +35440,7 @@
         <v>3536</v>
       </c>
       <c r="K690" t="n">
-        <v>-11.36363636363636</v>
+        <v>-23.63636363636364</v>
       </c>
       <c r="L690" t="n">
         <v>3224.3</v>
@@ -35469,7 +35491,7 @@
         <v>3539</v>
       </c>
       <c r="K691" t="n">
-        <v>-7.692307692307693</v>
+        <v>-41.66666666666667</v>
       </c>
       <c r="L691" t="n">
         <v>3223.3</v>
@@ -35520,7 +35542,7 @@
         <v>3555</v>
       </c>
       <c r="K692" t="n">
-        <v>-22.64150943396227</v>
+        <v>-54.09836065573771</v>
       </c>
       <c r="L692" t="n">
         <v>3219.7</v>
@@ -35571,7 +35593,7 @@
         <v>3555</v>
       </c>
       <c r="K693" t="n">
-        <v>-21.90476190476191</v>
+        <v>-54.09836065573771</v>
       </c>
       <c r="L693" t="n">
         <v>3216.4</v>
@@ -35622,7 +35644,7 @@
         <v>3558</v>
       </c>
       <c r="K694" t="n">
-        <v>-21.90476190476191</v>
+        <v>-52.54237288135594</v>
       </c>
       <c r="L694" t="n">
         <v>3212.8</v>
@@ -35673,7 +35695,7 @@
         <v>3568</v>
       </c>
       <c r="K695" t="n">
-        <v>-28.07017543859649</v>
+        <v>-54.09836065573771</v>
       </c>
       <c r="L695" t="n">
         <v>3208.7</v>
@@ -35724,7 +35746,7 @@
         <v>3570</v>
       </c>
       <c r="K696" t="n">
-        <v>-25.86206896551724</v>
+        <v>-39.62264150943396</v>
       </c>
       <c r="L696" t="n">
         <v>3205.6</v>
@@ -35775,7 +35797,7 @@
         <v>3577</v>
       </c>
       <c r="K697" t="n">
-        <v>-19.67213114754098</v>
+        <v>-11.53846153846154</v>
       </c>
       <c r="L697" t="n">
         <v>3204.2</v>
@@ -35826,7 +35848,7 @@
         <v>3590</v>
       </c>
       <c r="K698" t="n">
-        <v>-33.33333333333333</v>
+        <v>-29.23076923076923</v>
       </c>
       <c r="L698" t="n">
         <v>3202.3</v>
@@ -35877,7 +35899,7 @@
         <v>3601</v>
       </c>
       <c r="K699" t="n">
-        <v>-32.30769230769231</v>
+        <v>-29.23076923076923</v>
       </c>
       <c r="L699" t="n">
         <v>3201.5</v>
@@ -35928,7 +35950,7 @@
         <v>3605</v>
       </c>
       <c r="K700" t="n">
-        <v>-29.03225806451613</v>
+        <v>-39.39393939393939</v>
       </c>
       <c r="L700" t="n">
         <v>3199.2</v>
@@ -35979,7 +36001,7 @@
         <v>3618</v>
       </c>
       <c r="K701" t="n">
-        <v>-35.76642335766424</v>
+        <v>-36.50793650793651</v>
       </c>
       <c r="L701" t="n">
         <v>3195.3</v>
@@ -36030,7 +36052,7 @@
         <v>3618</v>
       </c>
       <c r="K702" t="n">
-        <v>-46.45669291338583</v>
+        <v>-36.50793650793651</v>
       </c>
       <c r="L702" t="n">
         <v>3193</v>
@@ -36081,7 +36103,7 @@
         <v>3623</v>
       </c>
       <c r="K703" t="n">
-        <v>-39.53488372093023</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L703" t="n">
         <v>3191.2</v>
@@ -36132,7 +36154,7 @@
         <v>3623</v>
       </c>
       <c r="K704" t="n">
-        <v>-39.53488372093023</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L704" t="n">
         <v>3189.7</v>
@@ -36183,7 +36205,7 @@
         <v>3623</v>
       </c>
       <c r="K705" t="n">
-        <v>-37.09677419354838</v>
+        <v>-13.20754716981132</v>
       </c>
       <c r="L705" t="n">
         <v>3189.2</v>
@@ -36234,7 +36256,7 @@
         <v>3623</v>
       </c>
       <c r="K706" t="n">
-        <v>-32.75862068965517</v>
+        <v>-30.43478260869566</v>
       </c>
       <c r="L706" t="n">
         <v>3188.5</v>
@@ -36285,7 +36307,7 @@
         <v>3629</v>
       </c>
       <c r="K707" t="n">
-        <v>-30.35714285714285</v>
+        <v>-17.94871794871795</v>
       </c>
       <c r="L707" t="n">
         <v>3186.5</v>
@@ -36336,7 +36358,7 @@
         <v>3634</v>
       </c>
       <c r="K708" t="n">
-        <v>-19.26605504587156</v>
+        <v>-39.39393939393939</v>
       </c>
       <c r="L708" t="n">
         <v>3186.3</v>
@@ -36387,7 +36409,7 @@
         <v>3644</v>
       </c>
       <c r="K709" t="n">
-        <v>-9.243697478991598</v>
+        <v>2.564102564102564</v>
       </c>
       <c r="L709" t="n">
         <v>3186</v>
@@ -36438,7 +36460,7 @@
         <v>3644</v>
       </c>
       <c r="K710" t="n">
-        <v>-20.37037037037037</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L710" t="n">
         <v>3186.1</v>
@@ -36489,7 +36511,7 @@
         <v>3652</v>
       </c>
       <c r="K711" t="n">
-        <v>-15.04424778761062</v>
+        <v>64.70588235294117</v>
       </c>
       <c r="L711" t="n">
         <v>3188.3</v>
@@ -36540,7 +36562,7 @@
         <v>3655</v>
       </c>
       <c r="K712" t="n">
-        <v>-4</v>
+        <v>43.75</v>
       </c>
       <c r="L712" t="n">
         <v>3190.2</v>
@@ -36591,7 +36613,7 @@
         <v>3655</v>
       </c>
       <c r="K713" t="n">
-        <v>-4</v>
+        <v>43.75</v>
       </c>
       <c r="L713" t="n">
         <v>3191.6</v>
@@ -36642,7 +36664,7 @@
         <v>3672</v>
       </c>
       <c r="K714" t="n">
-        <v>14.03508771929824</v>
+        <v>63.26530612244898</v>
       </c>
       <c r="L714" t="n">
         <v>3194.7</v>
@@ -36693,7 +36715,7 @@
         <v>3684</v>
       </c>
       <c r="K715" t="n">
-        <v>12.06896551724138</v>
+        <v>31.14754098360656</v>
       </c>
       <c r="L715" t="n">
         <v>3196.6</v>
@@ -36744,7 +36766,7 @@
         <v>3689</v>
       </c>
       <c r="K716" t="n">
-        <v>5.88235294117647</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L716" t="n">
         <v>3198</v>
@@ -36795,7 +36817,7 @@
         <v>3698</v>
       </c>
       <c r="K717" t="n">
-        <v>7.43801652892562</v>
+        <v>37.5</v>
       </c>
       <c r="L717" t="n">
         <v>3200.9</v>
@@ -36846,7 +36868,7 @@
         <v>3707</v>
       </c>
       <c r="K718" t="n">
-        <v>11.11111111111111</v>
+        <v>7.936507936507936</v>
       </c>
       <c r="L718" t="n">
         <v>3202.4</v>
@@ -36897,7 +36919,7 @@
         <v>3708</v>
       </c>
       <c r="K719" t="n">
-        <v>0.9345794392523363</v>
+        <v>6.25</v>
       </c>
       <c r="L719" t="n">
         <v>3202.8</v>
@@ -36948,7 +36970,7 @@
         <v>3708</v>
       </c>
       <c r="K720" t="n">
-        <v>4.854368932038835</v>
+        <v>-7.142857142857142</v>
       </c>
       <c r="L720" t="n">
         <v>3203.2</v>
@@ -36999,7 +37021,7 @@
         <v>3709</v>
       </c>
       <c r="K721" t="n">
-        <v>20.87912087912088</v>
+        <v>0</v>
       </c>
       <c r="L721" t="n">
         <v>3202.9</v>
@@ -37050,7 +37072,7 @@
         <v>3710</v>
       </c>
       <c r="K722" t="n">
-        <v>19.56521739130435</v>
+        <v>-1.818181818181818</v>
       </c>
       <c r="L722" t="n">
         <v>3202.8</v>
@@ -37101,7 +37123,7 @@
         <v>3717</v>
       </c>
       <c r="K723" t="n">
-        <v>6.382978723404255</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L723" t="n">
         <v>3202</v>
@@ -37152,7 +37174,7 @@
         <v>3727</v>
       </c>
       <c r="K724" t="n">
-        <v>-3.846153846153846</v>
+        <v>-53.48837209302325</v>
       </c>
       <c r="L724" t="n">
         <v>3198.5</v>
@@ -37203,7 +37225,7 @@
         <v>3729</v>
       </c>
       <c r="K725" t="n">
-        <v>-5.660377358490567</v>
+        <v>-50</v>
       </c>
       <c r="L725" t="n">
         <v>3196</v>
@@ -37254,7 +37276,7 @@
         <v>3729</v>
       </c>
       <c r="K726" t="n">
-        <v>-5.660377358490567</v>
+        <v>-93.54838709677419</v>
       </c>
       <c r="L726" t="n">
         <v>3194</v>
@@ -37305,7 +37327,7 @@
         <v>3729</v>
       </c>
       <c r="K727" t="n">
-        <v>0</v>
+        <v>-90.90909090909091</v>
       </c>
       <c r="L727" t="n">
         <v>3191.1</v>
@@ -37356,7 +37378,7 @@
         <v>3732</v>
       </c>
       <c r="K728" t="n">
-        <v>-8.163265306122449</v>
+        <v>-91.66666666666666</v>
       </c>
       <c r="L728" t="n">
         <v>3188.8</v>
@@ -37407,7 +37429,7 @@
         <v>3741</v>
       </c>
       <c r="K729" t="n">
-        <v>-9.278350515463918</v>
+        <v>-39.39393939393939</v>
       </c>
       <c r="L729" t="n">
         <v>3187.5</v>
@@ -37458,7 +37480,7 @@
         <v>3750</v>
       </c>
       <c r="K730" t="n">
-        <v>-16.9811320754717</v>
+        <v>-56.09756097560976</v>
       </c>
       <c r="L730" t="n">
         <v>3185.3</v>
@@ -37509,7 +37531,7 @@
         <v>3760</v>
       </c>
       <c r="K731" t="n">
-        <v>-14.81481481481481</v>
+        <v>-24</v>
       </c>
       <c r="L731" t="n">
         <v>3184</v>
@@ -37560,7 +37582,7 @@
         <v>3763</v>
       </c>
       <c r="K732" t="n">
-        <v>-9.25925925925926</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L732" t="n">
         <v>3183.1</v>
@@ -37611,7 +37633,7 @@
         <v>3771</v>
       </c>
       <c r="K733" t="n">
-        <v>-1.724137931034483</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="L733" t="n">
         <v>3183.7</v>
@@ -37662,7 +37684,7 @@
         <v>3771</v>
       </c>
       <c r="K734" t="n">
-        <v>-19.19191919191919</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L734" t="n">
         <v>3185.3</v>
@@ -37713,7 +37735,7 @@
         <v>3790</v>
       </c>
       <c r="K735" t="n">
-        <v>-24.52830188679245</v>
+        <v>-1.639344262295082</v>
       </c>
       <c r="L735" t="n">
         <v>3185.2</v>
@@ -37764,7 +37786,7 @@
         <v>3794</v>
       </c>
       <c r="K736" t="n">
-        <v>-23.80952380952381</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L736" t="n">
         <v>3184.7</v>
@@ -37815,7 +37837,7 @@
         <v>3802</v>
       </c>
       <c r="K737" t="n">
-        <v>-25</v>
+        <v>8.571428571428571</v>
       </c>
       <c r="L737" t="n">
         <v>3185</v>
@@ -37866,7 +37888,7 @@
         <v>3811</v>
       </c>
       <c r="K738" t="n">
-        <v>-25</v>
+        <v>-17.14285714285714</v>
       </c>
       <c r="L738" t="n">
         <v>3184.7</v>
@@ -37917,7 +37939,7 @@
         <v>3817</v>
       </c>
       <c r="K739" t="n">
-        <v>-17.43119266055046</v>
+        <v>4.477611940298507</v>
       </c>
       <c r="L739" t="n">
         <v>3184.1</v>
@@ -37968,7 +37990,7 @@
         <v>3822</v>
       </c>
       <c r="K740" t="n">
-        <v>-21.05263157894737</v>
+        <v>-19.35483870967742</v>
       </c>
       <c r="L740" t="n">
         <v>3183.9</v>
@@ -38019,7 +38041,7 @@
         <v>3824</v>
       </c>
       <c r="K741" t="n">
-        <v>-20</v>
+        <v>-21.31147540983606</v>
       </c>
       <c r="L741" t="n">
         <v>3182.9</v>
@@ -38070,7 +38092,7 @@
         <v>3831</v>
       </c>
       <c r="K742" t="n">
-        <v>-23.96694214876033</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L742" t="n">
         <v>3180.9</v>
@@ -38121,7 +38143,7 @@
         <v>3832</v>
       </c>
       <c r="K743" t="n">
-        <v>-20</v>
+        <v>-47.54098360655738</v>
       </c>
       <c r="L743" t="n">
         <v>3178</v>
@@ -38172,7 +38194,7 @@
         <v>3839</v>
       </c>
       <c r="K744" t="n">
-        <v>-5.357142857142857</v>
+        <v>-6.122448979591836</v>
       </c>
       <c r="L744" t="n">
         <v>3175.8</v>
@@ -38223,7 +38245,7 @@
         <v>3844</v>
       </c>
       <c r="K745" t="n">
-        <v>0.8695652173913043</v>
+        <v>12</v>
       </c>
       <c r="L745" t="n">
         <v>3176</v>
@@ -38274,7 +38296,7 @@
         <v>3845</v>
       </c>
       <c r="K746" t="n">
-        <v>1.724137931034483</v>
+        <v>-2.325581395348837</v>
       </c>
       <c r="L746" t="n">
         <v>3176.7</v>
@@ -38325,7 +38347,7 @@
         <v>3846</v>
       </c>
       <c r="K747" t="n">
-        <v>2.564102564102564</v>
+        <v>25.71428571428571</v>
       </c>
       <c r="L747" t="n">
         <v>3176.7</v>
@@ -38376,7 +38398,7 @@
         <v>3854</v>
       </c>
       <c r="K748" t="n">
-        <v>11.47540983606557</v>
+        <v>29.72972972972973</v>
       </c>
       <c r="L748" t="n">
         <v>3178.4</v>
@@ -38427,7 +38449,7 @@
         <v>3855</v>
       </c>
       <c r="K749" t="n">
-        <v>3.508771929824561</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L749" t="n">
         <v>3179.4</v>
@@ -38478,7 +38500,7 @@
         <v>3856</v>
       </c>
       <c r="K750" t="n">
-        <v>13.20754716981132</v>
+        <v>43.75</v>
       </c>
       <c r="L750" t="n">
         <v>3181</v>
@@ -38529,7 +38551,7 @@
         <v>3856</v>
       </c>
       <c r="K751" t="n">
-        <v>4.166666666666666</v>
+        <v>84</v>
       </c>
       <c r="L751" t="n">
         <v>3182.4</v>
@@ -38580,7 +38602,7 @@
         <v>3865</v>
       </c>
       <c r="K752" t="n">
-        <v>-7.84313725490196</v>
+        <v>39.39393939393939</v>
       </c>
       <c r="L752" t="n">
         <v>3183.6</v>
@@ -38631,7 +38653,7 @@
         <v>3878</v>
       </c>
       <c r="K753" t="n">
-        <v>-2.803738317757009</v>
+        <v>48.71794871794872</v>
       </c>
       <c r="L753" t="n">
         <v>3186.2</v>
@@ -38682,7 +38704,7 @@
         <v>3890</v>
       </c>
       <c r="K754" t="n">
-        <v>-12.60504201680672</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L754" t="n">
         <v>3186.9</v>
@@ -38733,7 +38755,7 @@
         <v>3903</v>
       </c>
       <c r="K755" t="n">
-        <v>15.04424778761062</v>
+        <v>24.13793103448276</v>
       </c>
       <c r="L755" t="n">
         <v>3188.4</v>
@@ -38784,7 +38806,7 @@
         <v>3907</v>
       </c>
       <c r="K756" t="n">
-        <v>22.12389380530973</v>
+        <v>27.86885245901639</v>
       </c>
       <c r="L756" t="n">
         <v>3190.2</v>
@@ -38835,7 +38857,7 @@
         <v>3908</v>
       </c>
       <c r="K757" t="n">
-        <v>15.09433962264151</v>
+        <v>14.81481481481481</v>
       </c>
       <c r="L757" t="n">
         <v>3191.8</v>
@@ -38886,7 +38908,7 @@
         <v>3909</v>
       </c>
       <c r="K758" t="n">
-        <v>26.53061224489796</v>
+        <v>18.51851851851852</v>
       </c>
       <c r="L758" t="n">
         <v>3192.7</v>
@@ -38937,7 +38959,7 @@
         <v>3930</v>
       </c>
       <c r="K759" t="n">
-        <v>36.28318584070797</v>
+        <v>40.54054054054054</v>
       </c>
       <c r="L759" t="n">
         <v>3195.8</v>
@@ -38988,7 +39010,7 @@
         <v>3931</v>
       </c>
       <c r="K760" t="n">
-        <v>41.28440366972477</v>
+        <v>38.66666666666666</v>
       </c>
       <c r="L760" t="n">
         <v>3198.7</v>
@@ -39039,7 +39061,7 @@
         <v>3933</v>
       </c>
       <c r="K761" t="n">
-        <v>37.61467889908257</v>
+        <v>52.94117647058824</v>
       </c>
       <c r="L761" t="n">
         <v>3201.4</v>
@@ -39090,7 +39112,7 @@
         <v>3941</v>
       </c>
       <c r="K762" t="n">
-        <v>36.36363636363637</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L762" t="n">
         <v>3204.2</v>
@@ -39141,7 +39163,7 @@
         <v>3950</v>
       </c>
       <c r="K763" t="n">
-        <v>42.3728813559322</v>
+        <v>60</v>
       </c>
       <c r="L763" t="n">
         <v>3206.6</v>
@@ -39192,7 +39214,7 @@
         <v>3951</v>
       </c>
       <c r="K764" t="n">
-        <v>37.5</v>
+        <v>45.83333333333333</v>
       </c>
       <c r="L764" t="n">
         <v>3210.1</v>
@@ -39243,7 +39265,7 @@
         <v>3958</v>
       </c>
       <c r="K765" t="n">
-        <v>26.31578947368421</v>
+        <v>21.56862745098039</v>
       </c>
       <c r="L765" t="n">
         <v>3211.6</v>
@@ -39294,7 +39316,7 @@
         <v>3963</v>
       </c>
       <c r="K766" t="n">
-        <v>20.33898305084746</v>
+        <v>12.72727272727273</v>
       </c>
       <c r="L766" t="n">
         <v>3212.2</v>
@@ -39345,7 +39367,7 @@
         <v>3964</v>
       </c>
       <c r="K767" t="n">
-        <v>18.64406779661017</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L767" t="n">
         <v>3212.8</v>
@@ -39396,7 +39418,7 @@
         <v>3967</v>
       </c>
       <c r="K768" t="n">
-        <v>9.734513274336283</v>
+        <v>-51.35135135135135</v>
       </c>
       <c r="L768" t="n">
         <v>3213</v>
@@ -39447,7 +39469,7 @@
         <v>3970</v>
       </c>
       <c r="K769" t="n">
-        <v>13.04347826086956</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L769" t="n">
         <v>3211.4</v>
@@ -39498,7 +39520,7 @@
         <v>3990</v>
       </c>
       <c r="K770" t="n">
-        <v>-4.477611940298507</v>
+        <v>-57.89473684210527</v>
       </c>
       <c r="L770" t="n">
         <v>3207.9</v>
@@ -39549,7 +39571,7 @@
         <v>3995</v>
       </c>
       <c r="K771" t="n">
-        <v>-7.913669064748201</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L771" t="n">
         <v>3204.1</v>
@@ -39600,7 +39622,7 @@
         <v>4009</v>
       </c>
       <c r="K772" t="n">
-        <v>8.333333333333332</v>
+        <v>-42.3728813559322</v>
       </c>
       <c r="L772" t="n">
         <v>3202.5</v>
@@ -39651,7 +39673,7 @@
         <v>4012</v>
       </c>
       <c r="K773" t="n">
-        <v>-2.985074626865671</v>
+        <v>-44.26229508196721</v>
       </c>
       <c r="L773" t="n">
         <v>3199.7</v>
@@ -39702,7 +39724,7 @@
         <v>4012</v>
       </c>
       <c r="K774" t="n">
-        <v>6.557377049180328</v>
+        <v>-37.03703703703704</v>
       </c>
       <c r="L774" t="n">
         <v>3197</v>
@@ -39753,7 +39775,7 @@
         <v>4024</v>
       </c>
       <c r="K775" t="n">
-        <v>-14.0495867768595</v>
+        <v>-44.26229508196721</v>
       </c>
       <c r="L775" t="n">
         <v>3193.8</v>
@@ -39804,7 +39826,7 @@
         <v>4024</v>
       </c>
       <c r="K776" t="n">
-        <v>-17.94871794871795</v>
+        <v>-43.33333333333334</v>
       </c>
       <c r="L776" t="n">
         <v>3191.1</v>
@@ -39855,7 +39877,7 @@
         <v>4027</v>
       </c>
       <c r="K777" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L777" t="n">
         <v>3188.8</v>
@@ -39906,7 +39928,7 @@
         <v>4028</v>
       </c>
       <c r="K778" t="n">
-        <v>-15.96638655462185</v>
+        <v>-41.37931034482759</v>
       </c>
       <c r="L778" t="n">
         <v>3186.7</v>
@@ -39957,7 +39979,7 @@
         <v>4030</v>
       </c>
       <c r="K779" t="n">
-        <v>-38</v>
+        <v>-5</v>
       </c>
       <c r="L779" t="n">
         <v>3184.5</v>
@@ -40008,7 +40030,7 @@
         <v>4042</v>
       </c>
       <c r="K780" t="n">
-        <v>-22.52252252252252</v>
+        <v>31.91489361702128</v>
       </c>
       <c r="L780" t="n">
         <v>3185.5</v>
@@ -40059,7 +40081,7 @@
         <v>4046</v>
       </c>
       <c r="K781" t="n">
-        <v>-23.89380530973451</v>
+        <v>-8.108108108108109</v>
       </c>
       <c r="L781" t="n">
         <v>3186.6</v>
@@ -40110,7 +40132,7 @@
         <v>4060</v>
       </c>
       <c r="K782" t="n">
-        <v>-27.73109243697479</v>
+        <v>-29.16666666666667</v>
       </c>
       <c r="L782" t="n">
         <v>3184.9</v>
@@ -40161,7 +40183,7 @@
         <v>4063</v>
       </c>
       <c r="K783" t="n">
-        <v>-39.82300884955752</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L783" t="n">
         <v>3183.2</v>
@@ -40212,7 +40234,7 @@
         <v>4065</v>
       </c>
       <c r="K784" t="n">
-        <v>-36.84210526315789</v>
+        <v>-7.317073170731707</v>
       </c>
       <c r="L784" t="n">
         <v>3181.7</v>
@@ -40263,7 +40285,7 @@
         <v>4073</v>
       </c>
       <c r="K785" t="n">
-        <v>-37.39130434782609</v>
+        <v>-22.44897959183674</v>
       </c>
       <c r="L785" t="n">
         <v>3180.6</v>
@@ -40314,7 +40336,7 @@
         <v>4075</v>
       </c>
       <c r="K786" t="n">
-        <v>-35.71428571428572</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L786" t="n">
         <v>3179.3</v>
@@ -40365,7 +40387,7 @@
         <v>4084</v>
       </c>
       <c r="K787" t="n">
-        <v>-25</v>
+        <v>-10.71428571428571</v>
       </c>
       <c r="L787" t="n">
         <v>3178.6</v>
@@ -40416,7 +40438,7 @@
         <v>4084</v>
       </c>
       <c r="K788" t="n">
-        <v>-23.07692307692308</v>
+        <v>-14.81481481481481</v>
       </c>
       <c r="L788" t="n">
         <v>3178</v>
@@ -40467,7 +40489,7 @@
         <v>4084</v>
       </c>
       <c r="K789" t="n">
-        <v>-26.31578947368421</v>
+        <v>-47.61904761904761</v>
       </c>
       <c r="L789" t="n">
         <v>3177.2</v>
@@ -40518,7 +40540,7 @@
         <v>4091</v>
       </c>
       <c r="K790" t="n">
-        <v>-16.83168316831683</v>
+        <v>-51.11111111111111</v>
       </c>
       <c r="L790" t="n">
         <v>3174.5</v>
@@ -40569,7 +40591,7 @@
         <v>4102</v>
       </c>
       <c r="K791" t="n">
-        <v>-0.9345794392523363</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L791" t="n">
         <v>3173.3</v>
@@ -40620,7 +40642,7 @@
         <v>4102</v>
       </c>
       <c r="K792" t="n">
-        <v>-16.12903225806452</v>
+        <v>12.82051282051282</v>
       </c>
       <c r="L792" t="n">
         <v>3173.5</v>
@@ -40671,7 +40693,7 @@
         <v>4122</v>
       </c>
       <c r="K793" t="n">
-        <v>7.272727272727272</v>
+        <v>40.35087719298245</v>
       </c>
       <c r="L793" t="n">
         <v>3176</v>
@@ -40722,7 +40744,7 @@
         <v>4123</v>
       </c>
       <c r="K794" t="n">
-        <v>6.306306306306306</v>
+        <v>60</v>
       </c>
       <c r="L794" t="n">
         <v>3178.2</v>
@@ -40773,7 +40795,7 @@
         <v>4128</v>
       </c>
       <c r="K795" t="n">
-        <v>23.07692307692308</v>
+        <v>69.81132075471697</v>
       </c>
       <c r="L795" t="n">
         <v>3181.7</v>
@@ -40824,7 +40846,7 @@
         <v>4137</v>
       </c>
       <c r="K796" t="n">
-        <v>13.27433628318584</v>
+        <v>35.84905660377358</v>
       </c>
       <c r="L796" t="n">
         <v>3184.5</v>
@@ -40875,7 +40897,7 @@
         <v>4146</v>
       </c>
       <c r="K797" t="n">
-        <v>17.64705882352941</v>
+        <v>45.16129032258064</v>
       </c>
       <c r="L797" t="n">
         <v>3187.3</v>
@@ -40926,7 +40948,7 @@
         <v>4147</v>
       </c>
       <c r="K798" t="n">
-        <v>17.64705882352941</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L798" t="n">
         <v>3190</v>
@@ -40977,7 +40999,7 @@
         <v>4158</v>
       </c>
       <c r="K799" t="n">
-        <v>6.25</v>
+        <v>34.32835820895522</v>
       </c>
       <c r="L799" t="n">
         <v>3191.6</v>
@@ -41028,7 +41050,7 @@
         <v>4170</v>
       </c>
       <c r="K800" t="n">
-        <v>6.25</v>
+        <v>35.29411764705883</v>
       </c>
       <c r="L800" t="n">
         <v>3195.1</v>
@@ -41079,7 +41101,7 @@
         <v>4172</v>
       </c>
       <c r="K801" t="n">
-        <v>7.936507936507936</v>
+        <v>31.42857142857143</v>
       </c>
       <c r="L801" t="n">
         <v>3197.3</v>
@@ -41130,7 +41152,7 @@
         <v>4183</v>
       </c>
       <c r="K802" t="n">
-        <v>10.56910569105691</v>
+        <v>-14.75409836065574</v>
       </c>
       <c r="L802" t="n">
         <v>3198.4</v>
@@ -41181,7 +41203,7 @@
         <v>4190</v>
       </c>
       <c r="K803" t="n">
-        <v>7.086614173228346</v>
+        <v>-22.38805970149254</v>
       </c>
       <c r="L803" t="n">
         <v>3196.8</v>
@@ -41232,7 +41254,7 @@
         <v>4204</v>
       </c>
       <c r="K804" t="n">
-        <v>15.10791366906475</v>
+        <v>-7.894736842105263</v>
       </c>
       <c r="L804" t="n">
         <v>3196.7</v>
@@ -41283,7 +41305,7 @@
         <v>4205</v>
       </c>
       <c r="K805" t="n">
-        <v>22.72727272727273</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L805" t="n">
         <v>3196.2</v>
@@ -41334,7 +41356,7 @@
         <v>4205</v>
       </c>
       <c r="K806" t="n">
-        <v>24.61538461538462</v>
+        <v>-8.474576271186439</v>
       </c>
       <c r="L806" t="n">
         <v>3196.6</v>
@@ -41385,7 +41407,7 @@
         <v>4220</v>
       </c>
       <c r="K807" t="n">
-        <v>5.88235294117647</v>
+        <v>-26.02739726027397</v>
       </c>
       <c r="L807" t="n">
         <v>3194.6</v>
@@ -41436,7 +41458,7 @@
         <v>4234</v>
       </c>
       <c r="K808" t="n">
-        <v>14.66666666666667</v>
+        <v>7.894736842105263</v>
       </c>
       <c r="L808" t="n">
         <v>3194.1</v>
@@ -41487,7 +41509,7 @@
         <v>4234</v>
       </c>
       <c r="K809" t="n">
-        <v>14.66666666666667</v>
+        <v>-9.375</v>
       </c>
       <c r="L809" t="n">
         <v>3194.7</v>

--- a/BackTest/2019-10-22 BackTest LINK.xlsx
+++ b/BackTest/2019-10-22 BackTest LINK.xlsx
@@ -8746,14 +8746,20 @@
         <v>3079.566666666667</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>3052</v>
+      </c>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -8781,14 +8787,20 @@
         <v>3078.666666666667</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>3037</v>
+      </c>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -8816,14 +8828,20 @@
         <v>3077.683333333333</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>3050</v>
+      </c>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -8851,14 +8869,20 @@
         <v>3076.6</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>3048</v>
+      </c>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -8886,14 +8910,20 @@
         <v>3075.65</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>3048</v>
+      </c>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -8921,14 +8951,20 @@
         <v>3074.5</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>3048</v>
+      </c>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -8956,14 +8992,20 @@
         <v>3073.15</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>3037</v>
+      </c>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -8991,14 +9033,20 @@
         <v>3071.966666666667</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>3036</v>
+      </c>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9026,14 +9074,20 @@
         <v>3071.033333333333</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>3046</v>
+      </c>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9061,14 +9115,20 @@
         <v>3070.283333333333</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>3048</v>
+      </c>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9096,14 +9156,20 @@
         <v>3069.25</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>3059</v>
+      </c>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9131,14 +9197,20 @@
         <v>3068.6</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>3052</v>
+      </c>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9173,7 +9245,11 @@
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9208,7 +9284,11 @@
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9243,7 +9323,11 @@
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9278,7 +9362,11 @@
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -9313,7 +9401,11 @@
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -9348,7 +9440,11 @@
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -9383,7 +9479,11 @@
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -9418,7 +9518,11 @@
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -9453,7 +9557,11 @@
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -9488,7 +9596,11 @@
       </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -9523,7 +9635,11 @@
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -9558,7 +9674,11 @@
       </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -9593,7 +9713,11 @@
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -9628,7 +9752,11 @@
       </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -9663,7 +9791,11 @@
       </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -9698,7 +9830,11 @@
       </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -9733,7 +9869,11 @@
       </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -9768,7 +9908,11 @@
       </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -9803,7 +9947,11 @@
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -9838,7 +9986,11 @@
       </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -9873,7 +10025,11 @@
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -9908,7 +10064,11 @@
       </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -9943,7 +10103,11 @@
       </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -9978,7 +10142,11 @@
       </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -10006,14 +10174,20 @@
         <v>3054.516666666667</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
       </c>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>3027</v>
+      </c>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -10041,14 +10215,20 @@
         <v>3053.55</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
       </c>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>3025</v>
+      </c>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -10076,14 +10256,20 @@
         <v>3052.666666666667</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
       </c>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>3025</v>
+      </c>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -10111,14 +10297,20 @@
         <v>3051.733333333333</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
       </c>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>3026</v>
+      </c>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -10153,7 +10345,11 @@
       </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -10188,7 +10384,11 @@
       </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -10223,7 +10423,11 @@
       </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -10258,7 +10462,11 @@
       </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -10293,7 +10501,11 @@
       </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -10328,7 +10540,11 @@
       </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -10363,7 +10579,11 @@
       </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -10398,7 +10618,11 @@
       </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -10433,7 +10657,11 @@
       </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -10461,18 +10689,16 @@
         <v>3042.85</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
       </c>
-      <c r="J288" t="n">
-        <v>3020</v>
-      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
       <c r="L288" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M288" t="n">
@@ -10502,14 +10728,12 @@
         <v>3042.116666666667</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
       </c>
-      <c r="J289" t="n">
-        <v>3024</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
       <c r="L289" t="inlineStr">
         <is>
@@ -10543,14 +10767,12 @@
         <v>3041.516666666667</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
       </c>
-      <c r="J290" t="n">
-        <v>3022</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
       <c r="L290" t="inlineStr">
         <is>
@@ -10584,14 +10806,12 @@
         <v>3041.116666666667</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
       </c>
-      <c r="J291" t="n">
-        <v>3022</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
       <c r="L291" t="inlineStr">
         <is>
@@ -10625,14 +10845,12 @@
         <v>3040.6</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
       </c>
-      <c r="J292" t="n">
-        <v>3034</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
       <c r="L292" t="inlineStr">
         <is>
@@ -10666,14 +10884,12 @@
         <v>3040.383333333333</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
       </c>
-      <c r="J293" t="n">
-        <v>3036</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
       <c r="L293" t="inlineStr">
         <is>
@@ -10707,14 +10923,12 @@
         <v>3040.316666666667</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
       </c>
-      <c r="J294" t="n">
-        <v>3038</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
       <c r="L294" t="inlineStr">
         <is>
@@ -10748,14 +10962,12 @@
         <v>3040.35</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
       </c>
-      <c r="J295" t="n">
-        <v>3041</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
       <c r="L295" t="inlineStr">
         <is>
@@ -10789,14 +11001,12 @@
         <v>3040.416666666667</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
       </c>
-      <c r="J296" t="n">
-        <v>3042</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
       <c r="L296" t="inlineStr">
         <is>
@@ -10908,14 +11118,12 @@
         <v>3038.983333333333</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
       </c>
-      <c r="J299" t="n">
-        <v>3017</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
       <c r="L299" t="inlineStr">
         <is>
@@ -10949,14 +11157,12 @@
         <v>3038.433333333333</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
       </c>
-      <c r="J300" t="n">
-        <v>3018</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
       <c r="L300" t="inlineStr">
         <is>
@@ -10990,14 +11196,12 @@
         <v>3037.883333333333</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
       </c>
-      <c r="J301" t="n">
-        <v>3017</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
       <c r="L301" t="inlineStr">
         <is>
@@ -11031,14 +11235,12 @@
         <v>3037.316666666667</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
       </c>
-      <c r="J302" t="n">
-        <v>3014</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
       <c r="L302" t="inlineStr">
         <is>
@@ -11072,14 +11274,12 @@
         <v>3036.716666666667</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
       </c>
-      <c r="J303" t="n">
-        <v>3012</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
       <c r="L303" t="inlineStr">
         <is>
@@ -11113,14 +11313,12 @@
         <v>3036.266666666667</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
       </c>
-      <c r="J304" t="n">
-        <v>3010</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
       <c r="L304" t="inlineStr">
         <is>
@@ -11154,14 +11352,12 @@
         <v>3035.916666666667</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
       </c>
-      <c r="J305" t="n">
-        <v>3017</v>
-      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
       <c r="L305" t="inlineStr">
         <is>
@@ -11195,14 +11391,12 @@
         <v>3035.416666666667</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
       </c>
-      <c r="J306" t="n">
-        <v>3014</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
       <c r="L306" t="inlineStr">
         <is>
@@ -11236,14 +11430,12 @@
         <v>3034.983333333333</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
       </c>
-      <c r="J307" t="n">
-        <v>3022</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
       <c r="L307" t="inlineStr">
         <is>
@@ -11277,14 +11469,12 @@
         <v>3034.333333333333</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
       </c>
-      <c r="J308" t="n">
-        <v>3020</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
       <c r="L308" t="inlineStr">
         <is>
@@ -11318,14 +11508,12 @@
         <v>3033.816666666667</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
       </c>
-      <c r="J309" t="n">
-        <v>3021</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
       <c r="L309" t="inlineStr">
         <is>
@@ -11359,14 +11547,12 @@
         <v>3033.066666666667</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
       </c>
-      <c r="J310" t="n">
-        <v>3020</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
       <c r="L310" t="inlineStr">
         <is>
@@ -11400,14 +11586,12 @@
         <v>3032.383333333333</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
       </c>
-      <c r="J311" t="n">
-        <v>3024</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
       <c r="L311" t="inlineStr">
         <is>
@@ -11441,14 +11625,12 @@
         <v>3031.65</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
       </c>
-      <c r="J312" t="n">
-        <v>3020</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
       <c r="L312" t="inlineStr">
         <is>
@@ -11482,14 +11664,12 @@
         <v>3031</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
       </c>
-      <c r="J313" t="n">
-        <v>3020</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
       <c r="L313" t="inlineStr">
         <is>
@@ -11523,14 +11703,12 @@
         <v>3030.316666666667</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
       </c>
-      <c r="J314" t="n">
-        <v>3020</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
       <c r="L314" t="inlineStr">
         <is>
@@ -11564,14 +11742,12 @@
         <v>3029.633333333333</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
       </c>
-      <c r="J315" t="n">
-        <v>3023</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
       <c r="L315" t="inlineStr">
         <is>
@@ -11605,14 +11781,12 @@
         <v>3029.233333333333</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
       </c>
-      <c r="J316" t="n">
-        <v>3039</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
       <c r="L316" t="inlineStr">
         <is>
@@ -11646,14 +11820,12 @@
         <v>3028.6</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
       </c>
-      <c r="J317" t="n">
-        <v>3023</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
       <c r="L317" t="inlineStr">
         <is>
@@ -11687,14 +11859,12 @@
         <v>3027.933333333333</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
       </c>
-      <c r="J318" t="n">
-        <v>3020</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
       <c r="L318" t="inlineStr">
         <is>
@@ -11728,14 +11898,12 @@
         <v>3026.983333333333</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
       </c>
-      <c r="J319" t="n">
-        <v>3011</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
       <c r="L319" t="inlineStr">
         <is>
@@ -11769,14 +11937,12 @@
         <v>3026.316666666667</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
       </c>
-      <c r="J320" t="n">
-        <v>3011</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
       <c r="L320" t="inlineStr">
         <is>
@@ -11810,14 +11976,12 @@
         <v>3025.7</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
       </c>
-      <c r="J321" t="n">
-        <v>3020</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
       <c r="L321" t="inlineStr">
         <is>
@@ -11851,14 +12015,12 @@
         <v>3025.533333333333</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
       </c>
-      <c r="J322" t="n">
-        <v>3026</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
       <c r="L322" t="inlineStr">
         <is>
@@ -11892,14 +12054,12 @@
         <v>3025.25</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
       </c>
-      <c r="J323" t="n">
-        <v>3020</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
       <c r="L323" t="inlineStr">
         <is>
@@ -11933,14 +12093,12 @@
         <v>3024.966666666667</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
       </c>
-      <c r="J324" t="n">
-        <v>3020</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
       <c r="L324" t="inlineStr">
         <is>
@@ -11974,14 +12132,12 @@
         <v>3024.583333333333</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
       </c>
-      <c r="J325" t="n">
-        <v>3015</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
       <c r="L325" t="inlineStr">
         <is>
@@ -12015,14 +12171,12 @@
         <v>3023.95</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
       </c>
-      <c r="J326" t="n">
-        <v>3013</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
       <c r="L326" t="inlineStr">
         <is>
@@ -12056,14 +12210,12 @@
         <v>3023.583333333333</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
       </c>
-      <c r="J327" t="n">
-        <v>3018</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
       <c r="L327" t="inlineStr">
         <is>
@@ -12097,14 +12249,12 @@
         <v>3023.15</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
       </c>
-      <c r="J328" t="n">
-        <v>3020</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
       <c r="L328" t="inlineStr">
         <is>
@@ -12138,14 +12288,12 @@
         <v>3022.85</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
       </c>
-      <c r="J329" t="n">
-        <v>3011</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
       <c r="L329" t="inlineStr">
         <is>
@@ -12179,14 +12327,12 @@
         <v>3022.55</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
       </c>
-      <c r="J330" t="n">
-        <v>3011</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
       <c r="L330" t="inlineStr">
         <is>
@@ -12220,14 +12366,12 @@
         <v>3022.15</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
       </c>
-      <c r="J331" t="n">
-        <v>3008</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
       <c r="L331" t="inlineStr">
         <is>
@@ -12261,14 +12405,12 @@
         <v>3022.083333333333</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
       </c>
-      <c r="J332" t="n">
-        <v>3015</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
       <c r="L332" t="inlineStr">
         <is>
@@ -12302,14 +12444,12 @@
         <v>3021.983333333333</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
       </c>
-      <c r="J333" t="n">
-        <v>3023</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
       <c r="L333" t="inlineStr">
         <is>
@@ -12343,14 +12483,12 @@
         <v>3021.816666666667</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
       </c>
-      <c r="J334" t="n">
-        <v>3017</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
       <c r="L334" t="inlineStr">
         <is>
@@ -12384,14 +12522,12 @@
         <v>3021.666666666667</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
       </c>
-      <c r="J335" t="n">
-        <v>3016</v>
-      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
       <c r="L335" t="inlineStr">
         <is>
@@ -12425,14 +12561,12 @@
         <v>3021.65</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
       </c>
-      <c r="J336" t="n">
-        <v>3024</v>
-      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
       <c r="L336" t="inlineStr">
         <is>
@@ -12466,14 +12600,12 @@
         <v>3021.316666666667</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
       </c>
-      <c r="J337" t="n">
-        <v>3024</v>
-      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
       <c r="L337" t="inlineStr">
         <is>
@@ -12507,14 +12639,12 @@
         <v>3021.283333333333</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
       </c>
-      <c r="J338" t="n">
-        <v>3022</v>
-      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
       <c r="L338" t="inlineStr">
         <is>
@@ -12548,14 +12678,12 @@
         <v>3021.333333333333</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
       </c>
-      <c r="J339" t="n">
-        <v>3021</v>
-      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
       <c r="L339" t="inlineStr">
         <is>
@@ -12589,14 +12717,12 @@
         <v>3021.316666666667</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
       </c>
-      <c r="J340" t="n">
-        <v>3024</v>
-      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
       <c r="L340" t="inlineStr">
         <is>
@@ -12630,14 +12756,12 @@
         <v>3021.233333333333</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
       </c>
-      <c r="J341" t="n">
-        <v>3018</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
       <c r="L341" t="inlineStr">
         <is>
@@ -12671,14 +12795,12 @@
         <v>3020.666666666667</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
       </c>
-      <c r="J342" t="n">
-        <v>3009</v>
-      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
       <c r="L342" t="inlineStr">
         <is>
@@ -12712,14 +12834,12 @@
         <v>3020.4</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
       </c>
-      <c r="J343" t="n">
-        <v>3012</v>
-      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
       <c r="L343" t="inlineStr">
         <is>
@@ -12753,14 +12873,12 @@
         <v>3020.183333333333</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
       </c>
-      <c r="J344" t="n">
-        <v>3016</v>
-      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr"/>
       <c r="L344" t="inlineStr">
         <is>
@@ -12794,14 +12912,12 @@
         <v>3019.966666666667</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
       </c>
-      <c r="J345" t="n">
-        <v>3015</v>
-      </c>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr"/>
       <c r="L345" t="inlineStr">
         <is>
@@ -12835,14 +12951,12 @@
         <v>3019.916666666667</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
       </c>
-      <c r="J346" t="n">
-        <v>3018</v>
-      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>
       <c r="L346" t="inlineStr">
         <is>
@@ -12876,14 +12990,12 @@
         <v>3019.9</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
       </c>
-      <c r="J347" t="n">
-        <v>3018</v>
-      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr"/>
       <c r="L347" t="inlineStr">
         <is>
@@ -12917,14 +13029,12 @@
         <v>3019.95</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
       </c>
-      <c r="J348" t="n">
-        <v>3024</v>
-      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr"/>
       <c r="L348" t="inlineStr">
         <is>
@@ -12958,14 +13068,12 @@
         <v>3020.033333333333</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
       </c>
-      <c r="J349" t="n">
-        <v>3027</v>
-      </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr"/>
       <c r="L349" t="inlineStr">
         <is>
@@ -12999,14 +13107,12 @@
         <v>3020.133333333333</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
       </c>
-      <c r="J350" t="n">
-        <v>3028</v>
-      </c>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr"/>
       <c r="L350" t="inlineStr">
         <is>
@@ -13040,14 +13146,12 @@
         <v>3020.316666666667</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
       </c>
-      <c r="J351" t="n">
-        <v>3041</v>
-      </c>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr"/>
       <c r="L351" t="inlineStr">
         <is>
@@ -13081,14 +13185,12 @@
         <v>3020.333333333333</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
       </c>
-      <c r="J352" t="n">
-        <v>3036</v>
-      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
       <c r="L352" t="inlineStr">
         <is>
@@ -13122,14 +13224,12 @@
         <v>3020.45</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
       </c>
-      <c r="J353" t="n">
-        <v>3044</v>
-      </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>
       <c r="L353" t="inlineStr">
         <is>
@@ -13163,14 +13263,12 @@
         <v>3020.516666666667</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
       </c>
-      <c r="J354" t="n">
-        <v>3044</v>
-      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr"/>
       <c r="L354" t="inlineStr">
         <is>
@@ -13204,14 +13302,12 @@
         <v>3020.716666666667</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
       </c>
-      <c r="J355" t="n">
-        <v>3045</v>
-      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
       <c r="L355" t="inlineStr">
         <is>
@@ -13245,14 +13341,12 @@
         <v>3020.966666666667</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
       </c>
-      <c r="J356" t="n">
-        <v>3053</v>
-      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
       <c r="L356" t="inlineStr">
         <is>
@@ -13286,14 +13380,12 @@
         <v>3021.633333333333</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
       </c>
-      <c r="J357" t="n">
-        <v>3058</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr"/>
       <c r="L357" t="inlineStr">
         <is>
@@ -15472,12 +15564,14 @@
         <v>3051.633333333333</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
       </c>
-      <c r="J413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>3035</v>
+      </c>
       <c r="K413" t="inlineStr"/>
       <c r="L413" t="inlineStr">
         <is>
@@ -15511,12 +15605,14 @@
         <v>3051.416666666667</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
       </c>
-      <c r="J414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>3021</v>
+      </c>
       <c r="K414" t="inlineStr"/>
       <c r="L414" t="inlineStr">
         <is>
@@ -15550,12 +15646,14 @@
         <v>3051.116666666667</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
       </c>
-      <c r="J415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>3031</v>
+      </c>
       <c r="K415" t="inlineStr"/>
       <c r="L415" t="inlineStr">
         <is>
@@ -15589,12 +15687,14 @@
         <v>3050.833333333333</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
       </c>
-      <c r="J416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>3035</v>
+      </c>
       <c r="K416" t="inlineStr"/>
       <c r="L416" t="inlineStr">
         <is>
@@ -15628,12 +15728,14 @@
         <v>3050.483333333333</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
       </c>
-      <c r="J417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>3041</v>
+      </c>
       <c r="K417" t="inlineStr"/>
       <c r="L417" t="inlineStr">
         <is>
@@ -15667,12 +15769,14 @@
         <v>3050.316666666667</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
       </c>
-      <c r="J418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>3039</v>
+      </c>
       <c r="K418" t="inlineStr"/>
       <c r="L418" t="inlineStr">
         <is>
@@ -15706,12 +15810,14 @@
         <v>3050.166666666667</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
       </c>
-      <c r="J419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>3050</v>
+      </c>
       <c r="K419" t="inlineStr"/>
       <c r="L419" t="inlineStr">
         <is>
@@ -15901,14 +16007,12 @@
         <v>3047.916666666667</v>
       </c>
       <c r="H424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
       </c>
-      <c r="J424" t="n">
-        <v>3021</v>
-      </c>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr"/>
       <c r="L424" t="inlineStr">
         <is>
@@ -15942,14 +16046,12 @@
         <v>3047.383333333333</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
       </c>
-      <c r="J425" t="n">
-        <v>3029</v>
-      </c>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr"/>
       <c r="L425" t="inlineStr">
         <is>
@@ -15989,7 +16091,7 @@
         <v>0</v>
       </c>
       <c r="J426" t="n">
-        <v>3019</v>
+        <v>3018</v>
       </c>
       <c r="K426" t="inlineStr"/>
       <c r="L426" t="inlineStr">
@@ -16030,7 +16132,7 @@
         <v>0</v>
       </c>
       <c r="J427" t="n">
-        <v>3018</v>
+        <v>3020</v>
       </c>
       <c r="K427" t="inlineStr"/>
       <c r="L427" t="inlineStr">
@@ -16112,7 +16214,7 @@
         <v>0</v>
       </c>
       <c r="J429" t="n">
-        <v>3024</v>
+        <v>3008</v>
       </c>
       <c r="K429" t="inlineStr"/>
       <c r="L429" t="inlineStr">
@@ -16147,14 +16249,12 @@
         <v>3042.766666666667</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
       </c>
-      <c r="J430" t="n">
-        <v>3025</v>
-      </c>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr"/>
       <c r="L430" t="inlineStr">
         <is>
@@ -16188,14 +16288,12 @@
         <v>3042.116666666667</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
       </c>
-      <c r="J431" t="n">
-        <v>3029</v>
-      </c>
+      <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr"/>
       <c r="L431" t="inlineStr">
         <is>
@@ -16229,14 +16327,12 @@
         <v>3041.533333333333</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
       </c>
-      <c r="J432" t="n">
-        <v>3023</v>
-      </c>
+      <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr"/>
       <c r="L432" t="inlineStr">
         <is>
@@ -16270,14 +16366,12 @@
         <v>3040.833333333333</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
       </c>
-      <c r="J433" t="n">
-        <v>3025</v>
-      </c>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr"/>
       <c r="L433" t="inlineStr">
         <is>
@@ -16311,14 +16405,12 @@
         <v>3040.466666666667</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
       </c>
-      <c r="J434" t="n">
-        <v>3045</v>
-      </c>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr"/>
       <c r="L434" t="inlineStr">
         <is>
@@ -16352,14 +16444,12 @@
         <v>3039.9</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
       </c>
-      <c r="J435" t="n">
-        <v>3030</v>
-      </c>
+      <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr"/>
       <c r="L435" t="inlineStr">
         <is>
@@ -16393,14 +16483,12 @@
         <v>3039.583333333333</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
       </c>
-      <c r="J436" t="n">
-        <v>3045</v>
-      </c>
+      <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr"/>
       <c r="L436" t="inlineStr">
         <is>
@@ -16434,14 +16522,12 @@
         <v>3039.233333333333</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
       </c>
-      <c r="J437" t="n">
-        <v>3046</v>
-      </c>
+      <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr"/>
       <c r="L437" t="inlineStr">
         <is>
@@ -16475,14 +16561,12 @@
         <v>3038.9</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
       </c>
-      <c r="J438" t="n">
-        <v>3047</v>
-      </c>
+      <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr"/>
       <c r="L438" t="inlineStr">
         <is>
@@ -21953,7 +22037,7 @@
         <v>0</v>
       </c>
       <c r="I579" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr"/>
@@ -21988,7 +22072,7 @@
         <v>0</v>
       </c>
       <c r="I580" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr"/>
@@ -22023,7 +22107,7 @@
         <v>0</v>
       </c>
       <c r="I581" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr"/>
@@ -22058,7 +22142,7 @@
         <v>0</v>
       </c>
       <c r="I582" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr"/>
@@ -22093,7 +22177,7 @@
         <v>0</v>
       </c>
       <c r="I583" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr"/>
@@ -22128,7 +22212,7 @@
         <v>0</v>
       </c>
       <c r="I584" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr"/>
@@ -22163,7 +22247,7 @@
         <v>0</v>
       </c>
       <c r="I585" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr"/>
@@ -23458,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="I622" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr"/>

--- a/BackTest/2019-10-22 BackTest LINK.xlsx
+++ b/BackTest/2019-10-22 BackTest LINK.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -11737,11 +11737,17 @@
         <v>103255.125011363</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I344" t="n">
+        <v>3029</v>
+      </c>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11770,11 +11776,17 @@
         <v>100276.982911363</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>3028</v>
+      </c>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11803,7 +11815,7 @@
         <v>97348.60341136299</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I346" t="n">
         <v>3021</v>
@@ -11811,7 +11823,7 @@
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L346" t="n">
@@ -11842,7 +11854,7 @@
         <v>97989.97041136299</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I347" t="n">
         <v>3020</v>
@@ -11881,7 +11893,7 @@
         <v>98362.13781136299</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I348" t="n">
         <v>3021</v>
@@ -11920,11 +11932,9 @@
         <v>98362.13781136299</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
-      </c>
-      <c r="I349" t="n">
-        <v>3022</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
@@ -11959,7 +11969,7 @@
         <v>104772.133511363</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I350" t="n">
         <v>3022</v>
@@ -11998,9 +12008,11 @@
         <v>104778.133511363</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I351" t="n">
+        <v>3032</v>
+      </c>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
@@ -12035,7 +12047,7 @@
         <v>104917.457811363</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I352" t="n">
         <v>3035</v>
@@ -12370,9 +12382,11 @@
         <v>101439.016311363</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I361" t="n">
+        <v>3015</v>
+      </c>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
@@ -12444,9 +12458,11 @@
         <v>100714.045411363</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I363" t="n">
+        <v>3012</v>
+      </c>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
@@ -12481,9 +12497,11 @@
         <v>106181.828411363</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>3010</v>
+      </c>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
@@ -12518,9 +12536,11 @@
         <v>108671.744811363</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I365" t="n">
+        <v>3015</v>
+      </c>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
@@ -12555,9 +12575,11 @@
         <v>109171.744811363</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I366" t="n">
+        <v>3016</v>
+      </c>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
@@ -12592,9 +12614,11 @@
         <v>109164.220911363</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I367" t="n">
+        <v>3022</v>
+      </c>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
@@ -12629,9 +12653,11 @@
         <v>109791.119111363</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I368" t="n">
+        <v>3020</v>
+      </c>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
@@ -12666,9 +12692,11 @@
         <v>109737.990111363</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I369" t="n">
+        <v>3021</v>
+      </c>
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
@@ -12740,9 +12768,11 @@
         <v>110128.850411363</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I371" t="n">
+        <v>3024</v>
+      </c>
       <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr">
         <is>
@@ -12777,9 +12807,11 @@
         <v>110128.850411363</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I372" t="n">
+        <v>3020</v>
+      </c>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
@@ -12814,9 +12846,11 @@
         <v>110128.850411363</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I373" t="n">
+        <v>3020</v>
+      </c>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
@@ -12851,9 +12885,11 @@
         <v>111351.047911363</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>3020</v>
+      </c>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
@@ -12888,9 +12924,11 @@
         <v>111366.047911363</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>3024</v>
+      </c>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
@@ -13110,9 +13148,11 @@
         <v>111074.222611363</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I381" t="n">
+        <v>3023</v>
+      </c>
       <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
@@ -13184,9 +13224,11 @@
         <v>110012.656811363</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I383" t="n">
+        <v>3020</v>
+      </c>
       <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
@@ -13221,11 +13263,9 @@
         <v>109880.206511363</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
-      </c>
-      <c r="I384" t="n">
-        <v>3020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
@@ -13260,9 +13300,11 @@
         <v>109780.704111363</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I385" t="n">
+        <v>3015</v>
+      </c>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
@@ -13482,7 +13524,7 @@
         <v>110220.172511363</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I391" t="n">
         <v>3013</v>
@@ -13521,7 +13563,7 @@
         <v>109271.927911363</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I392" t="n">
         <v>3024</v>
@@ -13560,7 +13602,7 @@
         <v>109191.379211363</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I393" t="n">
         <v>3021</v>
@@ -13599,7 +13641,7 @@
         <v>109112.885211363</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I394" t="n">
         <v>3017</v>
@@ -13638,9 +13680,11 @@
         <v>109166.818811363</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I395" t="n">
+        <v>3016</v>
+      </c>
       <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
@@ -13675,7 +13719,7 @@
         <v>109022.932111363</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I396" t="n">
         <v>3024</v>
@@ -13714,9 +13758,11 @@
         <v>109739.1644179789</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I397" t="n">
+        <v>3006</v>
+      </c>
       <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
@@ -13751,9 +13797,11 @@
         <v>110003.1893179789</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I398" t="n">
+        <v>3021</v>
+      </c>
       <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
@@ -13788,9 +13836,11 @@
         <v>110029.1125179789</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>3023</v>
+      </c>
       <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
@@ -13825,9 +13875,11 @@
         <v>110024.1125179789</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>3024</v>
+      </c>
       <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
@@ -13862,9 +13914,11 @@
         <v>105493.5766179789</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>3018</v>
+      </c>
       <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
@@ -13899,9 +13953,11 @@
         <v>105569.8766179789</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>2989</v>
+      </c>
       <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
@@ -13936,9 +13992,11 @@
         <v>105590.5537179789</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I403" t="n">
+        <v>3012</v>
+      </c>
       <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
@@ -13973,9 +14031,11 @@
         <v>105582.3784179789</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
-      </c>
-      <c r="I404" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I404" t="n">
+        <v>3016</v>
+      </c>
       <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
@@ -14010,9 +14070,11 @@
         <v>105610.1784179789</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
-      </c>
-      <c r="I405" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I405" t="n">
+        <v>3015</v>
+      </c>
       <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
@@ -14047,9 +14109,11 @@
         <v>110856.4018179789</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
-      </c>
-      <c r="I406" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I406" t="n">
+        <v>3018</v>
+      </c>
       <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
@@ -14084,7 +14148,7 @@
         <v>110880.8837179789</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I407" t="n">
         <v>3019</v>
@@ -14123,7 +14187,7 @@
         <v>111109.4496179789</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I408" t="n">
         <v>3024</v>
@@ -14162,7 +14226,7 @@
         <v>111112.8631179789</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I409" t="n">
         <v>3027</v>
@@ -14201,9 +14265,11 @@
         <v>111884.8831179789</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
-      </c>
-      <c r="I410" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I410" t="n">
+        <v>3028</v>
+      </c>
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
@@ -14238,9 +14304,11 @@
         <v>111695.6727179789</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
-      </c>
-      <c r="I411" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I411" t="n">
+        <v>3043</v>
+      </c>
       <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
@@ -14275,7 +14343,7 @@
         <v>111696.6727179789</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I412" t="n">
         <v>3036</v>
@@ -14314,9 +14382,11 @@
         <v>111696.6727179789</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
-      </c>
-      <c r="I413" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I413" t="n">
+        <v>3044</v>
+      </c>
       <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
@@ -22269,16 +22339,18 @@
         <v>136589.7355362567</v>
       </c>
       <c r="H628" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L628" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L628" t="n">
+        <v>1</v>
+      </c>
       <c r="M628" t="inlineStr"/>
     </row>
     <row r="629">
@@ -22304,11 +22376,15 @@
         <v>144397.8430362567</v>
       </c>
       <c r="H629" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -22337,11 +22413,15 @@
         <v>146298.4157362567</v>
       </c>
       <c r="H630" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -22370,11 +22450,15 @@
         <v>146298.4157362567</v>
       </c>
       <c r="H631" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -22403,11 +22487,15 @@
         <v>149043.9600362567</v>
       </c>
       <c r="H632" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -22436,11 +22524,15 @@
         <v>149038.9600362567</v>
       </c>
       <c r="H633" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -22469,11 +22561,15 @@
         <v>149038.9600362567</v>
       </c>
       <c r="H634" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -22506,7 +22602,11 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -22535,11 +22635,15 @@
         <v>149298.6600362567</v>
       </c>
       <c r="H636" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -22572,7 +22676,11 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -22605,7 +22713,11 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -22638,7 +22750,11 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -22671,7 +22787,11 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -22704,7 +22824,11 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22737,7 +22861,11 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22766,11 +22894,15 @@
         <v>148660.1831843026</v>
       </c>
       <c r="H643" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -22799,11 +22931,15 @@
         <v>148867.5709843026</v>
       </c>
       <c r="H644" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -22836,7 +22972,11 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22869,7 +23009,11 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22902,7 +23046,11 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22935,7 +23083,11 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22968,7 +23120,11 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -23001,7 +23157,11 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -23034,7 +23194,11 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -23067,7 +23231,11 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -23100,7 +23268,11 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -23133,7 +23305,11 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -23166,7 +23342,11 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -23199,7 +23379,11 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -23232,7 +23416,11 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -23265,7 +23453,11 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -23298,7 +23490,11 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -23331,7 +23527,11 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -23364,7 +23564,11 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -23397,7 +23601,11 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -23430,7 +23638,11 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -23463,7 +23675,11 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -23496,7 +23712,11 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -23529,7 +23749,11 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -23562,7 +23786,11 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -23595,7 +23823,11 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -23628,7 +23860,11 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -23661,7 +23897,11 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -23694,7 +23934,11 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -23727,7 +23971,11 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -23760,7 +24008,11 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -23789,14 +24041,16 @@
         <v>168317.7085843025</v>
       </c>
       <c r="H674" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
-      <c r="L674" t="n">
-        <v>1</v>
-      </c>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L674" t="inlineStr"/>
       <c r="M674" t="inlineStr"/>
     </row>
     <row r="675">
@@ -23822,7 +24076,7 @@
         <v>168317.7085843025</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -23855,7 +24109,7 @@
         <v>169232.3102843025</v>
       </c>
       <c r="H676" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -23888,7 +24142,7 @@
         <v>174636.1862843025</v>
       </c>
       <c r="H677" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -23921,7 +24175,7 @@
         <v>175308.2684843025</v>
       </c>
       <c r="H678" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -23954,7 +24208,7 @@
         <v>184174.9678535143</v>
       </c>
       <c r="H679" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -23987,7 +24241,7 @@
         <v>184021.1649535143</v>
       </c>
       <c r="H680" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -24020,7 +24274,7 @@
         <v>196286.2572535143</v>
       </c>
       <c r="H681" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -24053,7 +24307,7 @@
         <v>194925.6535535142</v>
       </c>
       <c r="H682" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -24086,7 +24340,7 @@
         <v>194925.6535535142</v>
       </c>
       <c r="H683" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -24119,7 +24373,7 @@
         <v>194111.5099535142</v>
       </c>
       <c r="H684" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -24152,7 +24406,7 @@
         <v>192945.6519535142</v>
       </c>
       <c r="H685" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -24185,7 +24439,7 @@
         <v>192945.6519535142</v>
       </c>
       <c r="H686" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -24218,7 +24472,7 @@
         <v>192945.6519535142</v>
       </c>
       <c r="H687" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -24251,7 +24505,7 @@
         <v>193844.1773535142</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -24284,7 +24538,7 @@
         <v>192709.0458535143</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -24317,7 +24571,7 @@
         <v>190732.3423535143</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -24350,7 +24604,7 @@
         <v>191043.3842535143</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -24383,7 +24637,7 @@
         <v>196982.9597535143</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -24416,7 +24670,7 @@
         <v>192944.6538535143</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -24449,7 +24703,7 @@
         <v>190754.6087535143</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -24482,7 +24736,7 @@
         <v>188673.8459535143</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -24515,7 +24769,7 @@
         <v>188929.0907535143</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -24548,7 +24802,7 @@
         <v>188368.3195535143</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -24581,7 +24835,7 @@
         <v>188217.1755535143</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -24614,7 +24868,7 @@
         <v>175791.7065535143</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -24647,7 +24901,7 @@
         <v>178375.5904535142</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -24680,7 +24934,7 @@
         <v>183986.9664535142</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -24713,7 +24967,7 @@
         <v>183986.9664535142</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -24746,7 +25000,7 @@
         <v>186891.0234535142</v>
       </c>
       <c r="H703" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -24779,7 +25033,7 @@
         <v>187917.7534535142</v>
       </c>
       <c r="H704" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -24812,7 +25066,7 @@
         <v>188021.8145535142</v>
       </c>
       <c r="H705" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -24845,7 +25099,7 @@
         <v>187973.8145535142</v>
       </c>
       <c r="H706" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -24878,7 +25132,7 @@
         <v>187973.8145535142</v>
       </c>
       <c r="H707" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -24911,7 +25165,7 @@
         <v>186862.2713535142</v>
       </c>
       <c r="H708" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -24944,7 +25198,7 @@
         <v>188317.2215535142</v>
       </c>
       <c r="H709" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -24977,7 +25231,7 @@
         <v>188317.4215535142</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -25175,7 +25429,7 @@
         <v>187499.2600535142</v>
       </c>
       <c r="H716" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -25274,7 +25528,7 @@
         <v>187240.6216535142</v>
       </c>
       <c r="H719" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -25307,7 +25561,7 @@
         <v>187063.5094535142</v>
       </c>
       <c r="H720" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -25340,7 +25594,7 @@
         <v>187919.5492535142</v>
       </c>
       <c r="H721" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -25505,7 +25759,7 @@
         <v>190615.9087535142</v>
       </c>
       <c r="H726" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -25538,7 +25792,7 @@
         <v>190750.4087535142</v>
       </c>
       <c r="H727" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -25604,7 +25858,7 @@
         <v>190792.2279220431</v>
       </c>
       <c r="H729" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -25637,7 +25891,7 @@
         <v>190792.2279220431</v>
       </c>
       <c r="H730" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -25670,7 +25924,7 @@
         <v>190792.3279220431</v>
       </c>
       <c r="H731" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -25703,7 +25957,7 @@
         <v>190387.9741220431</v>
       </c>
       <c r="H732" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -25736,7 +25990,7 @@
         <v>190387.874190572</v>
       </c>
       <c r="H733" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -25769,7 +26023,7 @@
         <v>190175.403690572</v>
       </c>
       <c r="H734" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -25802,7 +26056,7 @@
         <v>190175.403690572</v>
       </c>
       <c r="H735" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -25835,7 +26089,7 @@
         <v>190480.8336905719</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -25868,7 +26122,7 @@
         <v>193069.5821905719</v>
       </c>
       <c r="H737" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -25901,7 +26155,7 @@
         <v>196178.2587905719</v>
       </c>
       <c r="H738" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -25934,7 +26188,7 @@
         <v>194333.3009115596</v>
       </c>
       <c r="H739" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -25967,7 +26221,7 @@
         <v>194333.3009115596</v>
       </c>
       <c r="H740" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -26000,7 +26254,7 @@
         <v>196582.6675115596</v>
       </c>
       <c r="H741" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -26033,7 +26287,7 @@
         <v>196510.6421314546</v>
       </c>
       <c r="H742" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -26066,7 +26320,7 @@
         <v>196510.6421314546</v>
       </c>
       <c r="H743" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -26099,7 +26353,7 @@
         <v>196154.9974314546</v>
       </c>
       <c r="H744" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -26132,7 +26386,7 @@
         <v>195799.7038314546</v>
       </c>
       <c r="H745" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -26165,7 +26419,7 @@
         <v>195157.7038314546</v>
       </c>
       <c r="H746" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -26198,7 +26452,7 @@
         <v>194617.7038314546</v>
       </c>
       <c r="H747" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -26231,7 +26485,7 @@
         <v>194617.7038314546</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -26264,7 +26518,7 @@
         <v>197140.4834314546</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -26297,7 +26551,7 @@
         <v>197542.5506314546</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -26330,7 +26584,7 @@
         <v>193348.1614314546</v>
       </c>
       <c r="H751" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -26396,7 +26650,7 @@
         <v>193018.1614314546</v>
       </c>
       <c r="H753" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -27056,7 +27310,7 @@
         <v>202722.639057535</v>
       </c>
       <c r="H773" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -27155,7 +27409,7 @@
         <v>198791.8253814677</v>
       </c>
       <c r="H776" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -27188,7 +27442,7 @@
         <v>196752.7790814677</v>
       </c>
       <c r="H777" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -27221,7 +27475,7 @@
         <v>195569.4834814677</v>
       </c>
       <c r="H778" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -27485,7 +27739,7 @@
         <v>184805.9126814677</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -27518,7 +27772,7 @@
         <v>184735.9126814677</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -27551,7 +27805,7 @@
         <v>184755.9126814677</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -27584,7 +27838,7 @@
         <v>184737.9126814677</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -27617,7 +27871,7 @@
         <v>184874.9126814677</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -27650,7 +27904,7 @@
         <v>185083.0690814678</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -27683,7 +27937,7 @@
         <v>186165.7094814678</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -27716,7 +27970,7 @@
         <v>186165.7094814678</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -27749,7 +28003,7 @@
         <v>186046.0843814678</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -27782,7 +28036,7 @@
         <v>184516.6160814677</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -27815,7 +28069,7 @@
         <v>184544.1351814677</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -27848,7 +28102,7 @@
         <v>184476.5284814677</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -27881,7 +28135,7 @@
         <v>186048.8753682602</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -28442,7 +28696,7 @@
         <v>186718.7907682602</v>
       </c>
       <c r="H815" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -28475,7 +28729,7 @@
         <v>186695.3907682602</v>
       </c>
       <c r="H816" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -28508,7 +28762,7 @@
         <v>189958.1255682602</v>
       </c>
       <c r="H817" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -28541,7 +28795,7 @@
         <v>191266.6032682602</v>
       </c>
       <c r="H818" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -28574,7 +28828,7 @@
         <v>191244.1230682602</v>
       </c>
       <c r="H819" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -28607,7 +28861,7 @@
         <v>190950.5721049289</v>
       </c>
       <c r="H820" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -28640,7 +28894,7 @@
         <v>190790.5721049289</v>
       </c>
       <c r="H821" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -28673,7 +28927,7 @@
         <v>190864.3810049289</v>
       </c>
       <c r="H822" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -28706,7 +28960,7 @@
         <v>190849.2810049289</v>
       </c>
       <c r="H823" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -28739,7 +28993,7 @@
         <v>188183.3341049289</v>
       </c>
       <c r="H824" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -28772,7 +29026,7 @@
         <v>188168.3341049289</v>
       </c>
       <c r="H825" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -28805,7 +29059,7 @@
         <v>187052.3397049289</v>
       </c>
       <c r="H826" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -28838,7 +29092,7 @@
         <v>186698.6308049289</v>
       </c>
       <c r="H827" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -28871,7 +29125,7 @@
         <v>186699.6308049289</v>
       </c>
       <c r="H828" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -28904,7 +29158,7 @@
         <v>186431.2188049289</v>
       </c>
       <c r="H829" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -28937,7 +29191,7 @@
         <v>185931.2188049289</v>
       </c>
       <c r="H830" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -28970,7 +29224,7 @@
         <v>185948.2188049289</v>
       </c>
       <c r="H831" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -29003,7 +29257,7 @@
         <v>185761.0188049289</v>
       </c>
       <c r="H832" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -29036,7 +29290,7 @@
         <v>185761.0188049289</v>
       </c>
       <c r="H833" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -29069,7 +29323,7 @@
         <v>185738.0027049289</v>
       </c>
       <c r="H834" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -29102,7 +29356,7 @@
         <v>185738.0027049289</v>
       </c>
       <c r="H835" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -29135,7 +29389,7 @@
         <v>186148.2730049289</v>
       </c>
       <c r="H836" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -29168,7 +29422,7 @@
         <v>185660.7024049289</v>
       </c>
       <c r="H837" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -29201,7 +29455,7 @@
         <v>185661.7024049289</v>
       </c>
       <c r="H838" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -29234,7 +29488,7 @@
         <v>185696.6283676832</v>
       </c>
       <c r="H839" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -29267,7 +29521,7 @@
         <v>185695.6283676832</v>
       </c>
       <c r="H840" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -29300,7 +29554,7 @@
         <v>185645.6283676832</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -29333,7 +29587,7 @@
         <v>185288.2028676831</v>
       </c>
       <c r="H842" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -29366,7 +29620,7 @@
         <v>186008.2028676831</v>
       </c>
       <c r="H843" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -29399,7 +29653,7 @@
         <v>183370.7958676831</v>
       </c>
       <c r="H844" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -29432,7 +29686,7 @@
         <v>183270.7958676831</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -29839,6 +30093,6 @@
       <c r="M857" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-22 BackTest LINK.xlsx
+++ b/BackTest/2019-10-22 BackTest LINK.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -814,7 +814,7 @@
         <v>38338.3168030318</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>38338.3168030318</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>38518.0989030318</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>36676.1681030318</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>36733.2664030318</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>36823.17080691124</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>42208.49407262736</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>43125.07730691125</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>46802.00020691125</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>48443.06360691124</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>59750.22264947795</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>57466.70926373657</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>54644.89586373657</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>54644.89586373657</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>55630.19256373657</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>74238.75406373656</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>74238.75406373656</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>74238.75406373656</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>74238.75406373656</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>73136.59776373656</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>73136.59776373656</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>72241.67716373656</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>83999.84386373656</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>82526.87856373657</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>82526.87856373657</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>86153.12306373657</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>83700.24066373656</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>83700.24066373656</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>83700.24066373656</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3916,11 +3916,17 @@
         <v>76493.08599186561</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>3058</v>
+      </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3949,11 +3955,17 @@
         <v>79446.6118918656</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>3057</v>
+      </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3986,7 +3998,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4019,7 +4035,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4052,7 +4072,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4081,11 +4105,17 @@
         <v>78328.0499918656</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>3065</v>
+      </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4118,7 +4148,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4151,7 +4185,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4180,11 +4218,17 @@
         <v>79025.16729186561</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>3067</v>
+      </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4213,11 +4257,17 @@
         <v>81416.21389186561</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>3069</v>
+      </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4250,7 +4300,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4283,7 +4337,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4316,7 +4374,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4349,7 +4411,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4382,7 +4448,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4415,7 +4485,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4448,7 +4522,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4481,7 +4559,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4514,7 +4596,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4547,7 +4633,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4580,7 +4670,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4613,7 +4707,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4646,7 +4744,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4679,7 +4781,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4712,7 +4818,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4745,7 +4855,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4778,7 +4892,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4811,7 +4929,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4844,7 +4966,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4877,7 +5003,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4910,7 +5040,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4943,7 +5077,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4976,7 +5114,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5009,7 +5151,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5042,7 +5188,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5075,7 +5225,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5108,7 +5262,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5141,7 +5299,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5174,7 +5336,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5207,7 +5373,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5240,7 +5410,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5273,7 +5447,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5306,7 +5484,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5339,7 +5521,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5372,7 +5558,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5405,7 +5595,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5438,7 +5632,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5471,7 +5669,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5504,7 +5706,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5537,7 +5743,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5570,7 +5780,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5603,7 +5817,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5636,7 +5854,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5669,7 +5891,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5702,7 +5928,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5735,7 +5965,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5768,7 +6002,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5801,7 +6039,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5834,7 +6076,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5867,7 +6113,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5900,7 +6150,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5933,7 +6187,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5966,7 +6224,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5999,7 +6261,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6032,7 +6298,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6065,7 +6335,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6098,7 +6372,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6131,7 +6409,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6164,7 +6446,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6197,7 +6483,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6230,7 +6520,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6263,7 +6557,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6296,7 +6594,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6329,7 +6631,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6362,7 +6668,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6395,7 +6705,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6428,7 +6742,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6461,7 +6779,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6494,7 +6816,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6527,7 +6853,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6560,7 +6890,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6593,7 +6927,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6626,7 +6964,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6659,7 +7001,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6692,7 +7038,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6725,7 +7075,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6758,7 +7112,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6791,7 +7149,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6824,7 +7186,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6857,7 +7223,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6890,7 +7260,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6923,7 +7297,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6956,7 +7334,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -6989,7 +7371,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7022,7 +7408,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7055,7 +7445,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7088,7 +7482,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7121,7 +7519,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7154,7 +7556,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7187,7 +7593,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7220,7 +7630,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7253,7 +7667,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7286,7 +7704,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7319,7 +7741,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7352,7 +7778,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7385,7 +7815,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7418,7 +7852,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7451,7 +7889,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7484,7 +7926,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7517,7 +7963,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7550,7 +8000,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7583,7 +8037,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7616,7 +8074,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7649,7 +8111,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7682,7 +8148,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7715,7 +8185,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7748,7 +8222,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7781,7 +8259,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7814,7 +8296,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7847,7 +8333,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7880,7 +8370,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7913,7 +8407,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7946,7 +8444,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7979,7 +8481,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8012,7 +8518,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8045,7 +8555,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8078,7 +8592,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8111,7 +8629,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8144,7 +8666,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8177,7 +8703,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8210,7 +8740,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8243,7 +8777,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8276,7 +8814,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8309,7 +8851,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8342,7 +8888,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8375,7 +8925,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8408,7 +8962,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8441,7 +8999,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8474,7 +9036,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8507,7 +9073,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8540,7 +9110,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8573,7 +9147,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8602,14 +9180,16 @@
         <v>100813.183211363</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L249" t="inlineStr"/>
       <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
@@ -8635,7 +9215,7 @@
         <v>100715.983211363</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -10087,11 +10667,17 @@
         <v>77308.22541136299</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>3044</v>
+      </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10120,11 +10706,17 @@
         <v>77308.22541136299</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>3039</v>
+      </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10153,11 +10745,17 @@
         <v>77331.77901136299</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>3039</v>
+      </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10186,11 +10784,17 @@
         <v>77331.77901136299</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>3052</v>
+      </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10219,11 +10823,17 @@
         <v>76432.27281136299</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>3052</v>
+      </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10252,11 +10862,17 @@
         <v>76964.75811136299</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>3037</v>
+      </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10285,11 +10901,17 @@
         <v>76907.45811136298</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>3050</v>
+      </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10318,11 +10940,17 @@
         <v>76907.45811136298</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>3048</v>
+      </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10351,11 +10979,17 @@
         <v>76907.45811136298</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>3048</v>
+      </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10384,11 +11018,17 @@
         <v>74246.90691136298</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>3048</v>
+      </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10417,11 +11057,17 @@
         <v>73176.05491136298</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>3037</v>
+      </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10450,11 +11096,17 @@
         <v>73376.35491136299</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>3036</v>
+      </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10483,11 +11135,17 @@
         <v>73627.76931136298</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>3046</v>
+      </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10516,11 +11174,17 @@
         <v>74950.05961136297</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>3048</v>
+      </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10549,11 +11213,17 @@
         <v>74798.00221136297</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>3059</v>
+      </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10582,11 +11252,17 @@
         <v>74967.56101136297</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>3052</v>
+      </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10619,7 +11295,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10652,7 +11332,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10685,7 +11369,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10718,7 +11406,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10751,7 +11443,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10784,7 +11480,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10817,7 +11517,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10850,7 +11554,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -10883,7 +11591,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -10916,7 +11628,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -10949,7 +11665,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -10982,7 +11702,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11015,7 +11739,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11044,11 +11772,17 @@
         <v>72177.40321136297</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I323" t="n">
+        <v>3037</v>
+      </c>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11077,11 +11811,17 @@
         <v>73485.46051136297</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
+        <v>3037</v>
+      </c>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11110,11 +11850,17 @@
         <v>73667.66051136296</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I325" t="n">
+        <v>3038</v>
+      </c>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11143,11 +11889,17 @@
         <v>72856.54321136296</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>3051</v>
+      </c>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11176,11 +11928,17 @@
         <v>71611.14281136297</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I327" t="n">
+        <v>3040</v>
+      </c>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11209,11 +11967,17 @@
         <v>69819.21391136297</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I328" t="n">
+        <v>3037</v>
+      </c>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11242,11 +12006,17 @@
         <v>69819.21391136297</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>3029</v>
+      </c>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11275,11 +12045,17 @@
         <v>69983.26721136297</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>3029</v>
+      </c>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11308,11 +12084,17 @@
         <v>69762.51321136297</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I331" t="n">
+        <v>3037</v>
+      </c>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11341,11 +12123,17 @@
         <v>69709.51331136297</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I332" t="n">
+        <v>3028</v>
+      </c>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11374,11 +12162,17 @@
         <v>69709.51331136297</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I333" t="n">
+        <v>3027</v>
+      </c>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11407,11 +12201,17 @@
         <v>69463.91331136297</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I334" t="n">
+        <v>3027</v>
+      </c>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11440,11 +12240,17 @@
         <v>69463.91331136297</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>3025</v>
+      </c>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11473,11 +12279,17 @@
         <v>105694.097211363</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>3025</v>
+      </c>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11510,7 +12322,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11543,7 +12359,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11572,11 +12392,17 @@
         <v>102787.587311363</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>3020</v>
+      </c>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11609,7 +12435,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11642,7 +12472,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11675,7 +12509,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11708,7 +12546,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11737,15 +12579,13 @@
         <v>103255.125011363</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
-      </c>
-      <c r="I344" t="n">
-        <v>3029</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L344" t="n">
@@ -11776,11 +12616,9 @@
         <v>100276.982911363</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
-      </c>
-      <c r="I345" t="n">
-        <v>3028</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
@@ -11815,11 +12653,9 @@
         <v>97348.60341136299</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
-      </c>
-      <c r="I346" t="n">
-        <v>3021</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
@@ -11854,11 +12690,9 @@
         <v>97989.97041136299</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
-      </c>
-      <c r="I347" t="n">
-        <v>3020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
@@ -11893,11 +12727,9 @@
         <v>98362.13781136299</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
-      </c>
-      <c r="I348" t="n">
-        <v>3021</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
@@ -11969,11 +12801,9 @@
         <v>104772.133511363</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
-      </c>
-      <c r="I350" t="n">
-        <v>3022</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
@@ -12008,11 +12838,9 @@
         <v>104778.133511363</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
-      </c>
-      <c r="I351" t="n">
-        <v>3032</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
@@ -12047,11 +12875,9 @@
         <v>104917.457811363</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
-      </c>
-      <c r="I352" t="n">
-        <v>3035</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
@@ -12382,11 +13208,9 @@
         <v>101439.016311363</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
-      </c>
-      <c r="I361" t="n">
-        <v>3015</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
@@ -12458,11 +13282,9 @@
         <v>100714.045411363</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
-      </c>
-      <c r="I363" t="n">
-        <v>3012</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
@@ -12497,11 +13319,9 @@
         <v>106181.828411363</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
-      </c>
-      <c r="I364" t="n">
-        <v>3010</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
@@ -12536,11 +13356,9 @@
         <v>108671.744811363</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
-      </c>
-      <c r="I365" t="n">
-        <v>3015</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
@@ -12575,11 +13393,9 @@
         <v>109171.744811363</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
-      </c>
-      <c r="I366" t="n">
-        <v>3016</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
@@ -12614,11 +13430,9 @@
         <v>109164.220911363</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
-      </c>
-      <c r="I367" t="n">
-        <v>3022</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
@@ -12653,11 +13467,9 @@
         <v>109791.119111363</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
-      </c>
-      <c r="I368" t="n">
-        <v>3020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
@@ -12692,11 +13504,9 @@
         <v>109737.990111363</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
-      </c>
-      <c r="I369" t="n">
-        <v>3021</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
@@ -12768,11 +13578,9 @@
         <v>110128.850411363</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
-      </c>
-      <c r="I371" t="n">
-        <v>3024</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr">
         <is>
@@ -12807,11 +13615,9 @@
         <v>110128.850411363</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
-      </c>
-      <c r="I372" t="n">
-        <v>3020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
@@ -12846,11 +13652,9 @@
         <v>110128.850411363</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
-      </c>
-      <c r="I373" t="n">
-        <v>3020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
@@ -12885,11 +13689,9 @@
         <v>111351.047911363</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
-      </c>
-      <c r="I374" t="n">
-        <v>3020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
@@ -12924,11 +13726,9 @@
         <v>111366.047911363</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
-      </c>
-      <c r="I375" t="n">
-        <v>3024</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
@@ -13148,11 +13948,9 @@
         <v>111074.222611363</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
-      </c>
-      <c r="I381" t="n">
-        <v>3023</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
@@ -13224,11 +14022,9 @@
         <v>110012.656811363</v>
       </c>
       <c r="H383" t="n">
-        <v>1</v>
-      </c>
-      <c r="I383" t="n">
-        <v>3020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
@@ -13300,11 +14096,9 @@
         <v>109780.704111363</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
-      </c>
-      <c r="I385" t="n">
-        <v>3015</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
@@ -13524,11 +14318,9 @@
         <v>110220.172511363</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
-      </c>
-      <c r="I391" t="n">
-        <v>3013</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
@@ -13563,11 +14355,9 @@
         <v>109271.927911363</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
-      </c>
-      <c r="I392" t="n">
-        <v>3024</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
@@ -13602,11 +14392,9 @@
         <v>109191.379211363</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
-      </c>
-      <c r="I393" t="n">
-        <v>3021</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
@@ -13641,11 +14429,9 @@
         <v>109112.885211363</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
-      </c>
-      <c r="I394" t="n">
-        <v>3017</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
@@ -13680,11 +14466,9 @@
         <v>109166.818811363</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
-      </c>
-      <c r="I395" t="n">
-        <v>3016</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
@@ -13719,11 +14503,9 @@
         <v>109022.932111363</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
-      </c>
-      <c r="I396" t="n">
-        <v>3024</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
@@ -13758,11 +14540,9 @@
         <v>109739.1644179789</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
-      </c>
-      <c r="I397" t="n">
-        <v>3006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
@@ -13797,11 +14577,9 @@
         <v>110003.1893179789</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
-      </c>
-      <c r="I398" t="n">
-        <v>3021</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
@@ -13836,11 +14614,9 @@
         <v>110029.1125179789</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
-      </c>
-      <c r="I399" t="n">
-        <v>3023</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
@@ -13875,11 +14651,9 @@
         <v>110024.1125179789</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
-      </c>
-      <c r="I400" t="n">
-        <v>3024</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
@@ -13914,11 +14688,9 @@
         <v>105493.5766179789</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
-      </c>
-      <c r="I401" t="n">
-        <v>3018</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
@@ -13953,11 +14725,9 @@
         <v>105569.8766179789</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
-      </c>
-      <c r="I402" t="n">
-        <v>2989</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
@@ -13992,11 +14762,9 @@
         <v>105590.5537179789</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
-      </c>
-      <c r="I403" t="n">
-        <v>3012</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
@@ -14031,11 +14799,9 @@
         <v>105582.3784179789</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
-      </c>
-      <c r="I404" t="n">
-        <v>3016</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
@@ -14070,11 +14836,9 @@
         <v>105610.1784179789</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
-      </c>
-      <c r="I405" t="n">
-        <v>3015</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
@@ -14109,11 +14873,9 @@
         <v>110856.4018179789</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
-      </c>
-      <c r="I406" t="n">
-        <v>3018</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
@@ -14148,11 +14910,9 @@
         <v>110880.8837179789</v>
       </c>
       <c r="H407" t="n">
-        <v>1</v>
-      </c>
-      <c r="I407" t="n">
-        <v>3019</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
@@ -14187,11 +14947,9 @@
         <v>111109.4496179789</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
-      </c>
-      <c r="I408" t="n">
-        <v>3024</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
@@ -14226,11 +14984,9 @@
         <v>111112.8631179789</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
-      </c>
-      <c r="I409" t="n">
-        <v>3027</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
@@ -14265,11 +15021,9 @@
         <v>111884.8831179789</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
-      </c>
-      <c r="I410" t="n">
-        <v>3028</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
@@ -14304,11 +15058,9 @@
         <v>111695.6727179789</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
-      </c>
-      <c r="I411" t="n">
-        <v>3043</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
@@ -14343,11 +15095,9 @@
         <v>111696.6727179789</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
-      </c>
-      <c r="I412" t="n">
-        <v>3036</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
@@ -14382,11 +15132,9 @@
         <v>111696.6727179789</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
-      </c>
-      <c r="I413" t="n">
-        <v>3044</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
@@ -18639,18 +19387,16 @@
         <v>122837.0222615117</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L528" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L528" t="inlineStr"/>
       <c r="M528" t="inlineStr"/>
     </row>
     <row r="529">
@@ -18676,15 +19422,11 @@
         <v>123671.1730615117</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18713,15 +19455,11 @@
         <v>122465.4276615117</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18750,15 +19488,11 @@
         <v>124058.6585615117</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18787,15 +19521,11 @@
         <v>123862.0481615117</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18824,15 +19554,11 @@
         <v>123559.7803615117</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18861,15 +19587,11 @@
         <v>123573.1803615117</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18898,15 +19620,11 @@
         <v>123943.8531008043</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18935,15 +19653,11 @@
         <v>124053.3531008043</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18972,15 +19686,11 @@
         <v>122670.1094008043</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -19009,15 +19719,11 @@
         <v>122962.5599008043</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -19046,15 +19752,11 @@
         <v>122926.9165008043</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -19083,15 +19785,11 @@
         <v>122588.7099008043</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -19120,15 +19818,11 @@
         <v>123527.907258848</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -19157,15 +19851,11 @@
         <v>122653.117858848</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -19194,15 +19884,11 @@
         <v>122653.117858848</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -19231,15 +19917,11 @@
         <v>122606.117858848</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -19268,15 +19950,11 @@
         <v>122594.117858848</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -19305,15 +19983,11 @@
         <v>122487.117858848</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -19342,15 +20016,11 @@
         <v>120270.986858848</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -19379,15 +20049,11 @@
         <v>120768.986858848</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -19416,15 +20082,11 @@
         <v>120768.986858848</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -19453,15 +20115,11 @@
         <v>120653.659058848</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -19490,15 +20148,11 @@
         <v>120653.659058848</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -19527,15 +20181,11 @@
         <v>120065.125058848</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19568,11 +20218,7 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19605,11 +20251,7 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19642,11 +20284,7 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19679,11 +20317,7 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19716,11 +20350,7 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19753,11 +20383,7 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19790,11 +20416,7 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19827,11 +20449,7 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19864,11 +20482,7 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19901,11 +20515,7 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19938,11 +20548,7 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19975,11 +20581,7 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -20012,11 +20614,7 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -20049,11 +20647,7 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -20086,11 +20680,7 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -20123,11 +20713,7 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -20160,11 +20746,7 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -20197,11 +20779,7 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -20234,11 +20812,7 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -20271,11 +20845,7 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -20308,11 +20878,7 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -20345,11 +20911,7 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -20382,11 +20944,7 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -20419,11 +20977,7 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -20456,11 +21010,7 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -20493,11 +21043,7 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -20530,11 +21076,7 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20567,11 +21109,7 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20604,11 +21142,7 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20641,11 +21175,7 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20678,11 +21208,7 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20715,11 +21241,7 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20752,11 +21274,7 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20789,11 +21307,7 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20826,11 +21340,7 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20863,11 +21373,7 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20900,11 +21406,7 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20937,11 +21439,7 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20974,11 +21472,7 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -21011,11 +21505,7 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -21048,11 +21538,7 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -21085,11 +21571,7 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -21122,11 +21604,7 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -21159,11 +21637,7 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -21196,11 +21670,7 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -21233,11 +21703,7 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -21270,11 +21736,7 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -21307,11 +21769,7 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -21344,11 +21802,7 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -21381,11 +21835,7 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -21418,11 +21868,7 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -21455,11 +21901,7 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -21492,11 +21934,7 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -21529,11 +21967,7 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -21566,11 +22000,7 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -21603,11 +22033,7 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -21640,11 +22066,7 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -21673,15 +22095,11 @@
         <v>123899.4913083644</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -21710,15 +22128,11 @@
         <v>123362.1408083644</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -21747,15 +22161,11 @@
         <v>123362.1408083644</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21784,15 +22194,11 @@
         <v>122638.5079083645</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21821,15 +22227,11 @@
         <v>122643.5079083645</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21862,11 +22264,7 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21899,11 +22297,7 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21936,11 +22330,7 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21969,15 +22359,11 @@
         <v>122647.4065083645</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -22006,15 +22392,11 @@
         <v>122558.0691083644</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -22043,15 +22425,11 @@
         <v>122642.3774083645</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -22084,11 +22462,7 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -22121,11 +22495,7 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -22158,11 +22528,7 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -22191,15 +22557,11 @@
         <v>126903.6180083644</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -22228,15 +22590,11 @@
         <v>126903.6180083644</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -22265,15 +22623,11 @@
         <v>127546.5991083644</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -22302,15 +22656,11 @@
         <v>127205.4295362567</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -22339,15 +22689,11 @@
         <v>136589.7355362567</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -22376,15 +22722,11 @@
         <v>144397.8430362567</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -22413,15 +22755,11 @@
         <v>146298.4157362567</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -22450,15 +22788,11 @@
         <v>146298.4157362567</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -22487,15 +22821,11 @@
         <v>149043.9600362567</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -22524,15 +22854,11 @@
         <v>149038.9600362567</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -22561,15 +22887,11 @@
         <v>149038.9600362567</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -22598,15 +22920,11 @@
         <v>149298.6600362567</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -22635,15 +22953,11 @@
         <v>149298.6600362567</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K636" t="inlineStr"/>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -22672,15 +22986,11 @@
         <v>149627.6798362567</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -22709,15 +23019,11 @@
         <v>150183.3640362567</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -22746,15 +23052,11 @@
         <v>148996.8152362567</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -22787,11 +23089,7 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -22824,11 +23122,7 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22861,11 +23155,7 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22898,11 +23188,7 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -22935,11 +23221,7 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K644" t="inlineStr"/>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -22972,11 +23254,7 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K645" t="inlineStr"/>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -23009,11 +23287,7 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -23046,11 +23320,7 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -23083,11 +23353,7 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -23120,11 +23386,7 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -23157,11 +23419,7 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -23194,11 +23452,7 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -23231,11 +23485,7 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -23268,11 +23518,7 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K653" t="inlineStr"/>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -23305,11 +23551,7 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K654" t="inlineStr"/>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -23342,11 +23584,7 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -23379,11 +23617,7 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -23416,11 +23650,7 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -23453,11 +23683,7 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -23490,11 +23716,7 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -23527,11 +23749,7 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -23564,11 +23782,7 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K661" t="inlineStr"/>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -23601,11 +23815,7 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -23638,11 +23848,7 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -23675,11 +23881,7 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -23712,11 +23914,7 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -23749,11 +23947,7 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -23786,11 +23980,7 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -23823,11 +24013,7 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -23860,11 +24046,7 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -23897,11 +24079,7 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -23934,11 +24112,7 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -23971,11 +24145,7 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -24008,11 +24178,7 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -24041,16 +24207,14 @@
         <v>168317.7085843025</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L674" t="inlineStr"/>
+      <c r="K674" t="inlineStr"/>
+      <c r="L674" t="n">
+        <v>1</v>
+      </c>
       <c r="M674" t="inlineStr"/>
     </row>
     <row r="675">
@@ -24076,7 +24240,7 @@
         <v>168317.7085843025</v>
       </c>
       <c r="H675" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -24109,7 +24273,7 @@
         <v>169232.3102843025</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -24142,7 +24306,7 @@
         <v>174636.1862843025</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -24175,7 +24339,7 @@
         <v>175308.2684843025</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -24208,7 +24372,7 @@
         <v>184174.9678535143</v>
       </c>
       <c r="H679" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -24241,7 +24405,7 @@
         <v>184021.1649535143</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -24274,7 +24438,7 @@
         <v>196286.2572535143</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -24307,7 +24471,7 @@
         <v>194925.6535535142</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -24340,7 +24504,7 @@
         <v>194925.6535535142</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -24373,7 +24537,7 @@
         <v>194111.5099535142</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -24406,7 +24570,7 @@
         <v>192945.6519535142</v>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -24439,7 +24603,7 @@
         <v>192945.6519535142</v>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -24472,7 +24636,7 @@
         <v>192945.6519535142</v>
       </c>
       <c r="H687" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -24505,7 +24669,7 @@
         <v>193844.1773535142</v>
       </c>
       <c r="H688" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -24538,7 +24702,7 @@
         <v>192709.0458535143</v>
       </c>
       <c r="H689" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -24571,7 +24735,7 @@
         <v>190732.3423535143</v>
       </c>
       <c r="H690" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -24604,7 +24768,7 @@
         <v>191043.3842535143</v>
       </c>
       <c r="H691" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -24637,7 +24801,7 @@
         <v>196982.9597535143</v>
       </c>
       <c r="H692" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -24670,7 +24834,7 @@
         <v>192944.6538535143</v>
       </c>
       <c r="H693" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -24703,7 +24867,7 @@
         <v>190754.6087535143</v>
       </c>
       <c r="H694" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -24736,7 +24900,7 @@
         <v>188673.8459535143</v>
       </c>
       <c r="H695" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -24769,7 +24933,7 @@
         <v>188929.0907535143</v>
       </c>
       <c r="H696" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -24802,7 +24966,7 @@
         <v>188368.3195535143</v>
       </c>
       <c r="H697" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -24835,7 +24999,7 @@
         <v>188217.1755535143</v>
       </c>
       <c r="H698" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -24868,7 +25032,7 @@
         <v>175791.7065535143</v>
       </c>
       <c r="H699" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -24901,7 +25065,7 @@
         <v>178375.5904535142</v>
       </c>
       <c r="H700" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -24934,7 +25098,7 @@
         <v>183986.9664535142</v>
       </c>
       <c r="H701" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -24967,7 +25131,7 @@
         <v>183986.9664535142</v>
       </c>
       <c r="H702" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -25000,7 +25164,7 @@
         <v>186891.0234535142</v>
       </c>
       <c r="H703" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -25033,7 +25197,7 @@
         <v>187917.7534535142</v>
       </c>
       <c r="H704" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -25066,7 +25230,7 @@
         <v>188021.8145535142</v>
       </c>
       <c r="H705" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -25099,7 +25263,7 @@
         <v>187973.8145535142</v>
       </c>
       <c r="H706" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -25132,7 +25296,7 @@
         <v>187973.8145535142</v>
       </c>
       <c r="H707" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -25165,7 +25329,7 @@
         <v>186862.2713535142</v>
       </c>
       <c r="H708" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -25231,7 +25395,7 @@
         <v>188317.4215535142</v>
       </c>
       <c r="H710" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -26056,7 +26220,7 @@
         <v>190175.403690572</v>
       </c>
       <c r="H735" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -26089,7 +26253,7 @@
         <v>190480.8336905719</v>
       </c>
       <c r="H736" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -26122,7 +26286,7 @@
         <v>193069.5821905719</v>
       </c>
       <c r="H737" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -26155,7 +26319,7 @@
         <v>196178.2587905719</v>
       </c>
       <c r="H738" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -26188,7 +26352,7 @@
         <v>194333.3009115596</v>
       </c>
       <c r="H739" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -26221,7 +26385,7 @@
         <v>194333.3009115596</v>
       </c>
       <c r="H740" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -26254,7 +26418,7 @@
         <v>196582.6675115596</v>
       </c>
       <c r="H741" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -26287,7 +26451,7 @@
         <v>196510.6421314546</v>
       </c>
       <c r="H742" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -26320,7 +26484,7 @@
         <v>196510.6421314546</v>
       </c>
       <c r="H743" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -26353,7 +26517,7 @@
         <v>196154.9974314546</v>
       </c>
       <c r="H744" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -26386,7 +26550,7 @@
         <v>195799.7038314546</v>
       </c>
       <c r="H745" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -26419,7 +26583,7 @@
         <v>195157.7038314546</v>
       </c>
       <c r="H746" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -26452,7 +26616,7 @@
         <v>194617.7038314546</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -26485,7 +26649,7 @@
         <v>194617.7038314546</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -26518,7 +26682,7 @@
         <v>197140.4834314546</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -26551,7 +26715,7 @@
         <v>197542.5506314546</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -26584,7 +26748,7 @@
         <v>193348.1614314546</v>
       </c>
       <c r="H751" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -27739,7 +27903,7 @@
         <v>184805.9126814677</v>
       </c>
       <c r="H786" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -27772,7 +27936,7 @@
         <v>184735.9126814677</v>
       </c>
       <c r="H787" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -27805,7 +27969,7 @@
         <v>184755.9126814677</v>
       </c>
       <c r="H788" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -27838,7 +28002,7 @@
         <v>184737.9126814677</v>
       </c>
       <c r="H789" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -27871,7 +28035,7 @@
         <v>184874.9126814677</v>
       </c>
       <c r="H790" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -27904,7 +28068,7 @@
         <v>185083.0690814678</v>
       </c>
       <c r="H791" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -27937,7 +28101,7 @@
         <v>186165.7094814678</v>
       </c>
       <c r="H792" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -27970,7 +28134,7 @@
         <v>186165.7094814678</v>
       </c>
       <c r="H793" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -28003,7 +28167,7 @@
         <v>186046.0843814678</v>
       </c>
       <c r="H794" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -28036,7 +28200,7 @@
         <v>184516.6160814677</v>
       </c>
       <c r="H795" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -28069,7 +28233,7 @@
         <v>184544.1351814677</v>
       </c>
       <c r="H796" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -28102,7 +28266,7 @@
         <v>184476.5284814677</v>
       </c>
       <c r="H797" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -28135,7 +28299,7 @@
         <v>186048.8753682602</v>
       </c>
       <c r="H798" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -29191,7 +29355,7 @@
         <v>185931.2188049289</v>
       </c>
       <c r="H830" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -29224,7 +29388,7 @@
         <v>185948.2188049289</v>
       </c>
       <c r="H831" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -29257,7 +29421,7 @@
         <v>185761.0188049289</v>
       </c>
       <c r="H832" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -29290,7 +29454,7 @@
         <v>185761.0188049289</v>
       </c>
       <c r="H833" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -29323,7 +29487,7 @@
         <v>185738.0027049289</v>
       </c>
       <c r="H834" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -29356,7 +29520,7 @@
         <v>185738.0027049289</v>
       </c>
       <c r="H835" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -29389,7 +29553,7 @@
         <v>186148.2730049289</v>
       </c>
       <c r="H836" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -29422,7 +29586,7 @@
         <v>185660.7024049289</v>
       </c>
       <c r="H837" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -29455,7 +29619,7 @@
         <v>185661.7024049289</v>
       </c>
       <c r="H838" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -29488,7 +29652,7 @@
         <v>185696.6283676832</v>
       </c>
       <c r="H839" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -29521,7 +29685,7 @@
         <v>185695.6283676832</v>
       </c>
       <c r="H840" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -29554,7 +29718,7 @@
         <v>185645.6283676832</v>
       </c>
       <c r="H841" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -29587,7 +29751,7 @@
         <v>185288.2028676831</v>
       </c>
       <c r="H842" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -29620,7 +29784,7 @@
         <v>186008.2028676831</v>
       </c>
       <c r="H843" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -29653,7 +29817,7 @@
         <v>183370.7958676831</v>
       </c>
       <c r="H844" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -29686,7 +29850,7 @@
         <v>183270.7958676831</v>
       </c>
       <c r="H845" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -30093,6 +30257,6 @@
       <c r="M857" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-22 BackTest LINK.xlsx
+++ b/BackTest/2019-10-22 BackTest LINK.xlsx
@@ -451,7 +451,7 @@
         <v>37220.9018576243</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>35861.06518032806</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3100</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -517,11 +523,17 @@
         <v>35664.97128032806</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3092</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,17 @@
         <v>36146.70090303181</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3086</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +601,17 @@
         <v>37405.5285030318</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3092</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +640,17 @@
         <v>37405.5285030318</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3100</v>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +679,17 @@
         <v>36700.16260303181</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3100</v>
+      </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +718,17 @@
         <v>36700.16260303181</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3099</v>
+      </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +757,17 @@
         <v>37231.78870303181</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3099</v>
+      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +796,17 @@
         <v>37231.78870303181</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3100</v>
+      </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +835,17 @@
         <v>38178.93770303181</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3100</v>
+      </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +874,17 @@
         <v>38338.3168030318</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3118</v>
+      </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +913,17 @@
         <v>38338.3168030318</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3120</v>
+      </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +952,17 @@
         <v>38518.0989030318</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3120</v>
+      </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +991,17 @@
         <v>36676.1681030318</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3122</v>
+      </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1030,17 @@
         <v>36733.2664030318</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3107</v>
+      </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1069,17 @@
         <v>36823.17080691124</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3118</v>
+      </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1108,17 @@
         <v>42208.49407262736</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3119</v>
+      </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1147,17 @@
         <v>43125.07730691125</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3121</v>
+      </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1186,17 @@
         <v>46802.00020691125</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3126</v>
+      </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1225,17 @@
         <v>48443.06360691124</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3137</v>
+      </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1264,17 @@
         <v>59750.22264947795</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>3140</v>
+      </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1303,17 @@
         <v>57466.70926373657</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3150</v>
+      </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1342,17 @@
         <v>54644.89586373657</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3147</v>
+      </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1381,17 @@
         <v>54644.89586373657</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3140</v>
+      </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1420,17 @@
         <v>55630.19256373657</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3140</v>
+      </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1313,7 +1463,11 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1346,7 +1500,11 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1379,7 +1537,11 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1412,7 +1574,11 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1607,17 @@
         <v>55004.09686373657</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3159</v>
+      </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1646,17 @@
         <v>53971.75526373657</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3153</v>
+      </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1685,17 @@
         <v>53178.38126373657</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>3136</v>
+      </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1544,7 +1728,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1761,17 @@
         <v>53466.83576373657</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>3112</v>
+      </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,11 +1800,17 @@
         <v>56642.36916373657</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>3121</v>
+      </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1839,17 @@
         <v>56642.36916373657</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>3126</v>
+      </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1676,7 +1882,11 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1709,7 +1919,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1742,7 +1956,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1775,7 +1993,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1808,7 +2030,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1841,7 +2067,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1874,7 +2104,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1907,7 +2141,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1940,7 +2178,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1973,7 +2215,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2006,7 +2252,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2039,7 +2289,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2072,7 +2326,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2105,7 +2363,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2134,11 +2396,15 @@
         <v>74238.75406373656</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2167,11 +2433,15 @@
         <v>74238.75406373656</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2200,11 +2470,15 @@
         <v>74238.75406373656</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2233,11 +2507,15 @@
         <v>74238.75406373656</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2266,11 +2544,15 @@
         <v>73136.59776373656</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2299,11 +2581,15 @@
         <v>73136.59776373656</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2332,11 +2618,15 @@
         <v>72241.67716373656</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2365,11 +2655,15 @@
         <v>83999.84386373656</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2402,7 +2696,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2435,7 +2733,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2468,7 +2770,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2501,7 +2807,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2534,7 +2844,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2567,7 +2881,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2600,7 +2918,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2629,11 +2951,15 @@
         <v>82526.87856373657</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2662,11 +2988,15 @@
         <v>82526.87856373657</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2695,11 +3025,15 @@
         <v>86153.12306373657</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2728,11 +3062,15 @@
         <v>83700.24066373656</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2761,11 +3099,15 @@
         <v>83700.24066373656</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2794,11 +3136,15 @@
         <v>83700.24066373656</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2831,7 +3177,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2864,7 +3214,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2897,7 +3251,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2930,7 +3288,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2963,7 +3325,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2996,7 +3362,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3029,7 +3399,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3062,7 +3436,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3095,7 +3473,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3128,7 +3510,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3161,7 +3547,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3194,7 +3584,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3227,7 +3621,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3260,7 +3658,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3293,7 +3695,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3326,7 +3732,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3359,7 +3769,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3392,7 +3806,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3425,7 +3843,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3458,7 +3880,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3491,7 +3917,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3524,7 +3954,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3557,7 +3991,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3590,7 +4028,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3623,7 +4065,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3656,7 +4102,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3689,7 +4139,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3722,7 +4176,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3755,7 +4213,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3788,7 +4250,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3821,7 +4287,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3854,7 +4324,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3887,7 +4361,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3916,15 +4394,13 @@
         <v>76493.08599186561</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>3058</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L107" t="n">
@@ -3955,11 +4431,9 @@
         <v>79446.6118918656</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>3057</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
@@ -4105,11 +4579,9 @@
         <v>78328.0499918656</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>3065</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
@@ -4218,11 +4690,9 @@
         <v>79025.16729186561</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>3067</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
@@ -4257,11 +4727,9 @@
         <v>81416.21389186561</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>3069</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
@@ -9180,16 +9648,18 @@
         <v>100813.183211363</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L249" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
       <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
@@ -9215,11 +9685,15 @@
         <v>100715.983211363</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9252,7 +9726,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9285,7 +9763,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9318,7 +9800,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9351,7 +9837,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9384,7 +9874,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9417,7 +9911,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9450,7 +9948,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9483,7 +9985,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9516,7 +10022,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9549,7 +10059,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9582,7 +10096,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9615,7 +10133,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9648,7 +10170,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9681,7 +10207,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9714,7 +10244,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9747,7 +10281,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9780,7 +10318,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9813,7 +10355,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9846,7 +10392,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9879,7 +10429,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9912,7 +10466,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9945,7 +10503,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9978,7 +10540,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10011,7 +10577,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10044,7 +10614,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10077,7 +10651,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10110,7 +10688,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10143,7 +10725,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10176,7 +10762,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10209,7 +10799,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10242,7 +10836,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10275,7 +10873,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10308,7 +10910,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10341,7 +10947,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10374,7 +10984,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10407,7 +11021,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10440,7 +11058,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10473,7 +11095,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10506,7 +11132,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10539,7 +11169,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10572,7 +11206,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10605,7 +11243,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10638,7 +11280,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10667,15 +11313,13 @@
         <v>77308.22541136299</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
-      </c>
-      <c r="I294" t="n">
-        <v>3044</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L294" t="n">
@@ -10706,11 +11350,9 @@
         <v>77308.22541136299</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="n">
-        <v>3039</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
@@ -10745,11 +11387,9 @@
         <v>77331.77901136299</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="n">
-        <v>3039</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
@@ -10784,11 +11424,9 @@
         <v>77331.77901136299</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>3052</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
@@ -10823,11 +11461,9 @@
         <v>76432.27281136299</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
-      </c>
-      <c r="I298" t="n">
-        <v>3052</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
@@ -10862,11 +11498,9 @@
         <v>76964.75811136299</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
-      </c>
-      <c r="I299" t="n">
-        <v>3037</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
@@ -10901,11 +11535,9 @@
         <v>76907.45811136298</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
-      </c>
-      <c r="I300" t="n">
-        <v>3050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
@@ -10940,11 +11572,9 @@
         <v>76907.45811136298</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I301" t="n">
-        <v>3048</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
@@ -10979,11 +11609,9 @@
         <v>76907.45811136298</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
-      </c>
-      <c r="I302" t="n">
-        <v>3048</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
@@ -11018,11 +11646,9 @@
         <v>74246.90691136298</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
-      </c>
-      <c r="I303" t="n">
-        <v>3048</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
@@ -11057,11 +11683,9 @@
         <v>73176.05491136298</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
-      </c>
-      <c r="I304" t="n">
-        <v>3037</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
@@ -11096,11 +11720,9 @@
         <v>73376.35491136299</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
-      </c>
-      <c r="I305" t="n">
-        <v>3036</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
@@ -11135,11 +11757,9 @@
         <v>73627.76931136298</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
-      </c>
-      <c r="I306" t="n">
-        <v>3046</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
@@ -11174,11 +11794,9 @@
         <v>74950.05961136297</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
-      </c>
-      <c r="I307" t="n">
-        <v>3048</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
@@ -11213,11 +11831,9 @@
         <v>74798.00221136297</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
-      </c>
-      <c r="I308" t="n">
-        <v>3059</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
@@ -11252,11 +11868,9 @@
         <v>74967.56101136297</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
-      </c>
-      <c r="I309" t="n">
-        <v>3052</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
@@ -11772,11 +12386,9 @@
         <v>72177.40321136297</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
-      </c>
-      <c r="I323" t="n">
-        <v>3037</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
@@ -11811,11 +12423,9 @@
         <v>73485.46051136297</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I324" t="n">
-        <v>3037</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
@@ -11850,11 +12460,9 @@
         <v>73667.66051136296</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I325" t="n">
-        <v>3038</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
@@ -11889,11 +12497,9 @@
         <v>72856.54321136296</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
-      </c>
-      <c r="I326" t="n">
-        <v>3051</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
@@ -11928,11 +12534,9 @@
         <v>71611.14281136297</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
-      </c>
-      <c r="I327" t="n">
-        <v>3040</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
@@ -11967,11 +12571,9 @@
         <v>69819.21391136297</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
-      </c>
-      <c r="I328" t="n">
-        <v>3037</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
@@ -12006,11 +12608,9 @@
         <v>69819.21391136297</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
-      </c>
-      <c r="I329" t="n">
-        <v>3029</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
@@ -12045,11 +12645,9 @@
         <v>69983.26721136297</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
-      </c>
-      <c r="I330" t="n">
-        <v>3029</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
@@ -12084,11 +12682,9 @@
         <v>69762.51321136297</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
-      </c>
-      <c r="I331" t="n">
-        <v>3037</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
@@ -12123,11 +12719,9 @@
         <v>69709.51331136297</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
-      </c>
-      <c r="I332" t="n">
-        <v>3028</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
@@ -12392,11 +12986,9 @@
         <v>102787.587311363</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
-      </c>
-      <c r="I339" t="n">
-        <v>3020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
@@ -12505,9 +13097,11 @@
         <v>104334.553011363</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>3023</v>
+      </c>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
@@ -12542,9 +13136,11 @@
         <v>104415.284511363</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>3028</v>
+      </c>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
@@ -13245,9 +13841,11 @@
         <v>100906.663311363</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>3014</v>
+      </c>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
@@ -13282,9 +13880,11 @@
         <v>100714.045411363</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I363" t="n">
+        <v>3012</v>
+      </c>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
@@ -13319,9 +13919,11 @@
         <v>106181.828411363</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>3010</v>
+      </c>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
@@ -13356,9 +13958,11 @@
         <v>108671.744811363</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I365" t="n">
+        <v>3015</v>
+      </c>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
@@ -13393,9 +13997,11 @@
         <v>109171.744811363</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I366" t="n">
+        <v>3016</v>
+      </c>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
@@ -13430,9 +14036,11 @@
         <v>109164.220911363</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I367" t="n">
+        <v>3022</v>
+      </c>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
@@ -13467,9 +14075,11 @@
         <v>109791.119111363</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I368" t="n">
+        <v>3020</v>
+      </c>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
@@ -13504,9 +14114,11 @@
         <v>109737.990111363</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I369" t="n">
+        <v>3021</v>
+      </c>
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
@@ -13541,9 +14153,11 @@
         <v>110641.962911363</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I370" t="n">
+        <v>3020</v>
+      </c>
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
@@ -13615,9 +14229,11 @@
         <v>110128.850411363</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I372" t="n">
+        <v>3020</v>
+      </c>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
@@ -13689,9 +14305,11 @@
         <v>111351.047911363</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>3020</v>
+      </c>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
@@ -13726,9 +14344,11 @@
         <v>111366.047911363</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>3024</v>
+      </c>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
@@ -13763,9 +14383,11 @@
         <v>110866.047911363</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>3039</v>
+      </c>
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
@@ -13800,9 +14422,11 @@
         <v>110862.601011363</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I377" t="n">
+        <v>3022</v>
+      </c>
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
@@ -13837,9 +14461,11 @@
         <v>110336.087211363</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I378" t="n">
+        <v>3020</v>
+      </c>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
@@ -13874,9 +14500,11 @@
         <v>110974.944411363</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>3010</v>
+      </c>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
@@ -13911,9 +14539,11 @@
         <v>110979.990611363</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I380" t="n">
+        <v>3020</v>
+      </c>
       <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
@@ -13948,9 +14578,11 @@
         <v>111074.222611363</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I381" t="n">
+        <v>3023</v>
+      </c>
       <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
@@ -13985,9 +14617,11 @@
         <v>110012.656811363</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I382" t="n">
+        <v>3027</v>
+      </c>
       <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
@@ -14022,9 +14656,11 @@
         <v>110012.656811363</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I383" t="n">
+        <v>3020</v>
+      </c>
       <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
@@ -14059,9 +14695,11 @@
         <v>109880.206511363</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I384" t="n">
+        <v>3020</v>
+      </c>
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
@@ -14096,9 +14734,11 @@
         <v>109780.704111363</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I385" t="n">
+        <v>3015</v>
+      </c>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
@@ -14133,9 +14773,11 @@
         <v>109846.862611363</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I386" t="n">
+        <v>3013</v>
+      </c>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
@@ -14318,9 +14960,11 @@
         <v>110220.172511363</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I391" t="n">
+        <v>3013</v>
+      </c>
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
@@ -14355,9 +14999,11 @@
         <v>109271.927911363</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
-      </c>
-      <c r="I392" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I392" t="n">
+        <v>3024</v>
+      </c>
       <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
@@ -14392,9 +15038,11 @@
         <v>109191.379211363</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I393" t="n">
+        <v>3021</v>
+      </c>
       <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
@@ -14429,9 +15077,11 @@
         <v>109112.885211363</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I394" t="n">
+        <v>3017</v>
+      </c>
       <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
@@ -14466,9 +15116,11 @@
         <v>109166.818811363</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I395" t="n">
+        <v>3016</v>
+      </c>
       <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
@@ -14503,9 +15155,11 @@
         <v>109022.932111363</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I396" t="n">
+        <v>3024</v>
+      </c>
       <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
@@ -14540,9 +15194,11 @@
         <v>109739.1644179789</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I397" t="n">
+        <v>3006</v>
+      </c>
       <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
@@ -14577,9 +15233,11 @@
         <v>110003.1893179789</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I398" t="n">
+        <v>3021</v>
+      </c>
       <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
@@ -14614,9 +15272,11 @@
         <v>110029.1125179789</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>3023</v>
+      </c>
       <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
@@ -14651,9 +15311,11 @@
         <v>110024.1125179789</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>3024</v>
+      </c>
       <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
@@ -14688,9 +15350,11 @@
         <v>105493.5766179789</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>3018</v>
+      </c>
       <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
@@ -14725,9 +15389,11 @@
         <v>105569.8766179789</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>2989</v>
+      </c>
       <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
@@ -14762,9 +15428,11 @@
         <v>105590.5537179789</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I403" t="n">
+        <v>3012</v>
+      </c>
       <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
@@ -14799,9 +15467,11 @@
         <v>105582.3784179789</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
-      </c>
-      <c r="I404" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I404" t="n">
+        <v>3016</v>
+      </c>
       <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
@@ -14836,9 +15506,11 @@
         <v>105610.1784179789</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
-      </c>
-      <c r="I405" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I405" t="n">
+        <v>3015</v>
+      </c>
       <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
@@ -14873,9 +15545,11 @@
         <v>110856.4018179789</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
-      </c>
-      <c r="I406" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I406" t="n">
+        <v>3018</v>
+      </c>
       <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
@@ -14910,9 +15584,11 @@
         <v>110880.8837179789</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
-      </c>
-      <c r="I407" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I407" t="n">
+        <v>3019</v>
+      </c>
       <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
@@ -14947,9 +15623,11 @@
         <v>111109.4496179789</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
-      </c>
-      <c r="I408" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I408" t="n">
+        <v>3024</v>
+      </c>
       <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
@@ -14984,9 +15662,11 @@
         <v>111112.8631179789</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
-      </c>
-      <c r="I409" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I409" t="n">
+        <v>3027</v>
+      </c>
       <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
@@ -15021,9 +15701,11 @@
         <v>111884.8831179789</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
-      </c>
-      <c r="I410" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I410" t="n">
+        <v>3028</v>
+      </c>
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
@@ -15058,9 +15740,11 @@
         <v>111695.6727179789</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
-      </c>
-      <c r="I411" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I411" t="n">
+        <v>3043</v>
+      </c>
       <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
@@ -15095,9 +15779,11 @@
         <v>111696.6727179789</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
-      </c>
-      <c r="I412" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I412" t="n">
+        <v>3036</v>
+      </c>
       <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
@@ -15132,9 +15818,11 @@
         <v>111696.6727179789</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
-      </c>
-      <c r="I413" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I413" t="n">
+        <v>3044</v>
+      </c>
       <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
@@ -15169,9 +15857,11 @@
         <v>111931.3443179789</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
-      </c>
-      <c r="I414" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I414" t="n">
+        <v>3044</v>
+      </c>
       <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
@@ -19387,16 +20077,18 @@
         <v>122837.0222615117</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L528" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L528" t="n">
+        <v>1</v>
+      </c>
       <c r="M528" t="inlineStr"/>
     </row>
     <row r="529">
@@ -19422,11 +20114,15 @@
         <v>123671.1730615117</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -19455,11 +20151,15 @@
         <v>122465.4276615117</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -19488,11 +20188,15 @@
         <v>124058.6585615117</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -19521,11 +20225,15 @@
         <v>123862.0481615117</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -19554,11 +20262,15 @@
         <v>123559.7803615117</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -19587,11 +20299,15 @@
         <v>123573.1803615117</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -19620,11 +20336,15 @@
         <v>123943.8531008043</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -19653,11 +20373,15 @@
         <v>124053.3531008043</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -19686,11 +20410,15 @@
         <v>122670.1094008043</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -19719,11 +20447,15 @@
         <v>122962.5599008043</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -19752,11 +20484,15 @@
         <v>122926.9165008043</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -19785,11 +20521,15 @@
         <v>122588.7099008043</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -19818,11 +20558,15 @@
         <v>123527.907258848</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -19851,11 +20595,15 @@
         <v>122653.117858848</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -19884,11 +20632,15 @@
         <v>122653.117858848</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -19917,11 +20669,15 @@
         <v>122606.117858848</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -19950,11 +20706,15 @@
         <v>122594.117858848</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -19983,11 +20743,15 @@
         <v>122487.117858848</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -20016,11 +20780,15 @@
         <v>120270.986858848</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -20049,11 +20817,15 @@
         <v>120768.986858848</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -20082,11 +20854,15 @@
         <v>120768.986858848</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -20115,11 +20891,15 @@
         <v>120653.659058848</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -20148,11 +20928,15 @@
         <v>120653.659058848</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -20181,11 +20965,15 @@
         <v>120065.125058848</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -20218,7 +21006,11 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -20251,7 +21043,11 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -20284,7 +21080,11 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -20317,7 +21117,11 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -20350,7 +21154,11 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -20383,7 +21191,11 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -20416,7 +21228,11 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -20449,7 +21265,11 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -20482,7 +21302,11 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -20515,7 +21339,11 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -20548,7 +21376,11 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -20581,7 +21413,11 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -20614,7 +21450,11 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -20647,7 +21487,11 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -20680,7 +21524,11 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -20713,7 +21561,11 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -20746,7 +21598,11 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -20779,7 +21635,11 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -20812,7 +21672,11 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -20845,7 +21709,11 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -20878,7 +21746,11 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -20911,7 +21783,11 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -20944,7 +21820,11 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -20977,7 +21857,11 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -21010,7 +21894,11 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -21043,7 +21931,11 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -21076,7 +21968,11 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -21109,7 +22005,11 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -21142,7 +22042,11 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -21175,7 +22079,11 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -21208,7 +22116,11 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -21241,7 +22153,11 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -21274,7 +22190,11 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -21307,7 +22227,11 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -21340,7 +22264,11 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -21373,7 +22301,11 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -21406,7 +22338,11 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -21439,7 +22375,11 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -21472,7 +22412,11 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -21505,7 +22449,11 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -21538,7 +22486,11 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -21571,7 +22523,11 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -21604,7 +22560,11 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -21637,7 +22597,11 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -21670,7 +22634,11 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -21703,7 +22671,11 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -21736,7 +22708,11 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -21769,7 +22745,11 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -21802,7 +22782,11 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -21835,7 +22819,11 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -21868,7 +22856,11 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -21901,7 +22893,11 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -21934,7 +22930,11 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -21967,7 +22967,11 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -22000,7 +23004,11 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -22033,7 +23041,11 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -22066,7 +23078,11 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -22095,11 +23111,15 @@
         <v>123899.4913083644</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -22128,11 +23148,15 @@
         <v>123362.1408083644</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -22161,11 +23185,15 @@
         <v>123362.1408083644</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -22194,11 +23222,15 @@
         <v>122638.5079083645</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -22227,11 +23259,15 @@
         <v>122643.5079083645</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -22264,7 +23300,11 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -22297,7 +23337,11 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -22330,7 +23374,11 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -22359,11 +23407,15 @@
         <v>122647.4065083645</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -22392,11 +23444,15 @@
         <v>122558.0691083644</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -22425,11 +23481,15 @@
         <v>122642.3774083645</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -22462,7 +23522,11 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -22495,7 +23559,11 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -22528,7 +23596,11 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -22557,11 +23629,15 @@
         <v>126903.6180083644</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -22590,11 +23666,15 @@
         <v>126903.6180083644</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -22623,11 +23703,15 @@
         <v>127546.5991083644</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -22656,11 +23740,15 @@
         <v>127205.4295362567</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -22689,11 +23777,15 @@
         <v>136589.7355362567</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -22722,11 +23814,15 @@
         <v>144397.8430362567</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -22755,11 +23851,15 @@
         <v>146298.4157362567</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -22788,11 +23888,15 @@
         <v>146298.4157362567</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -22821,11 +23925,15 @@
         <v>149043.9600362567</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -22854,11 +23962,15 @@
         <v>149038.9600362567</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -22887,11 +23999,15 @@
         <v>149038.9600362567</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -22920,11 +24036,15 @@
         <v>149298.6600362567</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -22953,11 +24073,15 @@
         <v>149298.6600362567</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -22986,11 +24110,15 @@
         <v>149627.6798362567</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -23019,11 +24147,15 @@
         <v>150183.3640362567</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -23052,11 +24184,15 @@
         <v>148996.8152362567</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -23089,7 +24225,11 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -23122,7 +24262,11 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -23155,7 +24299,11 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -23188,7 +24336,11 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -23221,7 +24373,11 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -23254,7 +24410,11 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -23287,7 +24447,11 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -23320,7 +24484,11 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -23353,7 +24521,11 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -23386,7 +24558,11 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -23419,7 +24595,11 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -23452,7 +24632,11 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -23485,7 +24669,11 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -23518,7 +24706,11 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -23551,7 +24743,11 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -23584,7 +24780,11 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -23617,7 +24817,11 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -23650,7 +24854,11 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -23683,7 +24891,11 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -23716,7 +24928,11 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -23749,7 +24965,11 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -23782,7 +25002,11 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -23815,7 +25039,11 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -23848,7 +25076,11 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -23881,7 +25113,11 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -23910,14 +25146,16 @@
         <v>171996.0618843026</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
-      <c r="L665" t="n">
-        <v>1</v>
-      </c>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L665" t="inlineStr"/>
       <c r="M665" t="inlineStr"/>
     </row>
     <row r="666">
@@ -23943,7 +25181,7 @@
         <v>171139.1161843025</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -23976,7 +25214,7 @@
         <v>171139.1161843025</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -24009,7 +25247,7 @@
         <v>171139.1161843025</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -24042,7 +25280,7 @@
         <v>168313.1817843025</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -24075,7 +25313,7 @@
         <v>168301.9211843025</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -24108,7 +25346,7 @@
         <v>168301.9211843025</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -24174,7 +25412,7 @@
         <v>168306.9884843025</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -24207,7 +25445,7 @@
         <v>168317.7085843025</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -24240,7 +25478,7 @@
         <v>168317.7085843025</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -24273,7 +25511,7 @@
         <v>169232.3102843025</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -24306,7 +25544,7 @@
         <v>174636.1862843025</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -24339,7 +25577,7 @@
         <v>175308.2684843025</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -24372,7 +25610,7 @@
         <v>184174.9678535143</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -24405,7 +25643,7 @@
         <v>184021.1649535143</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -24438,7 +25676,7 @@
         <v>196286.2572535143</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -24471,7 +25709,7 @@
         <v>194925.6535535142</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -24504,7 +25742,7 @@
         <v>194925.6535535142</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -24537,7 +25775,7 @@
         <v>194111.5099535142</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -24570,7 +25808,7 @@
         <v>192945.6519535142</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -24603,7 +25841,7 @@
         <v>192945.6519535142</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -24636,7 +25874,7 @@
         <v>192945.6519535142</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -24669,7 +25907,7 @@
         <v>193844.1773535142</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -24702,7 +25940,7 @@
         <v>192709.0458535143</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -24735,7 +25973,7 @@
         <v>190732.3423535143</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -24768,7 +26006,7 @@
         <v>191043.3842535143</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -24801,7 +26039,7 @@
         <v>196982.9597535143</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -24834,7 +26072,7 @@
         <v>192944.6538535143</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -24867,7 +26105,7 @@
         <v>190754.6087535143</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -24900,7 +26138,7 @@
         <v>188673.8459535143</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -24933,7 +26171,7 @@
         <v>188929.0907535143</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -24966,7 +26204,7 @@
         <v>188368.3195535143</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -26055,7 +27293,7 @@
         <v>190792.2279220431</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -26121,7 +27359,7 @@
         <v>190387.9741220431</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -26154,7 +27392,7 @@
         <v>190387.874190572</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -26187,7 +27425,7 @@
         <v>190175.403690572</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -26220,7 +27458,7 @@
         <v>190175.403690572</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -26253,7 +27491,7 @@
         <v>190480.8336905719</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -26286,7 +27524,7 @@
         <v>193069.5821905719</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -26319,7 +27557,7 @@
         <v>196178.2587905719</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -26352,7 +27590,7 @@
         <v>194333.3009115596</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -26385,7 +27623,7 @@
         <v>194333.3009115596</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -26418,7 +27656,7 @@
         <v>196582.6675115596</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -26451,7 +27689,7 @@
         <v>196510.6421314546</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -26484,7 +27722,7 @@
         <v>196510.6421314546</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -26517,7 +27755,7 @@
         <v>196154.9974314546</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -26550,7 +27788,7 @@
         <v>195799.7038314546</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -26583,7 +27821,7 @@
         <v>195157.7038314546</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -26616,7 +27854,7 @@
         <v>194617.7038314546</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -26649,7 +27887,7 @@
         <v>194617.7038314546</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -26682,7 +27920,7 @@
         <v>197140.4834314546</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -26715,7 +27953,7 @@
         <v>197542.5506314546</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -26748,7 +27986,7 @@
         <v>193348.1614314546</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -26781,7 +28019,7 @@
         <v>193348.1614314546</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -26814,7 +28052,7 @@
         <v>193018.1614314546</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -26847,7 +28085,7 @@
         <v>191946.9047314546</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -26880,7 +28118,7 @@
         <v>193040.7900314546</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -26913,7 +28151,7 @@
         <v>193814.6980314546</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -27012,7 +28250,7 @@
         <v>199824.0721314546</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -27045,7 +28283,7 @@
         <v>199710.3146314546</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -29157,7 +30395,7 @@
         <v>188183.3341049289</v>
       </c>
       <c r="H824" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
